--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TheAncientOwl\Documents\finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEC2F91-660E-4A42-B97A-4E311F5849FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631CAABD-AC6E-4CA3-B6E8-2162D7319C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F762C5AB-E878-4D42-A6F3-9B1185CC87EF}"/>
   </bookViews>
@@ -995,19 +995,16 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1026,9 +1023,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1344,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43FE18B3-D9D2-4388-AA66-33612955DD8E}">
   <dimension ref="A1:AK156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="28">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="Q1" s="55"/>
       <c r="R1" s="55"/>
@@ -1420,7 +1420,7 @@
         <v>20</v>
       </c>
       <c r="U1" s="2">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="V1" s="55"/>
       <c r="W1" s="55"/>
@@ -1473,7 +1473,7 @@
         <v>17</v>
       </c>
       <c r="P2" s="28">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="Q2" s="28">
         <v>1800</v>
@@ -1484,7 +1484,7 @@
         <v>21</v>
       </c>
       <c r="U2" s="2">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="V2" s="55"/>
       <c r="W2" s="55"/>
@@ -1890,20 +1890,19 @@
         <v>1870</v>
       </c>
       <c r="I10" s="32">
-        <f>SUM(G10:H10)</f>
-        <v>1870</v>
+        <v>1873</v>
       </c>
       <c r="J10" s="50">
         <f>F10-I10</f>
-        <v>3950</v>
+        <v>3947</v>
       </c>
       <c r="K10" s="11">
         <f>SUM($J$10:J10)</f>
-        <v>3950</v>
+        <v>3947</v>
       </c>
       <c r="L10" s="52">
         <f>$H$5-K10</f>
-        <v>272987</v>
+        <v>272990</v>
       </c>
       <c r="M10" s="30">
         <f>ROUND(L10*$U$5*(1+$U$5)^60/((1+$U$5)^60-1), 0)</f>
@@ -1915,15 +1914,15 @@
       </c>
       <c r="O10" s="52">
         <f>$P$5-K10</f>
-        <v>323737</v>
+        <v>323740</v>
       </c>
       <c r="P10" s="30">
         <f>ROUND(O10*$U$5*(1+$U$5)^60/((1+$U$5)^60-1), 0)</f>
-        <v>6767</v>
+        <v>6768</v>
       </c>
       <c r="Q10" s="30">
         <f>F10-P10</f>
-        <v>-947</v>
+        <v>-948</v>
       </c>
       <c r="R10" s="33">
         <v>45143</v>
@@ -1981,40 +1980,39 @@
         <v>1800</v>
       </c>
       <c r="I11" s="32">
-        <f>SUM(G11:H11)</f>
-        <v>1800</v>
+        <v>1731</v>
       </c>
       <c r="J11" s="50">
         <f>F11-I11</f>
-        <v>4020</v>
+        <v>4089</v>
       </c>
       <c r="K11" s="11">
         <f>SUM($J$10:J11)</f>
-        <v>7970</v>
+        <v>8036</v>
       </c>
       <c r="L11" s="52">
         <f t="shared" ref="L11:L74" si="0">$H$5-K11</f>
-        <v>268967</v>
+        <v>268901</v>
       </c>
       <c r="M11" s="30">
         <f t="shared" ref="M11:M45" si="1">ROUND(L11*$U$5*(1+$U$5)^60/((1+$U$5)^60-1), 0)</f>
-        <v>5623</v>
+        <v>5621</v>
       </c>
       <c r="N11" s="30">
         <f t="shared" ref="N11:N50" si="2">F11-M11</f>
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O11" s="52">
         <f t="shared" ref="O11:O74" si="3">$P$5-K11</f>
-        <v>319717</v>
+        <v>319651</v>
       </c>
       <c r="P11" s="30">
         <f t="shared" ref="P11:P45" si="4">ROUND(O11*$U$5*(1+$U$5)^60/((1+$U$5)^60-1), 0)</f>
-        <v>6683</v>
+        <v>6682</v>
       </c>
       <c r="Q11" s="30">
         <f t="shared" ref="Q11:Q50" si="5">F11-P11</f>
-        <v>-863</v>
+        <v>-862</v>
       </c>
       <c r="R11" s="33">
         <v>45174</v>
@@ -2059,11 +2057,11 @@
       </c>
       <c r="E12" s="30">
         <f>$U$1</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F12" s="10">
         <f t="shared" ref="F12:F35" si="9">SUM(C12:E12)</f>
-        <v>6620</v>
+        <v>6820</v>
       </c>
       <c r="G12" s="30">
         <v>200</v>
@@ -2073,40 +2071,39 @@
         <v>1800</v>
       </c>
       <c r="I12" s="32">
-        <f t="shared" ref="I12:I35" si="11">SUM(G12:H12)</f>
-        <v>2000</v>
+        <v>6602</v>
       </c>
       <c r="J12" s="50">
-        <f t="shared" ref="J12:J35" si="12">F12-I12</f>
-        <v>4620</v>
+        <f t="shared" ref="J12:J35" si="11">F12-I12</f>
+        <v>218</v>
       </c>
       <c r="K12" s="11">
         <f>SUM($J$10:J12)</f>
-        <v>12590</v>
+        <v>8254</v>
       </c>
       <c r="L12" s="52">
         <f t="shared" si="0"/>
-        <v>264347</v>
+        <v>268683</v>
       </c>
       <c r="M12" s="30">
         <f t="shared" si="1"/>
-        <v>5526</v>
+        <v>5617</v>
       </c>
       <c r="N12" s="30">
         <f t="shared" si="2"/>
-        <v>1094</v>
+        <v>1203</v>
       </c>
       <c r="O12" s="52">
         <f t="shared" si="3"/>
-        <v>315097</v>
+        <v>319433</v>
       </c>
       <c r="P12" s="30">
         <f t="shared" si="4"/>
-        <v>6587</v>
+        <v>6678</v>
       </c>
       <c r="Q12" s="30">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="R12" s="33">
         <v>45204</v>
@@ -2151,11 +2148,11 @@
       </c>
       <c r="E13" s="30">
         <f>$U$1</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F13" s="10">
         <f t="shared" si="9"/>
-        <v>6620</v>
+        <v>6820</v>
       </c>
       <c r="G13" s="30">
         <v>200</v>
@@ -2165,40 +2162,40 @@
         <v>1800</v>
       </c>
       <c r="I13" s="32">
+        <f t="shared" ref="I12:I35" si="12">SUM(G13:H13)</f>
+        <v>2000</v>
+      </c>
+      <c r="J13" s="50">
         <f t="shared" si="11"/>
-        <v>2000</v>
-      </c>
-      <c r="J13" s="50">
-        <f t="shared" si="12"/>
-        <v>4620</v>
+        <v>4820</v>
       </c>
       <c r="K13" s="11">
         <f>SUM($J$10:J13)</f>
-        <v>17210</v>
+        <v>13074</v>
       </c>
       <c r="L13" s="52">
         <f t="shared" si="0"/>
-        <v>259727</v>
+        <v>263863</v>
       </c>
       <c r="M13" s="30">
         <f t="shared" si="1"/>
-        <v>5429</v>
+        <v>5516</v>
       </c>
       <c r="N13" s="30">
         <f t="shared" si="2"/>
-        <v>1191</v>
+        <v>1304</v>
       </c>
       <c r="O13" s="52">
         <f t="shared" si="3"/>
-        <v>310477</v>
+        <v>314613</v>
       </c>
       <c r="P13" s="30">
         <f t="shared" si="4"/>
-        <v>6490</v>
+        <v>6577</v>
       </c>
       <c r="Q13" s="30">
         <f t="shared" si="5"/>
-        <v>130</v>
+        <v>243</v>
       </c>
       <c r="R13" s="33">
         <v>45235</v>
@@ -2243,11 +2240,11 @@
       </c>
       <c r="E14" s="41">
         <f>$U$1</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F14" s="41">
         <f t="shared" si="9"/>
-        <v>6620</v>
+        <v>6820</v>
       </c>
       <c r="G14" s="41">
         <v>200</v>
@@ -2257,40 +2254,40 @@
         <v>1800</v>
       </c>
       <c r="I14" s="41">
+        <f t="shared" si="12"/>
+        <v>2000</v>
+      </c>
+      <c r="J14" s="43">
         <f t="shared" si="11"/>
-        <v>2000</v>
-      </c>
-      <c r="J14" s="43">
-        <f t="shared" si="12"/>
-        <v>4620</v>
+        <v>4820</v>
       </c>
       <c r="K14" s="41">
         <f>SUM($J$10:J14)</f>
-        <v>21830</v>
+        <v>17894</v>
       </c>
       <c r="L14" s="44">
         <f t="shared" si="0"/>
-        <v>255107</v>
+        <v>259043</v>
       </c>
       <c r="M14" s="41">
         <f t="shared" si="1"/>
-        <v>5333</v>
+        <v>5415</v>
       </c>
       <c r="N14" s="41">
         <f t="shared" si="2"/>
-        <v>1287</v>
+        <v>1405</v>
       </c>
       <c r="O14" s="44">
         <f t="shared" si="3"/>
-        <v>305857</v>
+        <v>309793</v>
       </c>
       <c r="P14" s="41">
         <f t="shared" si="4"/>
-        <v>6394</v>
+        <v>6476</v>
       </c>
       <c r="Q14" s="41">
         <f t="shared" si="5"/>
-        <v>226</v>
+        <v>344</v>
       </c>
       <c r="R14" s="42">
         <v>45265</v>
@@ -2335,11 +2332,11 @@
       </c>
       <c r="E15" s="30">
         <f>$U$1</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F15" s="10">
         <f t="shared" si="9"/>
-        <v>7220</v>
+        <v>7420</v>
       </c>
       <c r="G15" s="30">
         <v>200</v>
@@ -2349,40 +2346,40 @@
         <v>1800</v>
       </c>
       <c r="I15" s="32">
+        <f t="shared" si="12"/>
+        <v>2000</v>
+      </c>
+      <c r="J15" s="50">
         <f t="shared" si="11"/>
-        <v>2000</v>
-      </c>
-      <c r="J15" s="50">
-        <f t="shared" si="12"/>
-        <v>5220</v>
+        <v>5420</v>
       </c>
       <c r="K15" s="11">
         <f>SUM($J$10:J15)</f>
-        <v>27050</v>
+        <v>23314</v>
       </c>
       <c r="L15" s="52">
         <f t="shared" si="0"/>
-        <v>249887</v>
+        <v>253623</v>
       </c>
       <c r="M15" s="30">
         <f t="shared" si="1"/>
-        <v>5224</v>
+        <v>5302</v>
       </c>
       <c r="N15" s="30">
         <f t="shared" si="2"/>
-        <v>1996</v>
+        <v>2118</v>
       </c>
       <c r="O15" s="52">
         <f t="shared" si="3"/>
-        <v>300637</v>
+        <v>304373</v>
       </c>
       <c r="P15" s="30">
         <f t="shared" si="4"/>
-        <v>6285</v>
+        <v>6363</v>
       </c>
       <c r="Q15" s="30">
         <f t="shared" si="5"/>
-        <v>935</v>
+        <v>1057</v>
       </c>
       <c r="R15" s="33">
         <v>45296</v>
@@ -2427,11 +2424,11 @@
       </c>
       <c r="E16" s="30">
         <f>$U$1</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F16" s="10">
         <f t="shared" si="9"/>
-        <v>7220</v>
+        <v>7420</v>
       </c>
       <c r="G16" s="30">
         <v>200</v>
@@ -2441,40 +2438,40 @@
         <v>1800</v>
       </c>
       <c r="I16" s="32">
+        <f t="shared" si="12"/>
+        <v>2000</v>
+      </c>
+      <c r="J16" s="50">
         <f t="shared" si="11"/>
-        <v>2000</v>
-      </c>
-      <c r="J16" s="50">
-        <f t="shared" si="12"/>
-        <v>5220</v>
+        <v>5420</v>
       </c>
       <c r="K16" s="11">
         <f>SUM($J$10:J16)</f>
-        <v>32270</v>
+        <v>28734</v>
       </c>
       <c r="L16" s="52">
         <f t="shared" si="0"/>
-        <v>244667</v>
+        <v>248203</v>
       </c>
       <c r="M16" s="30">
         <f t="shared" si="1"/>
-        <v>5115</v>
+        <v>5188</v>
       </c>
       <c r="N16" s="30">
         <f t="shared" si="2"/>
-        <v>2105</v>
+        <v>2232</v>
       </c>
       <c r="O16" s="52">
         <f t="shared" si="3"/>
-        <v>295417</v>
+        <v>298953</v>
       </c>
       <c r="P16" s="30">
         <f t="shared" si="4"/>
-        <v>6175</v>
+        <v>6249</v>
       </c>
       <c r="Q16" s="30">
         <f t="shared" si="5"/>
-        <v>1045</v>
+        <v>1171</v>
       </c>
       <c r="R16" s="33">
         <v>45327</v>
@@ -2519,11 +2516,11 @@
       </c>
       <c r="E17" s="30">
         <f>$U$2</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F17" s="10">
         <f t="shared" si="9"/>
-        <v>7220</v>
+        <v>7420</v>
       </c>
       <c r="G17" s="30">
         <v>200</v>
@@ -2533,40 +2530,40 @@
         <v>1800</v>
       </c>
       <c r="I17" s="32">
+        <f t="shared" si="12"/>
+        <v>2000</v>
+      </c>
+      <c r="J17" s="50">
         <f t="shared" si="11"/>
-        <v>2000</v>
-      </c>
-      <c r="J17" s="50">
-        <f t="shared" si="12"/>
-        <v>5220</v>
+        <v>5420</v>
       </c>
       <c r="K17" s="11">
         <f>SUM($J$10:J17)</f>
-        <v>37490</v>
+        <v>34154</v>
       </c>
       <c r="L17" s="52">
         <f t="shared" si="0"/>
-        <v>239447</v>
+        <v>242783</v>
       </c>
       <c r="M17" s="30">
         <f t="shared" si="1"/>
-        <v>5005</v>
+        <v>5075</v>
       </c>
       <c r="N17" s="30">
         <f t="shared" si="2"/>
-        <v>2215</v>
+        <v>2345</v>
       </c>
       <c r="O17" s="52">
         <f t="shared" si="3"/>
-        <v>290197</v>
+        <v>293533</v>
       </c>
       <c r="P17" s="30">
         <f t="shared" si="4"/>
-        <v>6066</v>
+        <v>6136</v>
       </c>
       <c r="Q17" s="30">
         <f t="shared" si="5"/>
-        <v>1154</v>
+        <v>1284</v>
       </c>
       <c r="R17" s="33">
         <v>45356</v>
@@ -2611,11 +2608,11 @@
       </c>
       <c r="E18" s="30">
         <f>$U$2</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F18" s="10">
         <f t="shared" si="9"/>
-        <v>7220</v>
+        <v>7420</v>
       </c>
       <c r="G18" s="30">
         <v>200</v>
@@ -2625,40 +2622,40 @@
         <v>1800</v>
       </c>
       <c r="I18" s="32">
+        <f t="shared" si="12"/>
+        <v>2000</v>
+      </c>
+      <c r="J18" s="50">
         <f t="shared" si="11"/>
-        <v>2000</v>
-      </c>
-      <c r="J18" s="50">
-        <f t="shared" si="12"/>
-        <v>5220</v>
+        <v>5420</v>
       </c>
       <c r="K18" s="11">
         <f>SUM($J$10:J18)</f>
-        <v>42710</v>
+        <v>39574</v>
       </c>
       <c r="L18" s="52">
         <f t="shared" si="0"/>
-        <v>234227</v>
+        <v>237363</v>
       </c>
       <c r="M18" s="30">
         <f t="shared" si="1"/>
-        <v>4896</v>
+        <v>4962</v>
       </c>
       <c r="N18" s="30">
         <f t="shared" si="2"/>
-        <v>2324</v>
+        <v>2458</v>
       </c>
       <c r="O18" s="52">
         <f t="shared" si="3"/>
-        <v>284977</v>
+        <v>288113</v>
       </c>
       <c r="P18" s="30">
         <f t="shared" si="4"/>
-        <v>5957</v>
+        <v>6023</v>
       </c>
       <c r="Q18" s="30">
         <f t="shared" si="5"/>
-        <v>1263</v>
+        <v>1397</v>
       </c>
       <c r="R18" s="33">
         <v>45387</v>
@@ -2703,11 +2700,11 @@
       </c>
       <c r="E19" s="30">
         <f>$U$2</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F19" s="10">
         <f t="shared" si="9"/>
-        <v>7220</v>
+        <v>7420</v>
       </c>
       <c r="G19" s="30">
         <v>200</v>
@@ -2717,40 +2714,40 @@
         <v>1800</v>
       </c>
       <c r="I19" s="32">
+        <f t="shared" si="12"/>
+        <v>2000</v>
+      </c>
+      <c r="J19" s="50">
         <f t="shared" si="11"/>
-        <v>2000</v>
-      </c>
-      <c r="J19" s="50">
-        <f t="shared" si="12"/>
-        <v>5220</v>
+        <v>5420</v>
       </c>
       <c r="K19" s="11">
         <f>SUM($J$10:J19)</f>
-        <v>47930</v>
+        <v>44994</v>
       </c>
       <c r="L19" s="52">
         <f t="shared" si="0"/>
-        <v>229007</v>
+        <v>231943</v>
       </c>
       <c r="M19" s="30">
         <f t="shared" si="1"/>
-        <v>4787</v>
+        <v>4849</v>
       </c>
       <c r="N19" s="30">
         <f t="shared" si="2"/>
-        <v>2433</v>
+        <v>2571</v>
       </c>
       <c r="O19" s="52">
         <f t="shared" si="3"/>
-        <v>279757</v>
+        <v>282693</v>
       </c>
       <c r="P19" s="30">
         <f t="shared" si="4"/>
-        <v>5848</v>
+        <v>5909</v>
       </c>
       <c r="Q19" s="30">
         <f t="shared" si="5"/>
-        <v>1372</v>
+        <v>1511</v>
       </c>
       <c r="R19" s="33">
         <v>45417</v>
@@ -2795,11 +2792,11 @@
       </c>
       <c r="E20" s="30">
         <f>$U$2</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F20" s="10">
         <f t="shared" si="9"/>
-        <v>7220</v>
+        <v>7420</v>
       </c>
       <c r="G20" s="30">
         <v>200</v>
@@ -2809,40 +2806,40 @@
         <v>1800</v>
       </c>
       <c r="I20" s="32">
+        <f t="shared" si="12"/>
+        <v>2000</v>
+      </c>
+      <c r="J20" s="50">
         <f t="shared" si="11"/>
-        <v>2000</v>
-      </c>
-      <c r="J20" s="50">
-        <f t="shared" si="12"/>
-        <v>5220</v>
+        <v>5420</v>
       </c>
       <c r="K20" s="11">
         <f>SUM($J$10:J20)</f>
-        <v>53150</v>
+        <v>50414</v>
       </c>
       <c r="L20" s="52">
         <f t="shared" si="0"/>
-        <v>223787</v>
+        <v>226523</v>
       </c>
       <c r="M20" s="30">
         <f t="shared" si="1"/>
-        <v>4678</v>
+        <v>4735</v>
       </c>
       <c r="N20" s="30">
         <f t="shared" si="2"/>
-        <v>2542</v>
+        <v>2685</v>
       </c>
       <c r="O20" s="52">
         <f t="shared" si="3"/>
-        <v>274537</v>
+        <v>277273</v>
       </c>
       <c r="P20" s="30">
         <f t="shared" si="4"/>
-        <v>5739</v>
+        <v>5796</v>
       </c>
       <c r="Q20" s="30">
         <f t="shared" si="5"/>
-        <v>1481</v>
+        <v>1624</v>
       </c>
       <c r="R20" s="33">
         <v>45448</v>
@@ -2887,11 +2884,11 @@
       </c>
       <c r="E21" s="30">
         <f>$U$2</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F21" s="10">
         <f t="shared" si="9"/>
-        <v>7220</v>
+        <v>7420</v>
       </c>
       <c r="G21" s="30">
         <v>200</v>
@@ -2901,40 +2898,40 @@
         <v>1800</v>
       </c>
       <c r="I21" s="32">
+        <f t="shared" si="12"/>
+        <v>2000</v>
+      </c>
+      <c r="J21" s="50">
         <f t="shared" si="11"/>
-        <v>2000</v>
-      </c>
-      <c r="J21" s="50">
-        <f t="shared" si="12"/>
-        <v>5220</v>
+        <v>5420</v>
       </c>
       <c r="K21" s="11">
         <f>SUM($J$10:J21)</f>
-        <v>58370</v>
+        <v>55834</v>
       </c>
       <c r="L21" s="52">
         <f t="shared" si="0"/>
-        <v>218567</v>
+        <v>221103</v>
       </c>
       <c r="M21" s="30">
         <f t="shared" si="1"/>
-        <v>4569</v>
+        <v>4622</v>
       </c>
       <c r="N21" s="30">
         <f t="shared" si="2"/>
-        <v>2651</v>
+        <v>2798</v>
       </c>
       <c r="O21" s="52">
         <f t="shared" si="3"/>
-        <v>269317</v>
+        <v>271853</v>
       </c>
       <c r="P21" s="30">
         <f t="shared" si="4"/>
-        <v>5630</v>
+        <v>5683</v>
       </c>
       <c r="Q21" s="30">
         <f t="shared" si="5"/>
-        <v>1590</v>
+        <v>1737</v>
       </c>
       <c r="R21" s="33">
         <v>45478</v>
@@ -2986,47 +2983,47 @@
       </c>
       <c r="G22" s="30">
         <f>$P$1</f>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H22" s="30">
         <f t="shared" ref="H22:H85" si="14">$P$2</f>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I22" s="32">
+        <f t="shared" si="12"/>
+        <v>3500</v>
+      </c>
+      <c r="J22" s="50">
         <f t="shared" si="11"/>
-        <v>3300</v>
-      </c>
-      <c r="J22" s="50">
-        <f t="shared" si="12"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K22" s="11">
         <f>SUM($J$10:J22)</f>
-        <v>61490</v>
+        <v>58754</v>
       </c>
       <c r="L22" s="52">
         <f t="shared" si="0"/>
-        <v>215447</v>
+        <v>218183</v>
       </c>
       <c r="M22" s="30">
         <f t="shared" si="1"/>
-        <v>4504</v>
+        <v>4561</v>
       </c>
       <c r="N22" s="30">
         <f t="shared" si="2"/>
-        <v>1916</v>
+        <v>1859</v>
       </c>
       <c r="O22" s="52">
         <f t="shared" si="3"/>
-        <v>266197</v>
+        <v>268933</v>
       </c>
       <c r="P22" s="30">
         <f t="shared" si="4"/>
-        <v>5565</v>
+        <v>5622</v>
       </c>
       <c r="Q22" s="30">
         <f t="shared" si="5"/>
-        <v>855</v>
+        <v>798</v>
       </c>
       <c r="R22" s="33">
         <v>45509</v>
@@ -3078,47 +3075,47 @@
       </c>
       <c r="G23" s="30">
         <f t="shared" ref="G23:G86" si="15">$P$1</f>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H23" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I23" s="32">
+        <f t="shared" si="12"/>
+        <v>3500</v>
+      </c>
+      <c r="J23" s="50">
         <f t="shared" si="11"/>
-        <v>3300</v>
-      </c>
-      <c r="J23" s="50">
-        <f t="shared" si="12"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K23" s="11">
         <f>SUM($J$10:J23)</f>
-        <v>64610</v>
+        <v>61674</v>
       </c>
       <c r="L23" s="52">
         <f t="shared" si="0"/>
-        <v>212327</v>
+        <v>215263</v>
       </c>
       <c r="M23" s="30">
         <f t="shared" si="1"/>
-        <v>4439</v>
+        <v>4500</v>
       </c>
       <c r="N23" s="30">
         <f t="shared" si="2"/>
-        <v>1981</v>
+        <v>1920</v>
       </c>
       <c r="O23" s="52">
         <f t="shared" si="3"/>
-        <v>263077</v>
+        <v>266013</v>
       </c>
       <c r="P23" s="30">
         <f t="shared" si="4"/>
-        <v>5499</v>
+        <v>5561</v>
       </c>
       <c r="Q23" s="30">
         <f t="shared" si="5"/>
-        <v>921</v>
+        <v>859</v>
       </c>
       <c r="R23" s="33">
         <v>45540</v>
@@ -3170,47 +3167,47 @@
       </c>
       <c r="G24" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H24" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I24" s="32">
         <f>SUM(G24:H24)</f>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J24" s="50">
-        <f t="shared" si="12"/>
-        <v>3120</v>
+        <f t="shared" si="11"/>
+        <v>2920</v>
       </c>
       <c r="K24" s="11">
         <f>SUM($J$10:J24)</f>
-        <v>67730</v>
+        <v>64594</v>
       </c>
       <c r="L24" s="52">
         <f t="shared" si="0"/>
-        <v>209207</v>
+        <v>212343</v>
       </c>
       <c r="M24" s="30">
         <f t="shared" si="1"/>
-        <v>4373</v>
+        <v>4439</v>
       </c>
       <c r="N24" s="30">
         <f t="shared" si="2"/>
-        <v>2047</v>
+        <v>1981</v>
       </c>
       <c r="O24" s="52">
         <f t="shared" si="3"/>
-        <v>259957</v>
+        <v>263093</v>
       </c>
       <c r="P24" s="30">
         <f t="shared" si="4"/>
-        <v>5434</v>
+        <v>5500</v>
       </c>
       <c r="Q24" s="30">
         <f t="shared" si="5"/>
-        <v>986</v>
+        <v>920</v>
       </c>
       <c r="R24" s="33">
         <v>45570</v>
@@ -3262,47 +3259,47 @@
       </c>
       <c r="G25" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H25" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I25" s="32">
+        <f t="shared" si="12"/>
+        <v>3500</v>
+      </c>
+      <c r="J25" s="50">
         <f t="shared" si="11"/>
-        <v>3300</v>
-      </c>
-      <c r="J25" s="50">
-        <f t="shared" si="12"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K25" s="11">
         <f>SUM($J$10:J25)</f>
-        <v>70850</v>
+        <v>67514</v>
       </c>
       <c r="L25" s="52">
         <f t="shared" si="0"/>
-        <v>206087</v>
+        <v>209423</v>
       </c>
       <c r="M25" s="30">
         <f t="shared" si="1"/>
-        <v>4308</v>
+        <v>4378</v>
       </c>
       <c r="N25" s="30">
         <f t="shared" si="2"/>
-        <v>2112</v>
+        <v>2042</v>
       </c>
       <c r="O25" s="52">
         <f t="shared" si="3"/>
-        <v>256837</v>
+        <v>260173</v>
       </c>
       <c r="P25" s="30">
         <f t="shared" si="4"/>
-        <v>5369</v>
+        <v>5439</v>
       </c>
       <c r="Q25" s="30">
         <f t="shared" si="5"/>
-        <v>1051</v>
+        <v>981</v>
       </c>
       <c r="R25" s="33">
         <v>45601</v>
@@ -3354,47 +3351,47 @@
       </c>
       <c r="G26" s="41">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H26" s="41">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I26" s="41">
+        <f t="shared" si="12"/>
+        <v>3500</v>
+      </c>
+      <c r="J26" s="43">
         <f t="shared" si="11"/>
-        <v>3300</v>
-      </c>
-      <c r="J26" s="43">
-        <f t="shared" si="12"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K26" s="41">
         <f>SUM($J$10:J26)</f>
-        <v>73970</v>
+        <v>70434</v>
       </c>
       <c r="L26" s="44">
         <f t="shared" si="0"/>
-        <v>202967</v>
+        <v>206503</v>
       </c>
       <c r="M26" s="41">
         <f t="shared" si="1"/>
-        <v>4243</v>
+        <v>4317</v>
       </c>
       <c r="N26" s="41">
         <f t="shared" si="2"/>
-        <v>2177</v>
+        <v>2103</v>
       </c>
       <c r="O26" s="44">
         <f t="shared" si="3"/>
-        <v>253717</v>
+        <v>257253</v>
       </c>
       <c r="P26" s="41">
         <f t="shared" si="4"/>
-        <v>5304</v>
+        <v>5378</v>
       </c>
       <c r="Q26" s="41">
         <f t="shared" si="5"/>
-        <v>1116</v>
+        <v>1042</v>
       </c>
       <c r="R26" s="42">
         <v>45631</v>
@@ -3446,47 +3443,47 @@
       </c>
       <c r="G27" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H27" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I27" s="32">
+        <f t="shared" si="12"/>
+        <v>3500</v>
+      </c>
+      <c r="J27" s="50">
         <f t="shared" si="11"/>
-        <v>3300</v>
-      </c>
-      <c r="J27" s="50">
-        <f t="shared" si="12"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K27" s="11">
         <f>SUM($J$10:J27)</f>
-        <v>77090</v>
+        <v>73354</v>
       </c>
       <c r="L27" s="52">
         <f t="shared" si="0"/>
-        <v>199847</v>
+        <v>203583</v>
       </c>
       <c r="M27" s="30">
         <f t="shared" si="1"/>
-        <v>4178</v>
+        <v>4256</v>
       </c>
       <c r="N27" s="30">
         <f t="shared" si="2"/>
-        <v>2242</v>
+        <v>2164</v>
       </c>
       <c r="O27" s="52">
         <f t="shared" si="3"/>
-        <v>250597</v>
+        <v>254333</v>
       </c>
       <c r="P27" s="30">
         <f t="shared" si="4"/>
-        <v>5239</v>
+        <v>5317</v>
       </c>
       <c r="Q27" s="30">
         <f t="shared" si="5"/>
-        <v>1181</v>
+        <v>1103</v>
       </c>
       <c r="R27" s="33">
         <v>45662</v>
@@ -3538,47 +3535,47 @@
       </c>
       <c r="G28" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H28" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I28" s="32">
+        <f t="shared" si="12"/>
+        <v>3500</v>
+      </c>
+      <c r="J28" s="50">
         <f t="shared" si="11"/>
-        <v>3300</v>
-      </c>
-      <c r="J28" s="50">
-        <f t="shared" si="12"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K28" s="11">
         <f>SUM($J$10:J28)</f>
-        <v>80210</v>
+        <v>76274</v>
       </c>
       <c r="L28" s="52">
         <f t="shared" si="0"/>
-        <v>196727</v>
+        <v>200663</v>
       </c>
       <c r="M28" s="30">
         <f t="shared" si="1"/>
-        <v>4112</v>
+        <v>4195</v>
       </c>
       <c r="N28" s="30">
         <f t="shared" si="2"/>
-        <v>2308</v>
+        <v>2225</v>
       </c>
       <c r="O28" s="52">
         <f t="shared" si="3"/>
-        <v>247477</v>
+        <v>251413</v>
       </c>
       <c r="P28" s="30">
         <f t="shared" si="4"/>
-        <v>5173</v>
+        <v>5256</v>
       </c>
       <c r="Q28" s="30">
         <f t="shared" si="5"/>
-        <v>1247</v>
+        <v>1164</v>
       </c>
       <c r="R28" s="33">
         <v>45693</v>
@@ -3630,47 +3627,47 @@
       </c>
       <c r="G29" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H29" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I29" s="32">
+        <f t="shared" si="12"/>
+        <v>3500</v>
+      </c>
+      <c r="J29" s="50">
         <f t="shared" si="11"/>
-        <v>3300</v>
-      </c>
-      <c r="J29" s="50">
-        <f t="shared" si="12"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K29" s="11">
         <f>SUM($J$10:J29)</f>
-        <v>83330</v>
+        <v>79194</v>
       </c>
       <c r="L29" s="52">
         <f t="shared" si="0"/>
-        <v>193607</v>
+        <v>197743</v>
       </c>
       <c r="M29" s="30">
         <f t="shared" si="1"/>
-        <v>4047</v>
+        <v>4134</v>
       </c>
       <c r="N29" s="30">
         <f t="shared" si="2"/>
-        <v>2373</v>
+        <v>2286</v>
       </c>
       <c r="O29" s="52">
         <f t="shared" si="3"/>
-        <v>244357</v>
+        <v>248493</v>
       </c>
       <c r="P29" s="30">
         <f t="shared" si="4"/>
-        <v>5108</v>
+        <v>5195</v>
       </c>
       <c r="Q29" s="30">
         <f t="shared" si="5"/>
-        <v>1312</v>
+        <v>1225</v>
       </c>
       <c r="R29" s="33">
         <v>45721</v>
@@ -3722,47 +3719,47 @@
       </c>
       <c r="G30" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H30" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I30" s="37">
+        <f t="shared" si="12"/>
+        <v>3500</v>
+      </c>
+      <c r="J30" s="51">
         <f t="shared" si="11"/>
-        <v>3300</v>
-      </c>
-      <c r="J30" s="51">
-        <f t="shared" si="12"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K30" s="38">
         <f>SUM($J$10:J30)</f>
-        <v>86450</v>
+        <v>82114</v>
       </c>
       <c r="L30" s="52">
         <f t="shared" si="0"/>
-        <v>190487</v>
+        <v>194823</v>
       </c>
       <c r="M30" s="49">
         <f t="shared" si="1"/>
-        <v>3982</v>
+        <v>4073</v>
       </c>
       <c r="N30" s="30">
         <f t="shared" si="2"/>
-        <v>2438</v>
+        <v>2347</v>
       </c>
       <c r="O30" s="52">
         <f t="shared" si="3"/>
-        <v>241237</v>
+        <v>245573</v>
       </c>
       <c r="P30" s="49">
         <f t="shared" si="4"/>
-        <v>5043</v>
+        <v>5134</v>
       </c>
       <c r="Q30" s="30">
         <f t="shared" si="5"/>
-        <v>1377</v>
+        <v>1286</v>
       </c>
       <c r="R30" s="35">
         <v>45752</v>
@@ -3814,47 +3811,47 @@
       </c>
       <c r="G31" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H31" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I31" s="32">
+        <f t="shared" si="12"/>
+        <v>3500</v>
+      </c>
+      <c r="J31" s="50">
         <f t="shared" si="11"/>
-        <v>3300</v>
-      </c>
-      <c r="J31" s="50">
-        <f t="shared" si="12"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K31" s="11">
         <f>SUM($J$10:J31)</f>
-        <v>89570</v>
+        <v>85034</v>
       </c>
       <c r="L31" s="52">
         <f t="shared" si="0"/>
-        <v>187367</v>
+        <v>191903</v>
       </c>
       <c r="M31" s="30">
         <f t="shared" si="1"/>
-        <v>3917</v>
+        <v>4012</v>
       </c>
       <c r="N31" s="30">
         <f t="shared" si="2"/>
-        <v>2503</v>
+        <v>2408</v>
       </c>
       <c r="O31" s="52">
         <f t="shared" si="3"/>
-        <v>238117</v>
+        <v>242653</v>
       </c>
       <c r="P31" s="30">
         <f t="shared" si="4"/>
-        <v>4978</v>
+        <v>5072</v>
       </c>
       <c r="Q31" s="30">
         <f t="shared" si="5"/>
-        <v>1442</v>
+        <v>1348</v>
       </c>
       <c r="R31" s="33">
         <v>45782</v>
@@ -3906,47 +3903,47 @@
       </c>
       <c r="G32" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H32" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I32" s="32">
+        <f t="shared" si="12"/>
+        <v>3500</v>
+      </c>
+      <c r="J32" s="50">
         <f t="shared" si="11"/>
-        <v>3300</v>
-      </c>
-      <c r="J32" s="50">
-        <f t="shared" si="12"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K32" s="11">
         <f>SUM($J$10:J32)</f>
-        <v>92690</v>
+        <v>87954</v>
       </c>
       <c r="L32" s="52">
         <f t="shared" si="0"/>
-        <v>184247</v>
+        <v>188983</v>
       </c>
       <c r="M32" s="30">
         <f t="shared" si="1"/>
-        <v>3852</v>
+        <v>3951</v>
       </c>
       <c r="N32" s="30">
         <f t="shared" si="2"/>
-        <v>2568</v>
+        <v>2469</v>
       </c>
       <c r="O32" s="52">
         <f t="shared" si="3"/>
-        <v>234997</v>
+        <v>239733</v>
       </c>
       <c r="P32" s="30">
         <f t="shared" si="4"/>
-        <v>4912</v>
+        <v>5011</v>
       </c>
       <c r="Q32" s="30">
         <f t="shared" si="5"/>
-        <v>1508</v>
+        <v>1409</v>
       </c>
       <c r="R32" s="33">
         <v>45813</v>
@@ -3998,47 +3995,47 @@
       </c>
       <c r="G33" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H33" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I33" s="32">
+        <f t="shared" si="12"/>
+        <v>3500</v>
+      </c>
+      <c r="J33" s="50">
         <f t="shared" si="11"/>
-        <v>3300</v>
-      </c>
-      <c r="J33" s="50">
-        <f t="shared" si="12"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K33" s="11">
         <f>SUM($J$10:J33)</f>
-        <v>95810</v>
+        <v>90874</v>
       </c>
       <c r="L33" s="52">
         <f t="shared" si="0"/>
-        <v>181127</v>
+        <v>186063</v>
       </c>
       <c r="M33" s="30">
         <f t="shared" si="1"/>
-        <v>3786</v>
+        <v>3890</v>
       </c>
       <c r="N33" s="30">
         <f t="shared" si="2"/>
-        <v>2634</v>
+        <v>2530</v>
       </c>
       <c r="O33" s="52">
         <f t="shared" si="3"/>
-        <v>231877</v>
+        <v>236813</v>
       </c>
       <c r="P33" s="30">
         <f t="shared" si="4"/>
-        <v>4847</v>
+        <v>4950</v>
       </c>
       <c r="Q33" s="30">
         <f t="shared" si="5"/>
-        <v>1573</v>
+        <v>1470</v>
       </c>
       <c r="R33" s="33">
         <v>45843</v>
@@ -4090,47 +4087,47 @@
       </c>
       <c r="G34" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H34" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I34" s="32">
+        <f t="shared" si="12"/>
+        <v>3500</v>
+      </c>
+      <c r="J34" s="50">
         <f t="shared" si="11"/>
-        <v>3300</v>
-      </c>
-      <c r="J34" s="50">
-        <f t="shared" si="12"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K34" s="11">
         <f>SUM($J$10:J34)</f>
-        <v>98930</v>
+        <v>93794</v>
       </c>
       <c r="L34" s="52">
         <f t="shared" si="0"/>
-        <v>178007</v>
+        <v>183143</v>
       </c>
       <c r="M34" s="30">
         <f t="shared" si="1"/>
-        <v>3721</v>
+        <v>3828</v>
       </c>
       <c r="N34" s="30">
         <f t="shared" si="2"/>
-        <v>2699</v>
+        <v>2592</v>
       </c>
       <c r="O34" s="52">
         <f t="shared" si="3"/>
-        <v>228757</v>
+        <v>233893</v>
       </c>
       <c r="P34" s="30">
         <f t="shared" si="4"/>
-        <v>4782</v>
+        <v>4889</v>
       </c>
       <c r="Q34" s="30">
         <f t="shared" si="5"/>
-        <v>1638</v>
+        <v>1531</v>
       </c>
       <c r="R34" s="33">
         <v>45874</v>
@@ -4182,47 +4179,47 @@
       </c>
       <c r="G35" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H35" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I35" s="32">
+        <f t="shared" si="12"/>
+        <v>3500</v>
+      </c>
+      <c r="J35" s="50">
         <f t="shared" si="11"/>
-        <v>3300</v>
-      </c>
-      <c r="J35" s="50">
-        <f t="shared" si="12"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K35" s="11">
         <f>SUM($J$10:J35)</f>
-        <v>102050</v>
+        <v>96714</v>
       </c>
       <c r="L35" s="52">
         <f t="shared" si="0"/>
-        <v>174887</v>
+        <v>180223</v>
       </c>
       <c r="M35" s="30">
         <f t="shared" si="1"/>
-        <v>3656</v>
+        <v>3767</v>
       </c>
       <c r="N35" s="30">
         <f t="shared" si="2"/>
-        <v>2764</v>
+        <v>2653</v>
       </c>
       <c r="O35" s="52">
         <f t="shared" si="3"/>
-        <v>225637</v>
+        <v>230973</v>
       </c>
       <c r="P35" s="30">
         <f t="shared" si="4"/>
-        <v>4717</v>
+        <v>4828</v>
       </c>
       <c r="Q35" s="30">
         <f t="shared" si="5"/>
-        <v>1703</v>
+        <v>1592</v>
       </c>
       <c r="R35" s="33">
         <v>45905</v>
@@ -4274,47 +4271,47 @@
       </c>
       <c r="G36" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H36" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I36" s="32">
         <f t="shared" ref="I36:I43" si="18">SUM(G36:H36)</f>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J36" s="50">
         <f t="shared" ref="J36:J43" si="19">F36-I36</f>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K36" s="11">
         <f>SUM($J$10:J36)</f>
-        <v>105170</v>
+        <v>99634</v>
       </c>
       <c r="L36" s="52">
         <f t="shared" si="0"/>
-        <v>171767</v>
+        <v>177303</v>
       </c>
       <c r="M36" s="30">
         <f t="shared" si="1"/>
-        <v>3591</v>
+        <v>3706</v>
       </c>
       <c r="N36" s="30">
         <f t="shared" si="2"/>
-        <v>2829</v>
+        <v>2714</v>
       </c>
       <c r="O36" s="52">
         <f t="shared" si="3"/>
-        <v>222517</v>
+        <v>228053</v>
       </c>
       <c r="P36" s="30">
         <f t="shared" si="4"/>
-        <v>4652</v>
+        <v>4767</v>
       </c>
       <c r="Q36" s="30">
         <f t="shared" si="5"/>
-        <v>1768</v>
+        <v>1653</v>
       </c>
       <c r="R36" s="33">
         <v>45935</v>
@@ -4366,47 +4363,47 @@
       </c>
       <c r="G37" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H37" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I37" s="32">
         <f t="shared" si="18"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J37" s="50">
         <f t="shared" si="19"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K37" s="11">
         <f>SUM($J$10:J37)</f>
-        <v>108290</v>
+        <v>102554</v>
       </c>
       <c r="L37" s="52">
         <f t="shared" si="0"/>
-        <v>168647</v>
+        <v>174383</v>
       </c>
       <c r="M37" s="30">
         <f t="shared" si="1"/>
-        <v>3525</v>
+        <v>3645</v>
       </c>
       <c r="N37" s="30">
         <f t="shared" si="2"/>
-        <v>2895</v>
+        <v>2775</v>
       </c>
       <c r="O37" s="52">
         <f t="shared" si="3"/>
-        <v>219397</v>
+        <v>225133</v>
       </c>
       <c r="P37" s="30">
         <f t="shared" si="4"/>
-        <v>4586</v>
+        <v>4706</v>
       </c>
       <c r="Q37" s="30">
         <f t="shared" si="5"/>
-        <v>1834</v>
+        <v>1714</v>
       </c>
       <c r="R37" s="33">
         <v>45966</v>
@@ -4458,47 +4455,47 @@
       </c>
       <c r="G38" s="41">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H38" s="41">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I38" s="41">
         <f t="shared" si="18"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J38" s="43">
         <f t="shared" si="19"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K38" s="41">
         <f>SUM($J$10:J38)</f>
-        <v>111410</v>
+        <v>105474</v>
       </c>
       <c r="L38" s="44">
         <f t="shared" si="0"/>
-        <v>165527</v>
+        <v>171463</v>
       </c>
       <c r="M38" s="41">
         <f t="shared" si="1"/>
-        <v>3460</v>
+        <v>3584</v>
       </c>
       <c r="N38" s="41">
         <f t="shared" si="2"/>
-        <v>2960</v>
+        <v>2836</v>
       </c>
       <c r="O38" s="44">
         <f t="shared" si="3"/>
-        <v>216277</v>
+        <v>222213</v>
       </c>
       <c r="P38" s="41">
         <f t="shared" si="4"/>
-        <v>4521</v>
+        <v>4645</v>
       </c>
       <c r="Q38" s="41">
         <f t="shared" si="5"/>
-        <v>1899</v>
+        <v>1775</v>
       </c>
       <c r="R38" s="42">
         <v>45996</v>
@@ -4550,47 +4547,47 @@
       </c>
       <c r="G39" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H39" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I39" s="32">
         <f t="shared" si="18"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J39" s="50">
         <f t="shared" si="19"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K39" s="11">
         <f>SUM($J$10:J39)</f>
-        <v>114530</v>
+        <v>108394</v>
       </c>
       <c r="L39" s="52">
         <f t="shared" si="0"/>
-        <v>162407</v>
+        <v>168543</v>
       </c>
       <c r="M39" s="30">
         <f t="shared" si="1"/>
-        <v>3395</v>
+        <v>3523</v>
       </c>
       <c r="N39" s="30">
         <f t="shared" si="2"/>
-        <v>3025</v>
+        <v>2897</v>
       </c>
       <c r="O39" s="52">
         <f t="shared" si="3"/>
-        <v>213157</v>
+        <v>219293</v>
       </c>
       <c r="P39" s="30">
         <f t="shared" si="4"/>
-        <v>4456</v>
+        <v>4584</v>
       </c>
       <c r="Q39" s="30">
         <f t="shared" si="5"/>
-        <v>1964</v>
+        <v>1836</v>
       </c>
       <c r="R39" s="33">
         <v>46027</v>
@@ -4642,47 +4639,47 @@
       </c>
       <c r="G40" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H40" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I40" s="32">
         <f t="shared" si="18"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J40" s="50">
         <f t="shared" si="19"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K40" s="11">
         <f>SUM($J$10:J40)</f>
-        <v>117650</v>
+        <v>111314</v>
       </c>
       <c r="L40" s="52">
         <f t="shared" si="0"/>
-        <v>159287</v>
+        <v>165623</v>
       </c>
       <c r="M40" s="30">
         <f t="shared" si="1"/>
-        <v>3330</v>
+        <v>3462</v>
       </c>
       <c r="N40" s="30">
         <f t="shared" si="2"/>
-        <v>3090</v>
+        <v>2958</v>
       </c>
       <c r="O40" s="52">
         <f t="shared" si="3"/>
-        <v>210037</v>
+        <v>216373</v>
       </c>
       <c r="P40" s="30">
         <f t="shared" si="4"/>
-        <v>4391</v>
+        <v>4523</v>
       </c>
       <c r="Q40" s="30">
         <f t="shared" si="5"/>
-        <v>2029</v>
+        <v>1897</v>
       </c>
       <c r="R40" s="33">
         <v>46058</v>
@@ -4734,47 +4731,47 @@
       </c>
       <c r="G41" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H41" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I41" s="32">
         <f t="shared" si="18"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J41" s="50">
         <f t="shared" si="19"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K41" s="11">
         <f>SUM($J$10:J41)</f>
-        <v>120770</v>
+        <v>114234</v>
       </c>
       <c r="L41" s="52">
         <f t="shared" si="0"/>
-        <v>156167</v>
+        <v>162703</v>
       </c>
       <c r="M41" s="30">
         <f t="shared" si="1"/>
-        <v>3265</v>
+        <v>3401</v>
       </c>
       <c r="N41" s="30">
         <f t="shared" si="2"/>
-        <v>3155</v>
+        <v>3019</v>
       </c>
       <c r="O41" s="52">
         <f t="shared" si="3"/>
-        <v>206917</v>
+        <v>213453</v>
       </c>
       <c r="P41" s="30">
         <f t="shared" si="4"/>
-        <v>4325</v>
+        <v>4462</v>
       </c>
       <c r="Q41" s="30">
         <f t="shared" si="5"/>
-        <v>2095</v>
+        <v>1958</v>
       </c>
       <c r="R41" s="33">
         <v>46086</v>
@@ -4826,47 +4823,47 @@
       </c>
       <c r="G42" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H42" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I42" s="32">
         <f t="shared" si="18"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J42" s="50">
         <f t="shared" si="19"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K42" s="11">
         <f>SUM($J$10:J42)</f>
-        <v>123890</v>
+        <v>117154</v>
       </c>
       <c r="L42" s="52">
         <f t="shared" si="0"/>
-        <v>153047</v>
+        <v>159783</v>
       </c>
       <c r="M42" s="30">
         <f t="shared" si="1"/>
-        <v>3199</v>
+        <v>3340</v>
       </c>
       <c r="N42" s="30">
         <f t="shared" si="2"/>
-        <v>3221</v>
+        <v>3080</v>
       </c>
       <c r="O42" s="52">
         <f t="shared" si="3"/>
-        <v>203797</v>
+        <v>210533</v>
       </c>
       <c r="P42" s="30">
         <f t="shared" si="4"/>
-        <v>4260</v>
+        <v>4401</v>
       </c>
       <c r="Q42" s="30">
         <f t="shared" si="5"/>
-        <v>2160</v>
+        <v>2019</v>
       </c>
       <c r="R42" s="33">
         <v>46117</v>
@@ -4918,47 +4915,47 @@
       </c>
       <c r="G43" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H43" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I43" s="32">
         <f t="shared" si="18"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J43" s="50">
         <f t="shared" si="19"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K43" s="11">
         <f>SUM($J$10:J43)</f>
-        <v>127010</v>
+        <v>120074</v>
       </c>
       <c r="L43" s="52">
         <f t="shared" si="0"/>
-        <v>149927</v>
+        <v>156863</v>
       </c>
       <c r="M43" s="30">
         <f t="shared" si="1"/>
-        <v>3134</v>
+        <v>3279</v>
       </c>
       <c r="N43" s="30">
         <f t="shared" si="2"/>
-        <v>3286</v>
+        <v>3141</v>
       </c>
       <c r="O43" s="52">
         <f t="shared" si="3"/>
-        <v>200677</v>
+        <v>207613</v>
       </c>
       <c r="P43" s="30">
         <f t="shared" si="4"/>
-        <v>4195</v>
+        <v>4340</v>
       </c>
       <c r="Q43" s="30">
         <f t="shared" si="5"/>
-        <v>2225</v>
+        <v>2080</v>
       </c>
       <c r="R43" s="33">
         <v>46147</v>
@@ -5010,47 +5007,47 @@
       </c>
       <c r="G44" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H44" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I44" s="32">
         <f t="shared" ref="I44:I46" si="21">SUM(G44:H44)</f>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J44" s="50">
         <f t="shared" ref="J44:J46" si="22">F44-I44</f>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K44" s="11">
         <f>SUM($J$10:J44)</f>
-        <v>130130</v>
+        <v>122994</v>
       </c>
       <c r="L44" s="52">
         <f t="shared" si="0"/>
-        <v>146807</v>
+        <v>153943</v>
       </c>
       <c r="M44" s="30">
         <f t="shared" si="1"/>
-        <v>3069</v>
+        <v>3218</v>
       </c>
       <c r="N44" s="30">
         <f t="shared" si="2"/>
-        <v>3351</v>
+        <v>3202</v>
       </c>
       <c r="O44" s="52">
         <f t="shared" si="3"/>
-        <v>197557</v>
+        <v>204693</v>
       </c>
       <c r="P44" s="30">
         <f t="shared" si="4"/>
-        <v>4130</v>
+        <v>4279</v>
       </c>
       <c r="Q44" s="30">
         <f t="shared" si="5"/>
-        <v>2290</v>
+        <v>2141</v>
       </c>
       <c r="R44" s="33">
         <v>46178</v>
@@ -5102,47 +5099,47 @@
       </c>
       <c r="G45" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H45" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I45" s="32">
         <f t="shared" si="21"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J45" s="50">
         <f t="shared" si="22"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K45" s="11">
         <f>SUM($J$10:J45)</f>
-        <v>133250</v>
+        <v>125914</v>
       </c>
       <c r="L45" s="52">
         <f t="shared" si="0"/>
-        <v>143687</v>
+        <v>151023</v>
       </c>
       <c r="M45" s="30">
         <f t="shared" si="1"/>
-        <v>3004</v>
+        <v>3157</v>
       </c>
       <c r="N45" s="30">
         <f t="shared" si="2"/>
-        <v>3416</v>
+        <v>3263</v>
       </c>
       <c r="O45" s="52">
         <f t="shared" si="3"/>
-        <v>194437</v>
+        <v>201773</v>
       </c>
       <c r="P45" s="30">
         <f t="shared" si="4"/>
-        <v>4065</v>
+        <v>4218</v>
       </c>
       <c r="Q45" s="30">
         <f t="shared" si="5"/>
-        <v>2355</v>
+        <v>2202</v>
       </c>
       <c r="R45" s="33">
         <v>46208</v>
@@ -5194,47 +5191,47 @@
       </c>
       <c r="G46" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H46" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I46" s="32">
         <f t="shared" si="21"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J46" s="50">
         <f t="shared" si="22"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K46" s="11">
         <f>SUM($J$10:J46)</f>
-        <v>136370</v>
+        <v>128834</v>
       </c>
       <c r="L46" s="52">
         <f t="shared" si="0"/>
-        <v>140567</v>
+        <v>148103</v>
       </c>
       <c r="M46" s="30">
         <f t="shared" ref="M46:M57" si="23">ROUND(L46*$U$5*(1+$U$5)^60/((1+$U$5)^60-1), 0)</f>
-        <v>2938</v>
+        <v>3096</v>
       </c>
       <c r="N46" s="30">
         <f t="shared" si="2"/>
-        <v>3482</v>
+        <v>3324</v>
       </c>
       <c r="O46" s="52">
         <f t="shared" si="3"/>
-        <v>191317</v>
+        <v>198853</v>
       </c>
       <c r="P46" s="30">
         <f t="shared" ref="P46:P57" si="24">ROUND(O46*$U$5*(1+$U$5)^60/((1+$U$5)^60-1), 0)</f>
-        <v>3999</v>
+        <v>4157</v>
       </c>
       <c r="Q46" s="30">
         <f t="shared" si="5"/>
-        <v>2421</v>
+        <v>2263</v>
       </c>
       <c r="R46" s="33">
         <v>46239</v>
@@ -5286,47 +5283,47 @@
       </c>
       <c r="G47" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H47" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I47" s="32">
         <f t="shared" ref="I47:I55" si="27">SUM(G47:H47)</f>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J47" s="50">
         <f t="shared" ref="J47:J58" si="28">F47-I47</f>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K47" s="11">
         <f>SUM($J$10:J47)</f>
-        <v>139490</v>
+        <v>131754</v>
       </c>
       <c r="L47" s="52">
         <f t="shared" si="0"/>
-        <v>137447</v>
+        <v>145183</v>
       </c>
       <c r="M47" s="30">
         <f t="shared" si="23"/>
-        <v>2873</v>
+        <v>3035</v>
       </c>
       <c r="N47" s="30">
         <f t="shared" si="2"/>
-        <v>3547</v>
+        <v>3385</v>
       </c>
       <c r="O47" s="52">
         <f t="shared" si="3"/>
-        <v>188197</v>
+        <v>195933</v>
       </c>
       <c r="P47" s="30">
         <f t="shared" si="24"/>
-        <v>3934</v>
+        <v>4096</v>
       </c>
       <c r="Q47" s="30">
         <f t="shared" si="5"/>
-        <v>2486</v>
+        <v>2324</v>
       </c>
       <c r="R47" s="33">
         <v>46270</v>
@@ -5378,47 +5375,47 @@
       </c>
       <c r="G48" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H48" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I48" s="32">
         <f t="shared" si="27"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J48" s="50">
         <f t="shared" si="28"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K48" s="11">
         <f>SUM($J$10:J48)</f>
-        <v>142610</v>
+        <v>134674</v>
       </c>
       <c r="L48" s="52">
         <f t="shared" si="0"/>
-        <v>134327</v>
+        <v>142263</v>
       </c>
       <c r="M48" s="30">
         <f t="shared" si="23"/>
-        <v>2808</v>
+        <v>2974</v>
       </c>
       <c r="N48" s="30">
         <f t="shared" si="2"/>
-        <v>3612</v>
+        <v>3446</v>
       </c>
       <c r="O48" s="52">
         <f t="shared" si="3"/>
-        <v>185077</v>
+        <v>193013</v>
       </c>
       <c r="P48" s="30">
         <f t="shared" si="24"/>
-        <v>3869</v>
+        <v>4035</v>
       </c>
       <c r="Q48" s="30">
         <f t="shared" si="5"/>
-        <v>2551</v>
+        <v>2385</v>
       </c>
       <c r="R48" s="33">
         <v>46300</v>
@@ -5470,47 +5467,47 @@
       </c>
       <c r="G49" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H49" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I49" s="32">
         <f t="shared" si="27"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J49" s="50">
         <f t="shared" si="28"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K49" s="11">
         <f>SUM($J$10:J49)</f>
-        <v>145730</v>
+        <v>137594</v>
       </c>
       <c r="L49" s="52">
         <f t="shared" si="0"/>
-        <v>131207</v>
+        <v>139343</v>
       </c>
       <c r="M49" s="30">
         <f t="shared" si="23"/>
-        <v>2743</v>
+        <v>2913</v>
       </c>
       <c r="N49" s="30">
         <f t="shared" si="2"/>
-        <v>3677</v>
+        <v>3507</v>
       </c>
       <c r="O49" s="52">
         <f t="shared" si="3"/>
-        <v>181957</v>
+        <v>190093</v>
       </c>
       <c r="P49" s="30">
         <f t="shared" si="24"/>
-        <v>3804</v>
+        <v>3974</v>
       </c>
       <c r="Q49" s="30">
         <f t="shared" si="5"/>
-        <v>2616</v>
+        <v>2446</v>
       </c>
       <c r="R49" s="33">
         <v>46331</v>
@@ -5562,47 +5559,47 @@
       </c>
       <c r="G50" s="41">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H50" s="41">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I50" s="41">
         <f t="shared" si="27"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J50" s="43">
         <f t="shared" si="28"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K50" s="41">
         <f>SUM($J$10:J50)</f>
-        <v>148850</v>
+        <v>140514</v>
       </c>
       <c r="L50" s="44">
         <f t="shared" si="0"/>
-        <v>128087</v>
+        <v>136423</v>
       </c>
       <c r="M50" s="41">
         <f t="shared" si="23"/>
-        <v>2678</v>
+        <v>2852</v>
       </c>
       <c r="N50" s="41">
         <f t="shared" si="2"/>
-        <v>3742</v>
+        <v>3568</v>
       </c>
       <c r="O50" s="44">
         <f t="shared" si="3"/>
-        <v>178837</v>
+        <v>187173</v>
       </c>
       <c r="P50" s="41">
         <f t="shared" si="24"/>
-        <v>3738</v>
+        <v>3913</v>
       </c>
       <c r="Q50" s="41">
         <f t="shared" si="5"/>
-        <v>2682</v>
+        <v>2507</v>
       </c>
       <c r="R50" s="42">
         <v>46361</v>
@@ -5654,47 +5651,47 @@
       </c>
       <c r="G51" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H51" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I51" s="32">
         <f t="shared" si="27"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J51" s="50">
         <f t="shared" si="28"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K51" s="11">
         <f>SUM($J$10:J51)</f>
-        <v>151970</v>
+        <v>143434</v>
       </c>
       <c r="L51" s="52">
         <f t="shared" si="0"/>
-        <v>124967</v>
+        <v>133503</v>
       </c>
       <c r="M51" s="30">
         <f t="shared" si="23"/>
-        <v>2612</v>
+        <v>2791</v>
       </c>
       <c r="N51" s="30">
         <f t="shared" ref="N51:N97" si="30">F51-M51</f>
-        <v>3808</v>
+        <v>3629</v>
       </c>
       <c r="O51" s="52">
         <f t="shared" si="3"/>
-        <v>175717</v>
+        <v>184253</v>
       </c>
       <c r="P51" s="30">
         <f t="shared" si="24"/>
-        <v>3673</v>
+        <v>3852</v>
       </c>
       <c r="Q51" s="30">
         <f t="shared" ref="Q51:Q97" si="31">F51-P51</f>
-        <v>2747</v>
+        <v>2568</v>
       </c>
       <c r="R51" s="33">
         <v>46392</v>
@@ -5746,47 +5743,47 @@
       </c>
       <c r="G52" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H52" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I52" s="32">
         <f t="shared" si="27"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J52" s="50">
         <f t="shared" si="28"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K52" s="11">
         <f>SUM($J$10:J52)</f>
-        <v>155090</v>
+        <v>146354</v>
       </c>
       <c r="L52" s="52">
         <f t="shared" si="0"/>
-        <v>121847</v>
+        <v>130583</v>
       </c>
       <c r="M52" s="30">
         <f t="shared" si="23"/>
-        <v>2547</v>
+        <v>2730</v>
       </c>
       <c r="N52" s="30">
         <f t="shared" si="30"/>
-        <v>3873</v>
+        <v>3690</v>
       </c>
       <c r="O52" s="52">
         <f t="shared" si="3"/>
-        <v>172597</v>
+        <v>181333</v>
       </c>
       <c r="P52" s="30">
         <f t="shared" si="24"/>
-        <v>3608</v>
+        <v>3791</v>
       </c>
       <c r="Q52" s="30">
         <f t="shared" si="31"/>
-        <v>2812</v>
+        <v>2629</v>
       </c>
       <c r="R52" s="33">
         <v>46423</v>
@@ -5838,47 +5835,47 @@
       </c>
       <c r="G53" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H53" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I53" s="32">
         <f t="shared" si="27"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J53" s="50">
         <f t="shared" si="28"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K53" s="11">
         <f>SUM($J$10:J53)</f>
-        <v>158210</v>
+        <v>149274</v>
       </c>
       <c r="L53" s="52">
         <f t="shared" si="0"/>
-        <v>118727</v>
+        <v>127663</v>
       </c>
       <c r="M53" s="30">
         <f t="shared" si="23"/>
-        <v>2482</v>
+        <v>2669</v>
       </c>
       <c r="N53" s="30">
         <f t="shared" si="30"/>
-        <v>3938</v>
+        <v>3751</v>
       </c>
       <c r="O53" s="52">
         <f t="shared" si="3"/>
-        <v>169477</v>
+        <v>178413</v>
       </c>
       <c r="P53" s="30">
         <f t="shared" si="24"/>
-        <v>3543</v>
+        <v>3730</v>
       </c>
       <c r="Q53" s="30">
         <f t="shared" si="31"/>
-        <v>2877</v>
+        <v>2690</v>
       </c>
       <c r="R53" s="33">
         <v>46451</v>
@@ -5930,47 +5927,47 @@
       </c>
       <c r="G54" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H54" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I54" s="32">
         <f t="shared" si="27"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J54" s="50">
         <f t="shared" si="28"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K54" s="11">
         <f>SUM($J$10:J54)</f>
-        <v>161330</v>
+        <v>152194</v>
       </c>
       <c r="L54" s="52">
         <f t="shared" si="0"/>
-        <v>115607</v>
+        <v>124743</v>
       </c>
       <c r="M54" s="30">
         <f t="shared" si="23"/>
-        <v>2417</v>
+        <v>2608</v>
       </c>
       <c r="N54" s="30">
         <f t="shared" si="30"/>
-        <v>4003</v>
+        <v>3812</v>
       </c>
       <c r="O54" s="52">
         <f t="shared" si="3"/>
-        <v>166357</v>
+        <v>175493</v>
       </c>
       <c r="P54" s="30">
         <f t="shared" si="24"/>
-        <v>3478</v>
+        <v>3669</v>
       </c>
       <c r="Q54" s="30">
         <f t="shared" si="31"/>
-        <v>2942</v>
+        <v>2751</v>
       </c>
       <c r="R54" s="33">
         <v>46482</v>
@@ -6022,47 +6019,47 @@
       </c>
       <c r="G55" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H55" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I55" s="32">
         <f t="shared" si="27"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J55" s="50">
         <f t="shared" si="28"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K55" s="11">
         <f>SUM($J$10:J55)</f>
-        <v>164450</v>
+        <v>155114</v>
       </c>
       <c r="L55" s="52">
         <f t="shared" si="0"/>
-        <v>112487</v>
+        <v>121823</v>
       </c>
       <c r="M55" s="30">
         <f t="shared" si="23"/>
-        <v>2351</v>
+        <v>2547</v>
       </c>
       <c r="N55" s="30">
         <f t="shared" si="30"/>
-        <v>4069</v>
+        <v>3873</v>
       </c>
       <c r="O55" s="52">
         <f t="shared" si="3"/>
-        <v>163237</v>
+        <v>172573</v>
       </c>
       <c r="P55" s="30">
         <f t="shared" si="24"/>
-        <v>3412</v>
+        <v>3608</v>
       </c>
       <c r="Q55" s="30">
         <f t="shared" si="31"/>
-        <v>3008</v>
+        <v>2812</v>
       </c>
       <c r="R55" s="33">
         <v>46512</v>
@@ -6114,47 +6111,47 @@
       </c>
       <c r="G56" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H56" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I56" s="32">
         <f t="shared" ref="I56:I58" si="33">SUM(G56:H56)</f>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J56" s="50">
         <f t="shared" si="28"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K56" s="11">
         <f>SUM($J$10:J56)</f>
-        <v>167570</v>
+        <v>158034</v>
       </c>
       <c r="L56" s="52">
         <f t="shared" si="0"/>
-        <v>109367</v>
+        <v>118903</v>
       </c>
       <c r="M56" s="30">
         <f t="shared" si="23"/>
-        <v>2286</v>
+        <v>2486</v>
       </c>
       <c r="N56" s="30">
         <f t="shared" si="30"/>
-        <v>4134</v>
+        <v>3934</v>
       </c>
       <c r="O56" s="52">
         <f t="shared" si="3"/>
-        <v>160117</v>
+        <v>169653</v>
       </c>
       <c r="P56" s="30">
         <f t="shared" si="24"/>
-        <v>3347</v>
+        <v>3546</v>
       </c>
       <c r="Q56" s="30">
         <f t="shared" si="31"/>
-        <v>3073</v>
+        <v>2874</v>
       </c>
       <c r="R56" s="33">
         <v>46543</v>
@@ -6206,47 +6203,47 @@
       </c>
       <c r="G57" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H57" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I57" s="32">
         <f t="shared" si="33"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J57" s="50">
         <f t="shared" si="28"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K57" s="11">
         <f>SUM($J$10:J57)</f>
-        <v>170690</v>
+        <v>160954</v>
       </c>
       <c r="L57" s="52">
         <f t="shared" si="0"/>
-        <v>106247</v>
+        <v>115983</v>
       </c>
       <c r="M57" s="30">
         <f t="shared" si="23"/>
-        <v>2221</v>
+        <v>2425</v>
       </c>
       <c r="N57" s="30">
         <f t="shared" si="30"/>
-        <v>4199</v>
+        <v>3995</v>
       </c>
       <c r="O57" s="52">
         <f t="shared" si="3"/>
-        <v>156997</v>
+        <v>166733</v>
       </c>
       <c r="P57" s="30">
         <f t="shared" si="24"/>
-        <v>3282</v>
+        <v>3485</v>
       </c>
       <c r="Q57" s="30">
         <f t="shared" si="31"/>
-        <v>3138</v>
+        <v>2935</v>
       </c>
       <c r="R57" s="33">
         <v>46573</v>
@@ -6298,47 +6295,47 @@
       </c>
       <c r="G58" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H58" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I58" s="32">
         <f t="shared" si="33"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J58" s="50">
         <f t="shared" si="28"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K58" s="11">
         <f>SUM($J$10:J58)</f>
-        <v>173810</v>
+        <v>163874</v>
       </c>
       <c r="L58" s="52">
         <f t="shared" si="0"/>
-        <v>103127</v>
+        <v>113063</v>
       </c>
       <c r="M58" s="30">
         <f t="shared" ref="M58:M97" si="34">ROUND(L58*$U$5*(1+$U$5)^60/((1+$U$5)^60-1), 0)</f>
-        <v>2156</v>
+        <v>2363</v>
       </c>
       <c r="N58" s="30">
         <f t="shared" si="30"/>
-        <v>4264</v>
+        <v>4057</v>
       </c>
       <c r="O58" s="52">
         <f t="shared" si="3"/>
-        <v>153877</v>
+        <v>163813</v>
       </c>
       <c r="P58" s="30">
         <f t="shared" ref="P58:P97" si="35">ROUND(O58*$U$5*(1+$U$5)^60/((1+$U$5)^60-1), 0)</f>
-        <v>3217</v>
+        <v>3424</v>
       </c>
       <c r="Q58" s="30">
         <f t="shared" si="31"/>
-        <v>3203</v>
+        <v>2996</v>
       </c>
       <c r="R58" s="33">
         <v>46604</v>
@@ -6390,47 +6387,47 @@
       </c>
       <c r="G59" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H59" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I59" s="32">
         <f t="shared" ref="I59:I67" si="38">SUM(G59:H59)</f>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J59" s="50">
         <f t="shared" ref="J59:J97" si="39">F59-I59</f>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K59" s="11">
         <f>SUM($J$10:J59)</f>
-        <v>176930</v>
+        <v>166794</v>
       </c>
       <c r="L59" s="52">
         <f t="shared" si="0"/>
-        <v>100007</v>
+        <v>110143</v>
       </c>
       <c r="M59" s="30">
         <f t="shared" si="34"/>
-        <v>2091</v>
+        <v>2302</v>
       </c>
       <c r="N59" s="30">
         <f t="shared" si="30"/>
-        <v>4329</v>
+        <v>4118</v>
       </c>
       <c r="O59" s="52">
         <f t="shared" si="3"/>
-        <v>150757</v>
+        <v>160893</v>
       </c>
       <c r="P59" s="30">
         <f t="shared" si="35"/>
-        <v>3151</v>
+        <v>3363</v>
       </c>
       <c r="Q59" s="30">
         <f t="shared" si="31"/>
-        <v>3269</v>
+        <v>3057</v>
       </c>
       <c r="R59" s="33">
         <v>46635</v>
@@ -6482,47 +6479,47 @@
       </c>
       <c r="G60" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H60" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I60" s="32">
         <f t="shared" si="38"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J60" s="50">
         <f t="shared" si="39"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K60" s="11">
         <f>SUM($J$10:J60)</f>
-        <v>180050</v>
+        <v>169714</v>
       </c>
       <c r="L60" s="52">
         <f t="shared" si="0"/>
-        <v>96887</v>
+        <v>107223</v>
       </c>
       <c r="M60" s="30">
         <f t="shared" si="34"/>
-        <v>2025</v>
+        <v>2241</v>
       </c>
       <c r="N60" s="30">
         <f t="shared" si="30"/>
-        <v>4395</v>
+        <v>4179</v>
       </c>
       <c r="O60" s="52">
         <f t="shared" si="3"/>
-        <v>147637</v>
+        <v>157973</v>
       </c>
       <c r="P60" s="30">
         <f t="shared" si="35"/>
-        <v>3086</v>
+        <v>3302</v>
       </c>
       <c r="Q60" s="30">
         <f t="shared" si="31"/>
-        <v>3334</v>
+        <v>3118</v>
       </c>
       <c r="R60" s="33">
         <v>46665</v>
@@ -6574,47 +6571,47 @@
       </c>
       <c r="G61" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H61" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I61" s="32">
         <f t="shared" si="38"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J61" s="50">
         <f t="shared" si="39"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K61" s="11">
         <f>SUM($J$10:J61)</f>
-        <v>183170</v>
+        <v>172634</v>
       </c>
       <c r="L61" s="52">
         <f t="shared" si="0"/>
-        <v>93767</v>
+        <v>104303</v>
       </c>
       <c r="M61" s="30">
         <f t="shared" si="34"/>
-        <v>1960</v>
+        <v>2180</v>
       </c>
       <c r="N61" s="30">
         <f t="shared" si="30"/>
-        <v>4460</v>
+        <v>4240</v>
       </c>
       <c r="O61" s="52">
         <f t="shared" si="3"/>
-        <v>144517</v>
+        <v>155053</v>
       </c>
       <c r="P61" s="30">
         <f t="shared" si="35"/>
-        <v>3021</v>
+        <v>3241</v>
       </c>
       <c r="Q61" s="30">
         <f t="shared" si="31"/>
-        <v>3399</v>
+        <v>3179</v>
       </c>
       <c r="R61" s="33">
         <v>46696</v>
@@ -6666,47 +6663,47 @@
       </c>
       <c r="G62" s="41">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H62" s="41">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I62" s="41">
         <f t="shared" si="38"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J62" s="43">
         <f t="shared" si="39"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K62" s="41">
         <f>SUM($J$10:J62)</f>
-        <v>186290</v>
+        <v>175554</v>
       </c>
       <c r="L62" s="44">
         <f t="shared" si="0"/>
-        <v>90647</v>
+        <v>101383</v>
       </c>
       <c r="M62" s="41">
         <f t="shared" si="34"/>
-        <v>1895</v>
+        <v>2119</v>
       </c>
       <c r="N62" s="41">
         <f t="shared" si="30"/>
-        <v>4525</v>
+        <v>4301</v>
       </c>
       <c r="O62" s="44">
         <f t="shared" si="3"/>
-        <v>141397</v>
+        <v>152133</v>
       </c>
       <c r="P62" s="41">
         <f t="shared" si="35"/>
-        <v>2956</v>
+        <v>3180</v>
       </c>
       <c r="Q62" s="41">
         <f t="shared" si="31"/>
-        <v>3464</v>
+        <v>3240</v>
       </c>
       <c r="R62" s="42">
         <v>46726</v>
@@ -6758,47 +6755,47 @@
       </c>
       <c r="G63" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H63" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I63" s="32">
         <f t="shared" si="38"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J63" s="50">
         <f t="shared" si="39"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K63" s="11">
         <f>SUM($J$10:J63)</f>
-        <v>189410</v>
+        <v>178474</v>
       </c>
       <c r="L63" s="52">
         <f t="shared" si="0"/>
-        <v>87527</v>
+        <v>98463</v>
       </c>
       <c r="M63" s="30">
         <f t="shared" si="34"/>
-        <v>1830</v>
+        <v>2058</v>
       </c>
       <c r="N63" s="30">
         <f t="shared" si="30"/>
-        <v>4590</v>
+        <v>4362</v>
       </c>
       <c r="O63" s="52">
         <f t="shared" si="3"/>
-        <v>138277</v>
+        <v>149213</v>
       </c>
       <c r="P63" s="30">
         <f t="shared" si="35"/>
-        <v>2891</v>
+        <v>3119</v>
       </c>
       <c r="Q63" s="30">
         <f t="shared" si="31"/>
-        <v>3529</v>
+        <v>3301</v>
       </c>
       <c r="R63" s="33">
         <v>46757</v>
@@ -6850,47 +6847,47 @@
       </c>
       <c r="G64" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H64" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I64" s="32">
         <f t="shared" si="38"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J64" s="50">
         <f t="shared" si="39"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K64" s="11">
         <f>SUM($J$10:J64)</f>
-        <v>192530</v>
+        <v>181394</v>
       </c>
       <c r="L64" s="52">
         <f t="shared" si="0"/>
-        <v>84407</v>
+        <v>95543</v>
       </c>
       <c r="M64" s="30">
         <f t="shared" si="34"/>
-        <v>1764</v>
+        <v>1997</v>
       </c>
       <c r="N64" s="30">
         <f t="shared" si="30"/>
-        <v>4656</v>
+        <v>4423</v>
       </c>
       <c r="O64" s="52">
         <f t="shared" si="3"/>
-        <v>135157</v>
+        <v>146293</v>
       </c>
       <c r="P64" s="30">
         <f t="shared" si="35"/>
-        <v>2825</v>
+        <v>3058</v>
       </c>
       <c r="Q64" s="30">
         <f t="shared" si="31"/>
-        <v>3595</v>
+        <v>3362</v>
       </c>
       <c r="R64" s="33">
         <v>46788</v>
@@ -6942,47 +6939,47 @@
       </c>
       <c r="G65" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H65" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I65" s="32">
         <f t="shared" si="38"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J65" s="50">
         <f t="shared" si="39"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K65" s="11">
         <f>SUM($J$10:J65)</f>
-        <v>195650</v>
+        <v>184314</v>
       </c>
       <c r="L65" s="52">
         <f t="shared" si="0"/>
-        <v>81287</v>
+        <v>92623</v>
       </c>
       <c r="M65" s="30">
         <f t="shared" si="34"/>
-        <v>1699</v>
+        <v>1936</v>
       </c>
       <c r="N65" s="30">
         <f t="shared" si="30"/>
-        <v>4721</v>
+        <v>4484</v>
       </c>
       <c r="O65" s="52">
         <f t="shared" si="3"/>
-        <v>132037</v>
+        <v>143373</v>
       </c>
       <c r="P65" s="30">
         <f t="shared" si="35"/>
-        <v>2760</v>
+        <v>2997</v>
       </c>
       <c r="Q65" s="30">
         <f t="shared" si="31"/>
-        <v>3660</v>
+        <v>3423</v>
       </c>
       <c r="R65" s="33">
         <v>46817</v>
@@ -7034,47 +7031,47 @@
       </c>
       <c r="G66" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H66" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I66" s="32">
         <f t="shared" si="38"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J66" s="50">
         <f t="shared" si="39"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K66" s="11">
         <f>SUM($J$10:J66)</f>
-        <v>198770</v>
+        <v>187234</v>
       </c>
       <c r="L66" s="52">
         <f t="shared" si="0"/>
-        <v>78167</v>
+        <v>89703</v>
       </c>
       <c r="M66" s="30">
         <f t="shared" si="34"/>
-        <v>1634</v>
+        <v>1875</v>
       </c>
       <c r="N66" s="30">
         <f t="shared" si="30"/>
-        <v>4786</v>
+        <v>4545</v>
       </c>
       <c r="O66" s="52">
         <f t="shared" si="3"/>
-        <v>128917</v>
+        <v>140453</v>
       </c>
       <c r="P66" s="30">
         <f t="shared" si="35"/>
-        <v>2695</v>
+        <v>2936</v>
       </c>
       <c r="Q66" s="30">
         <f t="shared" si="31"/>
-        <v>3725</v>
+        <v>3484</v>
       </c>
       <c r="R66" s="33">
         <v>46848</v>
@@ -7126,47 +7123,47 @@
       </c>
       <c r="G67" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H67" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I67" s="32">
         <f t="shared" si="38"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J67" s="50">
         <f t="shared" si="39"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K67" s="11">
         <f>SUM($J$10:J67)</f>
-        <v>201890</v>
+        <v>190154</v>
       </c>
       <c r="L67" s="52">
         <f t="shared" si="0"/>
-        <v>75047</v>
+        <v>86783</v>
       </c>
       <c r="M67" s="30">
         <f t="shared" si="34"/>
-        <v>1569</v>
+        <v>1814</v>
       </c>
       <c r="N67" s="30">
         <f t="shared" si="30"/>
-        <v>4851</v>
+        <v>4606</v>
       </c>
       <c r="O67" s="52">
         <f t="shared" si="3"/>
-        <v>125797</v>
+        <v>137533</v>
       </c>
       <c r="P67" s="30">
         <f t="shared" si="35"/>
-        <v>2630</v>
+        <v>2875</v>
       </c>
       <c r="Q67" s="30">
         <f t="shared" si="31"/>
-        <v>3790</v>
+        <v>3545</v>
       </c>
       <c r="R67" s="33">
         <v>46878</v>
@@ -7218,47 +7215,47 @@
       </c>
       <c r="G68" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H68" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I68" s="32">
         <f t="shared" ref="I68:I70" si="42">SUM(G68:H68)</f>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J68" s="50">
         <f t="shared" si="39"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K68" s="11">
         <f>SUM($J$10:J68)</f>
-        <v>205010</v>
+        <v>193074</v>
       </c>
       <c r="L68" s="52">
         <f t="shared" si="0"/>
-        <v>71927</v>
+        <v>83863</v>
       </c>
       <c r="M68" s="30">
         <f t="shared" si="34"/>
-        <v>1504</v>
+        <v>1753</v>
       </c>
       <c r="N68" s="30">
         <f t="shared" si="30"/>
-        <v>4916</v>
+        <v>4667</v>
       </c>
       <c r="O68" s="52">
         <f t="shared" si="3"/>
-        <v>122677</v>
+        <v>134613</v>
       </c>
       <c r="P68" s="30">
         <f t="shared" si="35"/>
-        <v>2564</v>
+        <v>2814</v>
       </c>
       <c r="Q68" s="30">
         <f t="shared" si="31"/>
-        <v>3856</v>
+        <v>3606</v>
       </c>
       <c r="R68" s="33">
         <v>46909</v>
@@ -7310,47 +7307,47 @@
       </c>
       <c r="G69" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H69" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I69" s="32">
         <f t="shared" si="42"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J69" s="50">
         <f t="shared" si="39"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K69" s="11">
         <f>SUM($J$10:J69)</f>
-        <v>208130</v>
+        <v>195994</v>
       </c>
       <c r="L69" s="52">
         <f t="shared" si="0"/>
-        <v>68807</v>
+        <v>80943</v>
       </c>
       <c r="M69" s="30">
         <f t="shared" si="34"/>
-        <v>1438</v>
+        <v>1692</v>
       </c>
       <c r="N69" s="30">
         <f t="shared" si="30"/>
-        <v>4982</v>
+        <v>4728</v>
       </c>
       <c r="O69" s="52">
         <f t="shared" si="3"/>
-        <v>119557</v>
+        <v>131693</v>
       </c>
       <c r="P69" s="30">
         <f t="shared" si="35"/>
-        <v>2499</v>
+        <v>2753</v>
       </c>
       <c r="Q69" s="30">
         <f t="shared" si="31"/>
-        <v>3921</v>
+        <v>3667</v>
       </c>
       <c r="R69" s="33">
         <v>46939</v>
@@ -7402,47 +7399,47 @@
       </c>
       <c r="G70" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H70" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I70" s="32">
         <f t="shared" si="42"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J70" s="50">
         <f t="shared" si="39"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K70" s="11">
         <f>SUM($J$10:J70)</f>
-        <v>211250</v>
+        <v>198914</v>
       </c>
       <c r="L70" s="52">
         <f t="shared" si="0"/>
-        <v>65687</v>
+        <v>78023</v>
       </c>
       <c r="M70" s="30">
         <f t="shared" si="34"/>
-        <v>1373</v>
+        <v>1631</v>
       </c>
       <c r="N70" s="30">
         <f t="shared" si="30"/>
-        <v>5047</v>
+        <v>4789</v>
       </c>
       <c r="O70" s="52">
         <f t="shared" si="3"/>
-        <v>116437</v>
+        <v>128773</v>
       </c>
       <c r="P70" s="30">
         <f t="shared" si="35"/>
-        <v>2434</v>
+        <v>2692</v>
       </c>
       <c r="Q70" s="30">
         <f t="shared" si="31"/>
-        <v>3986</v>
+        <v>3728</v>
       </c>
       <c r="R70" s="33">
         <v>46970</v>
@@ -7494,47 +7491,47 @@
       </c>
       <c r="G71" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H71" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I71" s="32">
         <f t="shared" ref="I71:I79" si="44">SUM(G71:H71)</f>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J71" s="50">
         <f t="shared" si="39"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K71" s="11">
         <f>SUM($J$10:J71)</f>
-        <v>214370</v>
+        <v>201834</v>
       </c>
       <c r="L71" s="52">
         <f t="shared" si="0"/>
-        <v>62567</v>
+        <v>75103</v>
       </c>
       <c r="M71" s="30">
         <f t="shared" si="34"/>
-        <v>1308</v>
+        <v>1570</v>
       </c>
       <c r="N71" s="30">
         <f t="shared" si="30"/>
-        <v>5112</v>
+        <v>4850</v>
       </c>
       <c r="O71" s="52">
         <f t="shared" si="3"/>
-        <v>113317</v>
+        <v>125853</v>
       </c>
       <c r="P71" s="30">
         <f t="shared" si="35"/>
-        <v>2369</v>
+        <v>2631</v>
       </c>
       <c r="Q71" s="30">
         <f t="shared" si="31"/>
-        <v>4051</v>
+        <v>3789</v>
       </c>
       <c r="R71" s="33">
         <v>47001</v>
@@ -7586,47 +7583,47 @@
       </c>
       <c r="G72" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H72" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I72" s="32">
         <f t="shared" si="44"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J72" s="50">
         <f t="shared" si="39"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K72" s="11">
         <f>SUM($J$10:J72)</f>
-        <v>217490</v>
+        <v>204754</v>
       </c>
       <c r="L72" s="52">
         <f t="shared" si="0"/>
-        <v>59447</v>
+        <v>72183</v>
       </c>
       <c r="M72" s="30">
         <f t="shared" si="34"/>
-        <v>1243</v>
+        <v>1509</v>
       </c>
       <c r="N72" s="30">
         <f t="shared" si="30"/>
-        <v>5177</v>
+        <v>4911</v>
       </c>
       <c r="O72" s="52">
         <f t="shared" si="3"/>
-        <v>110197</v>
+        <v>122933</v>
       </c>
       <c r="P72" s="30">
         <f t="shared" si="35"/>
-        <v>2304</v>
+        <v>2570</v>
       </c>
       <c r="Q72" s="30">
         <f t="shared" si="31"/>
-        <v>4116</v>
+        <v>3850</v>
       </c>
       <c r="R72" s="33">
         <v>47031</v>
@@ -7678,47 +7675,47 @@
       </c>
       <c r="G73" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H73" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I73" s="32">
         <f t="shared" si="44"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J73" s="50">
         <f t="shared" si="39"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K73" s="11">
         <f>SUM($J$10:J73)</f>
-        <v>220610</v>
+        <v>207674</v>
       </c>
       <c r="L73" s="52">
         <f t="shared" si="0"/>
-        <v>56327</v>
+        <v>69263</v>
       </c>
       <c r="M73" s="30">
         <f t="shared" si="34"/>
-        <v>1177</v>
+        <v>1448</v>
       </c>
       <c r="N73" s="30">
         <f t="shared" si="30"/>
-        <v>5243</v>
+        <v>4972</v>
       </c>
       <c r="O73" s="52">
         <f t="shared" si="3"/>
-        <v>107077</v>
+        <v>120013</v>
       </c>
       <c r="P73" s="30">
         <f t="shared" si="35"/>
-        <v>2238</v>
+        <v>2509</v>
       </c>
       <c r="Q73" s="30">
         <f t="shared" si="31"/>
-        <v>4182</v>
+        <v>3911</v>
       </c>
       <c r="R73" s="33">
         <v>47062</v>
@@ -7770,47 +7767,47 @@
       </c>
       <c r="G74" s="41">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H74" s="41">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I74" s="41">
         <f t="shared" si="44"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J74" s="43">
         <f t="shared" si="39"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K74" s="41">
         <f>SUM($J$10:J74)</f>
-        <v>223730</v>
+        <v>210594</v>
       </c>
       <c r="L74" s="44">
         <f t="shared" si="0"/>
-        <v>53207</v>
+        <v>66343</v>
       </c>
       <c r="M74" s="41">
         <f t="shared" si="34"/>
-        <v>1112</v>
+        <v>1387</v>
       </c>
       <c r="N74" s="41">
         <f t="shared" si="30"/>
-        <v>5308</v>
+        <v>5033</v>
       </c>
       <c r="O74" s="44">
         <f t="shared" si="3"/>
-        <v>103957</v>
+        <v>117093</v>
       </c>
       <c r="P74" s="41">
         <f t="shared" si="35"/>
-        <v>2173</v>
+        <v>2448</v>
       </c>
       <c r="Q74" s="41">
         <f t="shared" si="31"/>
-        <v>4247</v>
+        <v>3972</v>
       </c>
       <c r="R74" s="42">
         <v>47092</v>
@@ -7862,47 +7859,47 @@
       </c>
       <c r="G75" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H75" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I75" s="32">
         <f t="shared" si="44"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J75" s="50">
         <f t="shared" si="39"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K75" s="11">
         <f>SUM($J$10:J75)</f>
-        <v>226850</v>
+        <v>213514</v>
       </c>
       <c r="L75" s="52">
         <f t="shared" ref="L75:L97" si="46">$H$5-K75</f>
-        <v>50087</v>
+        <v>63423</v>
       </c>
       <c r="M75" s="30">
         <f t="shared" si="34"/>
-        <v>1047</v>
+        <v>1326</v>
       </c>
       <c r="N75" s="30">
         <f t="shared" si="30"/>
-        <v>5373</v>
+        <v>5094</v>
       </c>
       <c r="O75" s="52">
         <f t="shared" ref="O75:O97" si="47">$P$5-K75</f>
-        <v>100837</v>
+        <v>114173</v>
       </c>
       <c r="P75" s="30">
         <f t="shared" si="35"/>
-        <v>2108</v>
+        <v>2387</v>
       </c>
       <c r="Q75" s="30">
         <f t="shared" si="31"/>
-        <v>4312</v>
+        <v>4033</v>
       </c>
       <c r="R75" s="33">
         <v>47123</v>
@@ -7954,47 +7951,47 @@
       </c>
       <c r="G76" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H76" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I76" s="32">
         <f t="shared" si="44"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J76" s="50">
         <f t="shared" si="39"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K76" s="11">
         <f>SUM($J$10:J76)</f>
-        <v>229970</v>
+        <v>216434</v>
       </c>
       <c r="L76" s="52">
         <f t="shared" si="46"/>
-        <v>46967</v>
+        <v>60503</v>
       </c>
       <c r="M76" s="30">
         <f t="shared" si="34"/>
-        <v>982</v>
+        <v>1265</v>
       </c>
       <c r="N76" s="30">
         <f t="shared" si="30"/>
-        <v>5438</v>
+        <v>5155</v>
       </c>
       <c r="O76" s="52">
         <f t="shared" si="47"/>
-        <v>97717</v>
+        <v>111253</v>
       </c>
       <c r="P76" s="30">
         <f t="shared" si="35"/>
-        <v>2043</v>
+        <v>2326</v>
       </c>
       <c r="Q76" s="30">
         <f t="shared" si="31"/>
-        <v>4377</v>
+        <v>4094</v>
       </c>
       <c r="R76" s="33">
         <v>47154</v>
@@ -8046,47 +8043,47 @@
       </c>
       <c r="G77" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H77" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I77" s="32">
         <f t="shared" si="44"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J77" s="50">
         <f t="shared" si="39"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K77" s="11">
         <f>SUM($J$10:J77)</f>
-        <v>233090</v>
+        <v>219354</v>
       </c>
       <c r="L77" s="52">
         <f t="shared" si="46"/>
-        <v>43847</v>
+        <v>57583</v>
       </c>
       <c r="M77" s="30">
         <f t="shared" si="34"/>
-        <v>917</v>
+        <v>1204</v>
       </c>
       <c r="N77" s="30">
         <f t="shared" si="30"/>
-        <v>5503</v>
+        <v>5216</v>
       </c>
       <c r="O77" s="52">
         <f t="shared" si="47"/>
-        <v>94597</v>
+        <v>108333</v>
       </c>
       <c r="P77" s="30">
         <f t="shared" si="35"/>
-        <v>1977</v>
+        <v>2265</v>
       </c>
       <c r="Q77" s="30">
         <f t="shared" si="31"/>
-        <v>4443</v>
+        <v>4155</v>
       </c>
       <c r="R77" s="33">
         <v>47182</v>
@@ -8138,47 +8135,47 @@
       </c>
       <c r="G78" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H78" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I78" s="32">
         <f t="shared" si="44"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J78" s="50">
         <f t="shared" si="39"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K78" s="11">
         <f>SUM($J$10:J78)</f>
-        <v>236210</v>
+        <v>222274</v>
       </c>
       <c r="L78" s="52">
         <f t="shared" si="46"/>
-        <v>40727</v>
+        <v>54663</v>
       </c>
       <c r="M78" s="30">
         <f t="shared" si="34"/>
-        <v>851</v>
+        <v>1143</v>
       </c>
       <c r="N78" s="30">
         <f t="shared" si="30"/>
-        <v>5569</v>
+        <v>5277</v>
       </c>
       <c r="O78" s="52">
         <f t="shared" si="47"/>
-        <v>91477</v>
+        <v>105413</v>
       </c>
       <c r="P78" s="30">
         <f t="shared" si="35"/>
-        <v>1912</v>
+        <v>2204</v>
       </c>
       <c r="Q78" s="30">
         <f t="shared" si="31"/>
-        <v>4508</v>
+        <v>4216</v>
       </c>
       <c r="R78" s="33">
         <v>47213</v>
@@ -8230,47 +8227,47 @@
       </c>
       <c r="G79" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H79" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I79" s="32">
         <f t="shared" si="44"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J79" s="50">
         <f t="shared" si="39"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K79" s="11">
         <f>SUM($J$10:J79)</f>
-        <v>239330</v>
+        <v>225194</v>
       </c>
       <c r="L79" s="52">
         <f t="shared" si="46"/>
-        <v>37607</v>
+        <v>51743</v>
       </c>
       <c r="M79" s="30">
         <f t="shared" si="34"/>
-        <v>786</v>
+        <v>1082</v>
       </c>
       <c r="N79" s="30">
         <f t="shared" si="30"/>
-        <v>5634</v>
+        <v>5338</v>
       </c>
       <c r="O79" s="52">
         <f t="shared" si="47"/>
-        <v>88357</v>
+        <v>102493</v>
       </c>
       <c r="P79" s="30">
         <f t="shared" si="35"/>
-        <v>1847</v>
+        <v>2143</v>
       </c>
       <c r="Q79" s="30">
         <f t="shared" si="31"/>
-        <v>4573</v>
+        <v>4277</v>
       </c>
       <c r="R79" s="33">
         <v>47243</v>
@@ -8322,47 +8319,47 @@
       </c>
       <c r="G80" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H80" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I80" s="32">
         <f t="shared" ref="I80:I82" si="50">SUM(G80:H80)</f>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J80" s="50">
         <f t="shared" si="39"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K80" s="11">
         <f>SUM($J$10:J80)</f>
-        <v>242450</v>
+        <v>228114</v>
       </c>
       <c r="L80" s="52">
         <f t="shared" si="46"/>
-        <v>34487</v>
+        <v>48823</v>
       </c>
       <c r="M80" s="30">
         <f t="shared" si="34"/>
-        <v>721</v>
+        <v>1021</v>
       </c>
       <c r="N80" s="30">
         <f t="shared" si="30"/>
-        <v>5699</v>
+        <v>5399</v>
       </c>
       <c r="O80" s="52">
         <f t="shared" si="47"/>
-        <v>85237</v>
+        <v>99573</v>
       </c>
       <c r="P80" s="30">
         <f t="shared" si="35"/>
-        <v>1782</v>
+        <v>2081</v>
       </c>
       <c r="Q80" s="30">
         <f t="shared" si="31"/>
-        <v>4638</v>
+        <v>4339</v>
       </c>
       <c r="R80" s="33">
         <v>47274</v>
@@ -8414,47 +8411,47 @@
       </c>
       <c r="G81" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H81" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I81" s="32">
         <f t="shared" si="50"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J81" s="50">
         <f t="shared" si="39"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K81" s="11">
         <f>SUM($J$10:J81)</f>
-        <v>245570</v>
+        <v>231034</v>
       </c>
       <c r="L81" s="52">
         <f t="shared" si="46"/>
-        <v>31367</v>
+        <v>45903</v>
       </c>
       <c r="M81" s="30">
         <f t="shared" si="34"/>
-        <v>656</v>
+        <v>960</v>
       </c>
       <c r="N81" s="30">
         <f t="shared" si="30"/>
-        <v>5764</v>
+        <v>5460</v>
       </c>
       <c r="O81" s="52">
         <f t="shared" si="47"/>
-        <v>82117</v>
+        <v>96653</v>
       </c>
       <c r="P81" s="30">
         <f t="shared" si="35"/>
-        <v>1717</v>
+        <v>2020</v>
       </c>
       <c r="Q81" s="30">
         <f t="shared" si="31"/>
-        <v>4703</v>
+        <v>4400</v>
       </c>
       <c r="R81" s="33">
         <v>47304</v>
@@ -8506,47 +8503,47 @@
       </c>
       <c r="G82" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H82" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I82" s="32">
         <f t="shared" si="50"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J82" s="50">
         <f t="shared" si="39"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K82" s="11">
         <f>SUM($J$10:J82)</f>
-        <v>248690</v>
+        <v>233954</v>
       </c>
       <c r="L82" s="52">
         <f t="shared" si="46"/>
-        <v>28247</v>
+        <v>42983</v>
       </c>
       <c r="M82" s="30">
         <f t="shared" si="34"/>
-        <v>590</v>
+        <v>899</v>
       </c>
       <c r="N82" s="30">
         <f t="shared" si="30"/>
-        <v>5830</v>
+        <v>5521</v>
       </c>
       <c r="O82" s="52">
         <f t="shared" si="47"/>
-        <v>78997</v>
+        <v>93733</v>
       </c>
       <c r="P82" s="30">
         <f t="shared" si="35"/>
-        <v>1651</v>
+        <v>1959</v>
       </c>
       <c r="Q82" s="30">
         <f t="shared" si="31"/>
-        <v>4769</v>
+        <v>4461</v>
       </c>
       <c r="R82" s="33">
         <v>47335</v>
@@ -8598,47 +8595,47 @@
       </c>
       <c r="G83" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H83" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I83" s="32">
         <f t="shared" ref="I83:I91" si="52">SUM(G83:H83)</f>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J83" s="50">
         <f t="shared" si="39"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K83" s="11">
         <f>SUM($J$10:J83)</f>
-        <v>251810</v>
+        <v>236874</v>
       </c>
       <c r="L83" s="52">
         <f t="shared" si="46"/>
-        <v>25127</v>
+        <v>40063</v>
       </c>
       <c r="M83" s="30">
         <f t="shared" si="34"/>
-        <v>525</v>
+        <v>837</v>
       </c>
       <c r="N83" s="30">
         <f t="shared" si="30"/>
-        <v>5895</v>
+        <v>5583</v>
       </c>
       <c r="O83" s="52">
         <f t="shared" si="47"/>
-        <v>75877</v>
+        <v>90813</v>
       </c>
       <c r="P83" s="30">
         <f t="shared" si="35"/>
-        <v>1586</v>
+        <v>1898</v>
       </c>
       <c r="Q83" s="30">
         <f t="shared" si="31"/>
-        <v>4834</v>
+        <v>4522</v>
       </c>
       <c r="R83" s="33">
         <v>47366</v>
@@ -8690,47 +8687,47 @@
       </c>
       <c r="G84" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H84" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I84" s="32">
         <f t="shared" si="52"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J84" s="50">
         <f t="shared" si="39"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K84" s="11">
         <f>SUM($J$10:J84)</f>
-        <v>254930</v>
+        <v>239794</v>
       </c>
       <c r="L84" s="52">
         <f t="shared" si="46"/>
-        <v>22007</v>
+        <v>37143</v>
       </c>
       <c r="M84" s="30">
         <f t="shared" si="34"/>
-        <v>460</v>
+        <v>776</v>
       </c>
       <c r="N84" s="30">
         <f t="shared" si="30"/>
-        <v>5960</v>
+        <v>5644</v>
       </c>
       <c r="O84" s="52">
         <f t="shared" si="47"/>
-        <v>72757</v>
+        <v>87893</v>
       </c>
       <c r="P84" s="30">
         <f t="shared" si="35"/>
-        <v>1521</v>
+        <v>1837</v>
       </c>
       <c r="Q84" s="30">
         <f t="shared" si="31"/>
-        <v>4899</v>
+        <v>4583</v>
       </c>
       <c r="R84" s="33">
         <v>47396</v>
@@ -8782,47 +8779,47 @@
       </c>
       <c r="G85" s="30">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H85" s="30">
         <f t="shared" si="14"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I85" s="32">
         <f t="shared" si="52"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J85" s="50">
         <f t="shared" si="39"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K85" s="11">
         <f>SUM($J$10:J85)</f>
-        <v>258050</v>
+        <v>242714</v>
       </c>
       <c r="L85" s="52">
         <f t="shared" si="46"/>
-        <v>18887</v>
+        <v>34223</v>
       </c>
       <c r="M85" s="30">
         <f t="shared" si="34"/>
-        <v>395</v>
+        <v>715</v>
       </c>
       <c r="N85" s="30">
         <f t="shared" si="30"/>
-        <v>6025</v>
+        <v>5705</v>
       </c>
       <c r="O85" s="52">
         <f t="shared" si="47"/>
-        <v>69637</v>
+        <v>84973</v>
       </c>
       <c r="P85" s="30">
         <f t="shared" si="35"/>
-        <v>1456</v>
+        <v>1776</v>
       </c>
       <c r="Q85" s="30">
         <f t="shared" si="31"/>
-        <v>4964</v>
+        <v>4644</v>
       </c>
       <c r="R85" s="33">
         <v>47427</v>
@@ -8874,47 +8871,47 @@
       </c>
       <c r="G86" s="41">
         <f t="shared" si="15"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H86" s="41">
         <f t="shared" ref="H86:H149" si="53">$P$2</f>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I86" s="41">
         <f t="shared" si="52"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J86" s="43">
         <f t="shared" si="39"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K86" s="41">
         <f>SUM($J$10:J86)</f>
-        <v>261170</v>
+        <v>245634</v>
       </c>
       <c r="L86" s="44">
         <f t="shared" si="46"/>
-        <v>15767</v>
+        <v>31303</v>
       </c>
       <c r="M86" s="41">
         <f t="shared" si="34"/>
-        <v>330</v>
+        <v>654</v>
       </c>
       <c r="N86" s="41">
         <f t="shared" si="30"/>
-        <v>6090</v>
+        <v>5766</v>
       </c>
       <c r="O86" s="44">
         <f t="shared" si="47"/>
-        <v>66517</v>
+        <v>82053</v>
       </c>
       <c r="P86" s="41">
         <f t="shared" si="35"/>
-        <v>1390</v>
+        <v>1715</v>
       </c>
       <c r="Q86" s="41">
         <f t="shared" si="31"/>
-        <v>5030</v>
+        <v>4705</v>
       </c>
       <c r="R86" s="42">
         <v>47457</v>
@@ -8966,47 +8963,47 @@
       </c>
       <c r="G87" s="30">
         <f t="shared" ref="G87:G150" si="55">$P$1</f>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H87" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I87" s="32">
         <f t="shared" si="52"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J87" s="50">
         <f t="shared" si="39"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K87" s="11">
         <f>SUM($J$10:J87)</f>
-        <v>264290</v>
+        <v>248554</v>
       </c>
       <c r="L87" s="52">
         <f t="shared" si="46"/>
-        <v>12647</v>
+        <v>28383</v>
       </c>
       <c r="M87" s="30">
         <f t="shared" si="34"/>
-        <v>264</v>
+        <v>593</v>
       </c>
       <c r="N87" s="30">
         <f t="shared" si="30"/>
-        <v>6156</v>
+        <v>5827</v>
       </c>
       <c r="O87" s="52">
         <f t="shared" si="47"/>
-        <v>63397</v>
+        <v>79133</v>
       </c>
       <c r="P87" s="30">
         <f t="shared" si="35"/>
-        <v>1325</v>
+        <v>1654</v>
       </c>
       <c r="Q87" s="30">
         <f t="shared" si="31"/>
-        <v>5095</v>
+        <v>4766</v>
       </c>
       <c r="R87" s="33">
         <v>47488</v>
@@ -9058,47 +9055,47 @@
       </c>
       <c r="G88" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H88" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I88" s="32">
         <f t="shared" si="52"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J88" s="50">
         <f t="shared" si="39"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K88" s="11">
         <f>SUM($J$10:J88)</f>
-        <v>267410</v>
+        <v>251474</v>
       </c>
       <c r="L88" s="52">
         <f t="shared" si="46"/>
-        <v>9527</v>
+        <v>25463</v>
       </c>
       <c r="M88" s="30">
         <f t="shared" si="34"/>
-        <v>199</v>
+        <v>532</v>
       </c>
       <c r="N88" s="30">
         <f t="shared" si="30"/>
-        <v>6221</v>
+        <v>5888</v>
       </c>
       <c r="O88" s="52">
         <f t="shared" si="47"/>
-        <v>60277</v>
+        <v>76213</v>
       </c>
       <c r="P88" s="30">
         <f t="shared" si="35"/>
-        <v>1260</v>
+        <v>1593</v>
       </c>
       <c r="Q88" s="30">
         <f t="shared" si="31"/>
-        <v>5160</v>
+        <v>4827</v>
       </c>
       <c r="R88" s="33">
         <v>47519</v>
@@ -9150,47 +9147,47 @@
       </c>
       <c r="G89" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H89" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I89" s="32">
         <f t="shared" si="52"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J89" s="50">
         <f t="shared" si="39"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K89" s="11">
         <f>SUM($J$10:J89)</f>
-        <v>270530</v>
+        <v>254394</v>
       </c>
       <c r="L89" s="52">
         <f t="shared" si="46"/>
-        <v>6407</v>
+        <v>22543</v>
       </c>
       <c r="M89" s="30">
         <f t="shared" si="34"/>
-        <v>134</v>
+        <v>471</v>
       </c>
       <c r="N89" s="30">
         <f t="shared" si="30"/>
-        <v>6286</v>
+        <v>5949</v>
       </c>
       <c r="O89" s="52">
         <f t="shared" si="47"/>
-        <v>57157</v>
+        <v>73293</v>
       </c>
       <c r="P89" s="30">
         <f t="shared" si="35"/>
-        <v>1195</v>
+        <v>1532</v>
       </c>
       <c r="Q89" s="30">
         <f t="shared" si="31"/>
-        <v>5225</v>
+        <v>4888</v>
       </c>
       <c r="R89" s="33">
         <v>47547</v>
@@ -9242,47 +9239,47 @@
       </c>
       <c r="G90" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H90" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I90" s="32">
         <f t="shared" si="52"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J90" s="50">
         <f t="shared" si="39"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K90" s="11">
         <f>SUM($J$10:J90)</f>
-        <v>273650</v>
+        <v>257314</v>
       </c>
       <c r="L90" s="52">
         <f t="shared" si="46"/>
-        <v>3287</v>
+        <v>19623</v>
       </c>
       <c r="M90" s="30">
         <f t="shared" si="34"/>
-        <v>69</v>
+        <v>410</v>
       </c>
       <c r="N90" s="30">
         <f t="shared" si="30"/>
-        <v>6351</v>
+        <v>6010</v>
       </c>
       <c r="O90" s="52">
         <f t="shared" si="47"/>
-        <v>54037</v>
+        <v>70373</v>
       </c>
       <c r="P90" s="30">
         <f t="shared" si="35"/>
-        <v>1130</v>
+        <v>1471</v>
       </c>
       <c r="Q90" s="30">
         <f t="shared" si="31"/>
-        <v>5290</v>
+        <v>4949</v>
       </c>
       <c r="R90" s="33">
         <v>47578</v>
@@ -9334,47 +9331,47 @@
       </c>
       <c r="G91" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H91" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I91" s="32">
         <f t="shared" si="52"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J91" s="50">
         <f t="shared" si="39"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K91" s="11">
         <f>SUM($J$10:J91)</f>
-        <v>276770</v>
+        <v>260234</v>
       </c>
       <c r="L91" s="52">
         <f t="shared" si="46"/>
-        <v>167</v>
+        <v>16703</v>
       </c>
       <c r="M91" s="30">
         <f t="shared" si="34"/>
-        <v>3</v>
+        <v>349</v>
       </c>
       <c r="N91" s="30">
         <f t="shared" si="30"/>
-        <v>6417</v>
+        <v>6071</v>
       </c>
       <c r="O91" s="52">
         <f t="shared" si="47"/>
-        <v>50917</v>
+        <v>67453</v>
       </c>
       <c r="P91" s="30">
         <f t="shared" si="35"/>
-        <v>1064</v>
+        <v>1410</v>
       </c>
       <c r="Q91" s="30">
         <f t="shared" si="31"/>
-        <v>5356</v>
+        <v>5010</v>
       </c>
       <c r="R91" s="33">
         <v>47608</v>
@@ -9426,47 +9423,47 @@
       </c>
       <c r="G92" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H92" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I92" s="32">
         <f t="shared" ref="I92:I94" si="58">SUM(G92:H92)</f>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J92" s="50">
         <f t="shared" si="39"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K92" s="11">
         <f>SUM($J$10:J92)</f>
-        <v>279890</v>
+        <v>263154</v>
       </c>
       <c r="L92" s="52">
         <f t="shared" si="46"/>
-        <v>-2953</v>
+        <v>13783</v>
       </c>
       <c r="M92" s="30">
         <f t="shared" si="34"/>
-        <v>-62</v>
+        <v>288</v>
       </c>
       <c r="N92" s="30">
         <f t="shared" si="30"/>
-        <v>6482</v>
+        <v>6132</v>
       </c>
       <c r="O92" s="52">
         <f t="shared" si="47"/>
-        <v>47797</v>
+        <v>64533</v>
       </c>
       <c r="P92" s="30">
         <f t="shared" si="35"/>
-        <v>999</v>
+        <v>1349</v>
       </c>
       <c r="Q92" s="30">
         <f t="shared" si="31"/>
-        <v>5421</v>
+        <v>5071</v>
       </c>
       <c r="R92" s="33">
         <v>47639</v>
@@ -9518,47 +9515,47 @@
       </c>
       <c r="G93" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H93" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I93" s="32">
         <f t="shared" si="58"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J93" s="50">
         <f t="shared" si="39"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K93" s="11">
         <f>SUM($J$10:J93)</f>
-        <v>283010</v>
+        <v>266074</v>
       </c>
       <c r="L93" s="52">
         <f t="shared" si="46"/>
-        <v>-6073</v>
+        <v>10863</v>
       </c>
       <c r="M93" s="30">
         <f t="shared" si="34"/>
-        <v>-127</v>
+        <v>227</v>
       </c>
       <c r="N93" s="30">
         <f t="shared" si="30"/>
-        <v>6547</v>
+        <v>6193</v>
       </c>
       <c r="O93" s="52">
         <f t="shared" si="47"/>
-        <v>44677</v>
+        <v>61613</v>
       </c>
       <c r="P93" s="30">
         <f t="shared" si="35"/>
-        <v>934</v>
+        <v>1288</v>
       </c>
       <c r="Q93" s="30">
         <f t="shared" si="31"/>
-        <v>5486</v>
+        <v>5132</v>
       </c>
       <c r="R93" s="33">
         <v>47669</v>
@@ -9610,47 +9607,47 @@
       </c>
       <c r="G94" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H94" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I94" s="32">
         <f t="shared" si="58"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J94" s="50">
         <f t="shared" si="39"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K94" s="11">
         <f>SUM($J$10:J94)</f>
-        <v>286130</v>
+        <v>268994</v>
       </c>
       <c r="L94" s="52">
         <f t="shared" si="46"/>
-        <v>-9193</v>
+        <v>7943</v>
       </c>
       <c r="M94" s="30">
         <f t="shared" si="34"/>
-        <v>-192</v>
+        <v>166</v>
       </c>
       <c r="N94" s="30">
         <f t="shared" si="30"/>
-        <v>6612</v>
+        <v>6254</v>
       </c>
       <c r="O94" s="52">
         <f t="shared" si="47"/>
-        <v>41557</v>
+        <v>58693</v>
       </c>
       <c r="P94" s="30">
         <f t="shared" si="35"/>
-        <v>869</v>
+        <v>1227</v>
       </c>
       <c r="Q94" s="30">
         <f t="shared" si="31"/>
-        <v>5551</v>
+        <v>5193</v>
       </c>
       <c r="R94" s="33">
         <v>47700</v>
@@ -9702,47 +9699,47 @@
       </c>
       <c r="G95" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H95" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I95" s="32">
         <f t="shared" ref="I95:I106" si="60">SUM(G95:H95)</f>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J95" s="50">
         <f t="shared" si="39"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K95" s="11">
         <f>SUM($J$10:J95)</f>
-        <v>289250</v>
+        <v>271914</v>
       </c>
       <c r="L95" s="52">
         <f t="shared" si="46"/>
-        <v>-12313</v>
+        <v>5023</v>
       </c>
       <c r="M95" s="30">
         <f t="shared" si="34"/>
-        <v>-257</v>
+        <v>105</v>
       </c>
       <c r="N95" s="30">
         <f t="shared" si="30"/>
-        <v>6677</v>
+        <v>6315</v>
       </c>
       <c r="O95" s="52">
         <f t="shared" si="47"/>
-        <v>38437</v>
+        <v>55773</v>
       </c>
       <c r="P95" s="30">
         <f t="shared" si="35"/>
-        <v>803</v>
+        <v>1166</v>
       </c>
       <c r="Q95" s="30">
         <f t="shared" si="31"/>
-        <v>5617</v>
+        <v>5254</v>
       </c>
       <c r="R95" s="33">
         <v>47731</v>
@@ -9794,47 +9791,47 @@
       </c>
       <c r="G96" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H96" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I96" s="32">
         <f t="shared" si="60"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J96" s="50">
         <f t="shared" si="39"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K96" s="11">
         <f>SUM($J$10:J96)</f>
-        <v>292370</v>
+        <v>274834</v>
       </c>
       <c r="L96" s="52">
         <f t="shared" si="46"/>
-        <v>-15433</v>
+        <v>2103</v>
       </c>
       <c r="M96" s="30">
         <f t="shared" si="34"/>
-        <v>-323</v>
+        <v>44</v>
       </c>
       <c r="N96" s="30">
         <f t="shared" si="30"/>
-        <v>6743</v>
+        <v>6376</v>
       </c>
       <c r="O96" s="52">
         <f t="shared" si="47"/>
-        <v>35317</v>
+        <v>52853</v>
       </c>
       <c r="P96" s="30">
         <f t="shared" si="35"/>
-        <v>738</v>
+        <v>1105</v>
       </c>
       <c r="Q96" s="30">
         <f t="shared" si="31"/>
-        <v>5682</v>
+        <v>5315</v>
       </c>
       <c r="R96" s="33">
         <v>47761</v>
@@ -9886,47 +9883,47 @@
       </c>
       <c r="G97" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H97" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I97" s="32">
         <f t="shared" si="60"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J97" s="50">
         <f t="shared" si="39"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K97" s="11">
         <f>SUM($J$10:J97)</f>
-        <v>295490</v>
+        <v>277754</v>
       </c>
       <c r="L97" s="52">
         <f t="shared" si="46"/>
-        <v>-18553</v>
+        <v>-817</v>
       </c>
       <c r="M97" s="30">
         <f t="shared" si="34"/>
-        <v>-388</v>
+        <v>-17</v>
       </c>
       <c r="N97" s="30">
         <f t="shared" si="30"/>
-        <v>6808</v>
+        <v>6437</v>
       </c>
       <c r="O97" s="52">
         <f t="shared" si="47"/>
-        <v>32197</v>
+        <v>49933</v>
       </c>
       <c r="P97" s="30">
         <f t="shared" si="35"/>
-        <v>673</v>
+        <v>1044</v>
       </c>
       <c r="Q97" s="30">
         <f t="shared" si="31"/>
-        <v>5747</v>
+        <v>5376</v>
       </c>
       <c r="R97" s="33">
         <v>47792</v>
@@ -9978,47 +9975,47 @@
       </c>
       <c r="G98" s="41">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H98" s="41">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I98" s="41">
         <f t="shared" si="60"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J98" s="43">
         <f t="shared" ref="J98:J156" si="61">F98-I98</f>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K98" s="41">
         <f>SUM($J$10:J98)</f>
-        <v>298610</v>
+        <v>280674</v>
       </c>
       <c r="L98" s="44">
         <f t="shared" ref="L98:L156" si="62">$H$5-K98</f>
-        <v>-21673</v>
+        <v>-3737</v>
       </c>
       <c r="M98" s="41">
         <f t="shared" ref="M98:M156" si="63">ROUND(L98*$U$5*(1+$U$5)^60/((1+$U$5)^60-1), 0)</f>
-        <v>-453</v>
+        <v>-78</v>
       </c>
       <c r="N98" s="41">
         <f t="shared" ref="N98:N156" si="64">F98-M98</f>
-        <v>6873</v>
+        <v>6498</v>
       </c>
       <c r="O98" s="44">
         <f t="shared" ref="O98:O156" si="65">$P$5-K98</f>
-        <v>29077</v>
+        <v>47013</v>
       </c>
       <c r="P98" s="41">
         <f t="shared" ref="P98:P156" si="66">ROUND(O98*$U$5*(1+$U$5)^60/((1+$U$5)^60-1), 0)</f>
-        <v>608</v>
+        <v>983</v>
       </c>
       <c r="Q98" s="41">
         <f t="shared" ref="Q98:Q156" si="67">F98-P98</f>
-        <v>5812</v>
+        <v>5437</v>
       </c>
       <c r="R98" s="42">
         <v>47822</v>
@@ -10070,47 +10067,47 @@
       </c>
       <c r="G99" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H99" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I99" s="32">
         <f t="shared" si="60"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J99" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K99" s="11">
         <f>SUM($J$10:J99)</f>
-        <v>301730</v>
+        <v>283594</v>
       </c>
       <c r="L99" s="52">
         <f t="shared" si="62"/>
-        <v>-24793</v>
+        <v>-6657</v>
       </c>
       <c r="M99" s="30">
         <f t="shared" si="63"/>
-        <v>-518</v>
+        <v>-139</v>
       </c>
       <c r="N99" s="30">
         <f t="shared" si="64"/>
-        <v>6938</v>
+        <v>6559</v>
       </c>
       <c r="O99" s="52">
         <f t="shared" si="65"/>
-        <v>25957</v>
+        <v>44093</v>
       </c>
       <c r="P99" s="30">
         <f t="shared" si="66"/>
-        <v>543</v>
+        <v>922</v>
       </c>
       <c r="Q99" s="30">
         <f t="shared" si="67"/>
-        <v>5877</v>
+        <v>5498</v>
       </c>
       <c r="R99" s="33">
         <v>47853</v>
@@ -10162,47 +10159,47 @@
       </c>
       <c r="G100" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H100" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I100" s="32">
         <f t="shared" si="60"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J100" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K100" s="11">
         <f>SUM($J$10:J100)</f>
-        <v>304850</v>
+        <v>286514</v>
       </c>
       <c r="L100" s="52">
         <f t="shared" si="62"/>
-        <v>-27913</v>
+        <v>-9577</v>
       </c>
       <c r="M100" s="30">
         <f t="shared" si="63"/>
-        <v>-584</v>
+        <v>-200</v>
       </c>
       <c r="N100" s="30">
         <f t="shared" si="64"/>
-        <v>7004</v>
+        <v>6620</v>
       </c>
       <c r="O100" s="52">
         <f t="shared" si="65"/>
-        <v>22837</v>
+        <v>41173</v>
       </c>
       <c r="P100" s="30">
         <f t="shared" si="66"/>
-        <v>477</v>
+        <v>861</v>
       </c>
       <c r="Q100" s="30">
         <f t="shared" si="67"/>
-        <v>5943</v>
+        <v>5559</v>
       </c>
       <c r="R100" s="33">
         <v>47884</v>
@@ -10254,47 +10251,47 @@
       </c>
       <c r="G101" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H101" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I101" s="32">
         <f t="shared" si="60"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J101" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K101" s="11">
         <f>SUM($J$10:J101)</f>
-        <v>307970</v>
+        <v>289434</v>
       </c>
       <c r="L101" s="52">
         <f t="shared" si="62"/>
-        <v>-31033</v>
+        <v>-12497</v>
       </c>
       <c r="M101" s="30">
         <f t="shared" si="63"/>
-        <v>-649</v>
+        <v>-261</v>
       </c>
       <c r="N101" s="30">
         <f t="shared" si="64"/>
-        <v>7069</v>
+        <v>6681</v>
       </c>
       <c r="O101" s="52">
         <f t="shared" si="65"/>
-        <v>19717</v>
+        <v>38253</v>
       </c>
       <c r="P101" s="30">
         <f t="shared" si="66"/>
-        <v>412</v>
+        <v>800</v>
       </c>
       <c r="Q101" s="30">
         <f t="shared" si="67"/>
-        <v>6008</v>
+        <v>5620</v>
       </c>
       <c r="R101" s="33">
         <v>47912</v>
@@ -10346,47 +10343,47 @@
       </c>
       <c r="G102" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H102" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I102" s="32">
         <f t="shared" si="60"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J102" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K102" s="11">
         <f>SUM($J$10:J102)</f>
-        <v>311090</v>
+        <v>292354</v>
       </c>
       <c r="L102" s="52">
         <f t="shared" si="62"/>
-        <v>-34153</v>
+        <v>-15417</v>
       </c>
       <c r="M102" s="30">
         <f t="shared" si="63"/>
-        <v>-714</v>
+        <v>-322</v>
       </c>
       <c r="N102" s="30">
         <f t="shared" si="64"/>
-        <v>7134</v>
+        <v>6742</v>
       </c>
       <c r="O102" s="52">
         <f t="shared" si="65"/>
-        <v>16597</v>
+        <v>35333</v>
       </c>
       <c r="P102" s="30">
         <f t="shared" si="66"/>
-        <v>347</v>
+        <v>739</v>
       </c>
       <c r="Q102" s="30">
         <f t="shared" si="67"/>
-        <v>6073</v>
+        <v>5681</v>
       </c>
       <c r="R102" s="33">
         <v>47943</v>
@@ -10438,47 +10435,47 @@
       </c>
       <c r="G103" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H103" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I103" s="32">
         <f t="shared" si="60"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J103" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K103" s="11">
         <f>SUM($J$10:J103)</f>
-        <v>314210</v>
+        <v>295274</v>
       </c>
       <c r="L103" s="52">
         <f t="shared" si="62"/>
-        <v>-37273</v>
+        <v>-18337</v>
       </c>
       <c r="M103" s="30">
         <f t="shared" si="63"/>
-        <v>-779</v>
+        <v>-383</v>
       </c>
       <c r="N103" s="30">
         <f t="shared" si="64"/>
-        <v>7199</v>
+        <v>6803</v>
       </c>
       <c r="O103" s="52">
         <f t="shared" si="65"/>
-        <v>13477</v>
+        <v>32413</v>
       </c>
       <c r="P103" s="30">
         <f t="shared" si="66"/>
-        <v>282</v>
+        <v>678</v>
       </c>
       <c r="Q103" s="30">
         <f t="shared" si="67"/>
-        <v>6138</v>
+        <v>5742</v>
       </c>
       <c r="R103" s="33">
         <v>47973</v>
@@ -10530,47 +10527,47 @@
       </c>
       <c r="G104" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H104" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I104" s="32">
         <f t="shared" si="60"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J104" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K104" s="11">
         <f>SUM($J$10:J104)</f>
-        <v>317330</v>
+        <v>298194</v>
       </c>
       <c r="L104" s="52">
         <f t="shared" si="62"/>
-        <v>-40393</v>
+        <v>-21257</v>
       </c>
       <c r="M104" s="30">
         <f t="shared" si="63"/>
-        <v>-844</v>
+        <v>-444</v>
       </c>
       <c r="N104" s="30">
         <f t="shared" si="64"/>
-        <v>7264</v>
+        <v>6864</v>
       </c>
       <c r="O104" s="52">
         <f t="shared" si="65"/>
-        <v>10357</v>
+        <v>29493</v>
       </c>
       <c r="P104" s="30">
         <f t="shared" si="66"/>
-        <v>217</v>
+        <v>617</v>
       </c>
       <c r="Q104" s="30">
         <f t="shared" si="67"/>
-        <v>6203</v>
+        <v>5803</v>
       </c>
       <c r="R104" s="33">
         <v>48004</v>
@@ -10622,47 +10619,47 @@
       </c>
       <c r="G105" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H105" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I105" s="32">
         <f t="shared" si="60"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J105" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K105" s="11">
         <f>SUM($J$10:J105)</f>
-        <v>320450</v>
+        <v>301114</v>
       </c>
       <c r="L105" s="52">
         <f t="shared" si="62"/>
-        <v>-43513</v>
+        <v>-24177</v>
       </c>
       <c r="M105" s="30">
         <f t="shared" si="63"/>
-        <v>-910</v>
+        <v>-505</v>
       </c>
       <c r="N105" s="30">
         <f t="shared" si="64"/>
-        <v>7330</v>
+        <v>6925</v>
       </c>
       <c r="O105" s="52">
         <f t="shared" si="65"/>
-        <v>7237</v>
+        <v>26573</v>
       </c>
       <c r="P105" s="30">
         <f t="shared" si="66"/>
-        <v>151</v>
+        <v>555</v>
       </c>
       <c r="Q105" s="30">
         <f t="shared" si="67"/>
-        <v>6269</v>
+        <v>5865</v>
       </c>
       <c r="R105" s="33">
         <v>48034</v>
@@ -10714,47 +10711,47 @@
       </c>
       <c r="G106" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H106" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I106" s="32">
         <f t="shared" si="60"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J106" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K106" s="11">
         <f>SUM($J$10:J106)</f>
-        <v>323570</v>
+        <v>304034</v>
       </c>
       <c r="L106" s="52">
         <f t="shared" si="62"/>
-        <v>-46633</v>
+        <v>-27097</v>
       </c>
       <c r="M106" s="30">
         <f t="shared" si="63"/>
-        <v>-975</v>
+        <v>-566</v>
       </c>
       <c r="N106" s="30">
         <f t="shared" si="64"/>
-        <v>7395</v>
+        <v>6986</v>
       </c>
       <c r="O106" s="52">
         <f t="shared" si="65"/>
-        <v>4117</v>
+        <v>23653</v>
       </c>
       <c r="P106" s="30">
         <f t="shared" si="66"/>
-        <v>86</v>
+        <v>494</v>
       </c>
       <c r="Q106" s="30">
         <f t="shared" si="67"/>
-        <v>6334</v>
+        <v>5926</v>
       </c>
       <c r="R106" s="33">
         <v>48065</v>
@@ -10806,47 +10803,47 @@
       </c>
       <c r="G107" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H107" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I107" s="32">
         <f t="shared" ref="I107:I156" si="70">SUM(G107:H107)</f>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J107" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K107" s="11">
         <f>SUM($J$10:J107)</f>
-        <v>326690</v>
+        <v>306954</v>
       </c>
       <c r="L107" s="52">
         <f t="shared" si="62"/>
-        <v>-49753</v>
+        <v>-30017</v>
       </c>
       <c r="M107" s="30">
         <f t="shared" si="63"/>
-        <v>-1040</v>
+        <v>-627</v>
       </c>
       <c r="N107" s="30">
         <f t="shared" si="64"/>
-        <v>7460</v>
+        <v>7047</v>
       </c>
       <c r="O107" s="52">
         <f t="shared" si="65"/>
-        <v>997</v>
+        <v>20733</v>
       </c>
       <c r="P107" s="30">
         <f t="shared" si="66"/>
-        <v>21</v>
+        <v>433</v>
       </c>
       <c r="Q107" s="30">
         <f t="shared" si="67"/>
-        <v>6399</v>
+        <v>5987</v>
       </c>
       <c r="R107" s="33">
         <v>48096</v>
@@ -10898,47 +10895,47 @@
       </c>
       <c r="G108" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H108" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I108" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J108" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K108" s="11">
         <f>SUM($J$10:J108)</f>
-        <v>329810</v>
+        <v>309874</v>
       </c>
       <c r="L108" s="52">
         <f t="shared" si="62"/>
-        <v>-52873</v>
+        <v>-32937</v>
       </c>
       <c r="M108" s="30">
         <f t="shared" si="63"/>
-        <v>-1105</v>
+        <v>-689</v>
       </c>
       <c r="N108" s="30">
         <f t="shared" si="64"/>
-        <v>7525</v>
+        <v>7109</v>
       </c>
       <c r="O108" s="52">
         <f t="shared" si="65"/>
-        <v>-2123</v>
+        <v>17813</v>
       </c>
       <c r="P108" s="30">
         <f t="shared" si="66"/>
-        <v>-44</v>
+        <v>372</v>
       </c>
       <c r="Q108" s="30">
         <f t="shared" si="67"/>
-        <v>6464</v>
+        <v>6048</v>
       </c>
       <c r="R108" s="33">
         <v>48126</v>
@@ -10990,47 +10987,47 @@
       </c>
       <c r="G109" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H109" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I109" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J109" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K109" s="11">
         <f>SUM($J$10:J109)</f>
-        <v>332930</v>
+        <v>312794</v>
       </c>
       <c r="L109" s="52">
         <f t="shared" si="62"/>
-        <v>-55993</v>
+        <v>-35857</v>
       </c>
       <c r="M109" s="30">
         <f t="shared" si="63"/>
-        <v>-1170</v>
+        <v>-750</v>
       </c>
       <c r="N109" s="30">
         <f t="shared" si="64"/>
-        <v>7590</v>
+        <v>7170</v>
       </c>
       <c r="O109" s="52">
         <f t="shared" si="65"/>
-        <v>-5243</v>
+        <v>14893</v>
       </c>
       <c r="P109" s="30">
         <f t="shared" si="66"/>
-        <v>-110</v>
+        <v>311</v>
       </c>
       <c r="Q109" s="30">
         <f t="shared" si="67"/>
-        <v>6530</v>
+        <v>6109</v>
       </c>
       <c r="R109" s="33">
         <v>48157</v>
@@ -11064,47 +11061,47 @@
       </c>
       <c r="G110" s="41">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H110" s="41">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I110" s="41">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J110" s="43">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K110" s="41">
         <f>SUM($J$10:J110)</f>
-        <v>336050</v>
+        <v>315714</v>
       </c>
       <c r="L110" s="44">
         <f t="shared" si="62"/>
-        <v>-59113</v>
+        <v>-38777</v>
       </c>
       <c r="M110" s="41">
         <f t="shared" si="63"/>
-        <v>-1236</v>
+        <v>-811</v>
       </c>
       <c r="N110" s="41">
         <f t="shared" si="64"/>
-        <v>7656</v>
+        <v>7231</v>
       </c>
       <c r="O110" s="44">
         <f t="shared" si="65"/>
-        <v>-8363</v>
+        <v>11973</v>
       </c>
       <c r="P110" s="41">
         <f t="shared" si="66"/>
-        <v>-175</v>
+        <v>250</v>
       </c>
       <c r="Q110" s="41">
         <f t="shared" si="67"/>
-        <v>6595</v>
+        <v>6170</v>
       </c>
       <c r="R110" s="42">
         <v>48187</v>
@@ -11138,47 +11135,47 @@
       </c>
       <c r="G111" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H111" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I111" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J111" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K111" s="11">
         <f>SUM($J$10:J111)</f>
-        <v>339170</v>
+        <v>318634</v>
       </c>
       <c r="L111" s="52">
         <f t="shared" si="62"/>
-        <v>-62233</v>
+        <v>-41697</v>
       </c>
       <c r="M111" s="30">
         <f t="shared" si="63"/>
-        <v>-1301</v>
+        <v>-872</v>
       </c>
       <c r="N111" s="30">
         <f t="shared" si="64"/>
-        <v>7721</v>
+        <v>7292</v>
       </c>
       <c r="O111" s="52">
         <f t="shared" si="65"/>
-        <v>-11483</v>
+        <v>9053</v>
       </c>
       <c r="P111" s="30">
         <f t="shared" si="66"/>
-        <v>-240</v>
+        <v>189</v>
       </c>
       <c r="Q111" s="30">
         <f t="shared" si="67"/>
-        <v>6660</v>
+        <v>6231</v>
       </c>
       <c r="R111" s="33">
         <v>48218</v>
@@ -11212,47 +11209,47 @@
       </c>
       <c r="G112" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H112" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I112" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J112" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K112" s="11">
         <f>SUM($J$10:J112)</f>
-        <v>342290</v>
+        <v>321554</v>
       </c>
       <c r="L112" s="52">
         <f t="shared" si="62"/>
-        <v>-65353</v>
+        <v>-44617</v>
       </c>
       <c r="M112" s="30">
         <f t="shared" si="63"/>
-        <v>-1366</v>
+        <v>-933</v>
       </c>
       <c r="N112" s="30">
         <f t="shared" si="64"/>
-        <v>7786</v>
+        <v>7353</v>
       </c>
       <c r="O112" s="52">
         <f t="shared" si="65"/>
-        <v>-14603</v>
+        <v>6133</v>
       </c>
       <c r="P112" s="30">
         <f t="shared" si="66"/>
-        <v>-305</v>
+        <v>128</v>
       </c>
       <c r="Q112" s="30">
         <f t="shared" si="67"/>
-        <v>6725</v>
+        <v>6292</v>
       </c>
       <c r="R112" s="33">
         <v>48249</v>
@@ -11286,47 +11283,47 @@
       </c>
       <c r="G113" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H113" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I113" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J113" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K113" s="11">
         <f>SUM($J$10:J113)</f>
-        <v>345410</v>
+        <v>324474</v>
       </c>
       <c r="L113" s="52">
         <f t="shared" si="62"/>
-        <v>-68473</v>
+        <v>-47537</v>
       </c>
       <c r="M113" s="30">
         <f t="shared" si="63"/>
-        <v>-1431</v>
+        <v>-994</v>
       </c>
       <c r="N113" s="30">
         <f t="shared" si="64"/>
-        <v>7851</v>
+        <v>7414</v>
       </c>
       <c r="O113" s="52">
         <f t="shared" si="65"/>
-        <v>-17723</v>
+        <v>3213</v>
       </c>
       <c r="P113" s="30">
         <f t="shared" si="66"/>
-        <v>-370</v>
+        <v>67</v>
       </c>
       <c r="Q113" s="30">
         <f t="shared" si="67"/>
-        <v>6790</v>
+        <v>6353</v>
       </c>
       <c r="R113" s="33">
         <v>48278</v>
@@ -11360,47 +11357,47 @@
       </c>
       <c r="G114" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H114" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I114" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J114" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K114" s="11">
         <f>SUM($J$10:J114)</f>
-        <v>348530</v>
+        <v>327394</v>
       </c>
       <c r="L114" s="52">
         <f t="shared" si="62"/>
-        <v>-71593</v>
+        <v>-50457</v>
       </c>
       <c r="M114" s="30">
         <f t="shared" si="63"/>
-        <v>-1497</v>
+        <v>-1055</v>
       </c>
       <c r="N114" s="30">
         <f t="shared" si="64"/>
-        <v>7917</v>
+        <v>7475</v>
       </c>
       <c r="O114" s="52">
         <f t="shared" si="65"/>
-        <v>-20843</v>
+        <v>293</v>
       </c>
       <c r="P114" s="30">
         <f t="shared" si="66"/>
-        <v>-436</v>
+        <v>6</v>
       </c>
       <c r="Q114" s="30">
         <f t="shared" si="67"/>
-        <v>6856</v>
+        <v>6414</v>
       </c>
       <c r="R114" s="33">
         <v>48309</v>
@@ -11434,47 +11431,47 @@
       </c>
       <c r="G115" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H115" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I115" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J115" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K115" s="11">
         <f>SUM($J$10:J115)</f>
-        <v>351650</v>
+        <v>330314</v>
       </c>
       <c r="L115" s="52">
         <f t="shared" si="62"/>
-        <v>-74713</v>
+        <v>-53377</v>
       </c>
       <c r="M115" s="30">
         <f t="shared" si="63"/>
-        <v>-1562</v>
+        <v>-1116</v>
       </c>
       <c r="N115" s="30">
         <f t="shared" si="64"/>
-        <v>7982</v>
+        <v>7536</v>
       </c>
       <c r="O115" s="52">
         <f t="shared" si="65"/>
-        <v>-23963</v>
+        <v>-2627</v>
       </c>
       <c r="P115" s="30">
         <f t="shared" si="66"/>
-        <v>-501</v>
+        <v>-55</v>
       </c>
       <c r="Q115" s="30">
         <f t="shared" si="67"/>
-        <v>6921</v>
+        <v>6475</v>
       </c>
       <c r="R115" s="33">
         <v>48339</v>
@@ -11508,47 +11505,47 @@
       </c>
       <c r="G116" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H116" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I116" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J116" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K116" s="11">
         <f>SUM($J$10:J116)</f>
-        <v>354770</v>
+        <v>333234</v>
       </c>
       <c r="L116" s="52">
         <f t="shared" si="62"/>
-        <v>-77833</v>
+        <v>-56297</v>
       </c>
       <c r="M116" s="30">
         <f t="shared" si="63"/>
-        <v>-1627</v>
+        <v>-1177</v>
       </c>
       <c r="N116" s="30">
         <f t="shared" si="64"/>
-        <v>8047</v>
+        <v>7597</v>
       </c>
       <c r="O116" s="52">
         <f t="shared" si="65"/>
-        <v>-27083</v>
+        <v>-5547</v>
       </c>
       <c r="P116" s="30">
         <f t="shared" si="66"/>
-        <v>-566</v>
+        <v>-116</v>
       </c>
       <c r="Q116" s="30">
         <f t="shared" si="67"/>
-        <v>6986</v>
+        <v>6536</v>
       </c>
       <c r="R116" s="33">
         <v>48370</v>
@@ -11582,47 +11579,47 @@
       </c>
       <c r="G117" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H117" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I117" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J117" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K117" s="11">
         <f>SUM($J$10:J117)</f>
-        <v>357890</v>
+        <v>336154</v>
       </c>
       <c r="L117" s="52">
         <f t="shared" si="62"/>
-        <v>-80953</v>
+        <v>-59217</v>
       </c>
       <c r="M117" s="30">
         <f t="shared" si="63"/>
-        <v>-1692</v>
+        <v>-1238</v>
       </c>
       <c r="N117" s="30">
         <f t="shared" si="64"/>
-        <v>8112</v>
+        <v>7658</v>
       </c>
       <c r="O117" s="52">
         <f t="shared" si="65"/>
-        <v>-30203</v>
+        <v>-8467</v>
       </c>
       <c r="P117" s="30">
         <f t="shared" si="66"/>
-        <v>-631</v>
+        <v>-177</v>
       </c>
       <c r="Q117" s="30">
         <f t="shared" si="67"/>
-        <v>7051</v>
+        <v>6597</v>
       </c>
       <c r="R117" s="33">
         <v>48400</v>
@@ -11656,47 +11653,47 @@
       </c>
       <c r="G118" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H118" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I118" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J118" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K118" s="11">
         <f>SUM($J$10:J118)</f>
-        <v>361010</v>
+        <v>339074</v>
       </c>
       <c r="L118" s="52">
         <f t="shared" si="62"/>
-        <v>-84073</v>
+        <v>-62137</v>
       </c>
       <c r="M118" s="30">
         <f t="shared" si="63"/>
-        <v>-1757</v>
+        <v>-1299</v>
       </c>
       <c r="N118" s="30">
         <f t="shared" si="64"/>
-        <v>8177</v>
+        <v>7719</v>
       </c>
       <c r="O118" s="52">
         <f t="shared" si="65"/>
-        <v>-33323</v>
+        <v>-11387</v>
       </c>
       <c r="P118" s="30">
         <f t="shared" si="66"/>
-        <v>-697</v>
+        <v>-238</v>
       </c>
       <c r="Q118" s="30">
         <f t="shared" si="67"/>
-        <v>7117</v>
+        <v>6658</v>
       </c>
       <c r="R118" s="33">
         <v>48431</v>
@@ -11730,47 +11727,47 @@
       </c>
       <c r="G119" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H119" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I119" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J119" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K119" s="11">
         <f>SUM($J$10:J119)</f>
-        <v>364130</v>
+        <v>341994</v>
       </c>
       <c r="L119" s="52">
         <f t="shared" si="62"/>
-        <v>-87193</v>
+        <v>-65057</v>
       </c>
       <c r="M119" s="30">
         <f t="shared" si="63"/>
-        <v>-1823</v>
+        <v>-1360</v>
       </c>
       <c r="N119" s="30">
         <f t="shared" si="64"/>
-        <v>8243</v>
+        <v>7780</v>
       </c>
       <c r="O119" s="52">
         <f t="shared" si="65"/>
-        <v>-36443</v>
+        <v>-14307</v>
       </c>
       <c r="P119" s="30">
         <f t="shared" si="66"/>
-        <v>-762</v>
+        <v>-299</v>
       </c>
       <c r="Q119" s="30">
         <f t="shared" si="67"/>
-        <v>7182</v>
+        <v>6719</v>
       </c>
       <c r="R119" s="33">
         <v>48462</v>
@@ -11804,47 +11801,47 @@
       </c>
       <c r="G120" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H120" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I120" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J120" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K120" s="11">
         <f>SUM($J$10:J120)</f>
-        <v>367250</v>
+        <v>344914</v>
       </c>
       <c r="L120" s="52">
         <f t="shared" si="62"/>
-        <v>-90313</v>
+        <v>-67977</v>
       </c>
       <c r="M120" s="30">
         <f t="shared" si="63"/>
-        <v>-1888</v>
+        <v>-1421</v>
       </c>
       <c r="N120" s="30">
         <f t="shared" si="64"/>
-        <v>8308</v>
+        <v>7841</v>
       </c>
       <c r="O120" s="52">
         <f t="shared" si="65"/>
-        <v>-39563</v>
+        <v>-17227</v>
       </c>
       <c r="P120" s="30">
         <f t="shared" si="66"/>
-        <v>-827</v>
+        <v>-360</v>
       </c>
       <c r="Q120" s="30">
         <f t="shared" si="67"/>
-        <v>7247</v>
+        <v>6780</v>
       </c>
       <c r="R120" s="33">
         <v>48492</v>
@@ -11878,47 +11875,47 @@
       </c>
       <c r="G121" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H121" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I121" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J121" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K121" s="11">
         <f>SUM($J$10:J121)</f>
-        <v>370370</v>
+        <v>347834</v>
       </c>
       <c r="L121" s="52">
         <f t="shared" si="62"/>
-        <v>-93433</v>
+        <v>-70897</v>
       </c>
       <c r="M121" s="30">
         <f t="shared" si="63"/>
-        <v>-1953</v>
+        <v>-1482</v>
       </c>
       <c r="N121" s="30">
         <f t="shared" si="64"/>
-        <v>8373</v>
+        <v>7902</v>
       </c>
       <c r="O121" s="52">
         <f t="shared" si="65"/>
-        <v>-42683</v>
+        <v>-20147</v>
       </c>
       <c r="P121" s="30">
         <f t="shared" si="66"/>
-        <v>-892</v>
+        <v>-421</v>
       </c>
       <c r="Q121" s="30">
         <f t="shared" si="67"/>
-        <v>7312</v>
+        <v>6841</v>
       </c>
       <c r="R121" s="33">
         <v>48523</v>
@@ -11952,47 +11949,47 @@
       </c>
       <c r="G122" s="41">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H122" s="41">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I122" s="41">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J122" s="43">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K122" s="41">
         <f>SUM($J$10:J122)</f>
-        <v>373490</v>
+        <v>350754</v>
       </c>
       <c r="L122" s="44">
         <f t="shared" si="62"/>
-        <v>-96553</v>
+        <v>-73817</v>
       </c>
       <c r="M122" s="41">
         <f t="shared" si="63"/>
-        <v>-2018</v>
+        <v>-1543</v>
       </c>
       <c r="N122" s="41">
         <f t="shared" si="64"/>
-        <v>8438</v>
+        <v>7963</v>
       </c>
       <c r="O122" s="44">
         <f t="shared" si="65"/>
-        <v>-45803</v>
+        <v>-23067</v>
       </c>
       <c r="P122" s="41">
         <f t="shared" si="66"/>
-        <v>-957</v>
+        <v>-482</v>
       </c>
       <c r="Q122" s="41">
         <f t="shared" si="67"/>
-        <v>7377</v>
+        <v>6902</v>
       </c>
       <c r="R122" s="42">
         <v>48553</v>
@@ -12026,47 +12023,47 @@
       </c>
       <c r="G123" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H123" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I123" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J123" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K123" s="11">
         <f>SUM($J$10:J123)</f>
-        <v>376610</v>
+        <v>353674</v>
       </c>
       <c r="L123" s="52">
         <f t="shared" si="62"/>
-        <v>-99673</v>
+        <v>-76737</v>
       </c>
       <c r="M123" s="30">
         <f t="shared" si="63"/>
-        <v>-2084</v>
+        <v>-1604</v>
       </c>
       <c r="N123" s="30">
         <f t="shared" si="64"/>
-        <v>8504</v>
+        <v>8024</v>
       </c>
       <c r="O123" s="52">
         <f t="shared" si="65"/>
-        <v>-48923</v>
+        <v>-25987</v>
       </c>
       <c r="P123" s="30">
         <f t="shared" si="66"/>
-        <v>-1023</v>
+        <v>-543</v>
       </c>
       <c r="Q123" s="30">
         <f t="shared" si="67"/>
-        <v>7443</v>
+        <v>6963</v>
       </c>
       <c r="R123" s="33">
         <v>48584</v>
@@ -12100,47 +12097,47 @@
       </c>
       <c r="G124" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H124" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I124" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J124" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K124" s="11">
         <f>SUM($J$10:J124)</f>
-        <v>379730</v>
+        <v>356594</v>
       </c>
       <c r="L124" s="52">
         <f t="shared" si="62"/>
-        <v>-102793</v>
+        <v>-79657</v>
       </c>
       <c r="M124" s="30">
         <f t="shared" si="63"/>
-        <v>-2149</v>
+        <v>-1665</v>
       </c>
       <c r="N124" s="30">
         <f t="shared" si="64"/>
-        <v>8569</v>
+        <v>8085</v>
       </c>
       <c r="O124" s="52">
         <f t="shared" si="65"/>
-        <v>-52043</v>
+        <v>-28907</v>
       </c>
       <c r="P124" s="30">
         <f t="shared" si="66"/>
-        <v>-1088</v>
+        <v>-604</v>
       </c>
       <c r="Q124" s="30">
         <f t="shared" si="67"/>
-        <v>7508</v>
+        <v>7024</v>
       </c>
       <c r="R124" s="33">
         <v>48615</v>
@@ -12174,47 +12171,47 @@
       </c>
       <c r="G125" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H125" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I125" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J125" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K125" s="11">
         <f>SUM($J$10:J125)</f>
-        <v>382850</v>
+        <v>359514</v>
       </c>
       <c r="L125" s="52">
         <f t="shared" si="62"/>
-        <v>-105913</v>
+        <v>-82577</v>
       </c>
       <c r="M125" s="30">
         <f t="shared" si="63"/>
-        <v>-2214</v>
+        <v>-1726</v>
       </c>
       <c r="N125" s="30">
         <f t="shared" si="64"/>
-        <v>8634</v>
+        <v>8146</v>
       </c>
       <c r="O125" s="52">
         <f t="shared" si="65"/>
-        <v>-55163</v>
+        <v>-31827</v>
       </c>
       <c r="P125" s="30">
         <f t="shared" si="66"/>
-        <v>-1153</v>
+        <v>-665</v>
       </c>
       <c r="Q125" s="30">
         <f t="shared" si="67"/>
-        <v>7573</v>
+        <v>7085</v>
       </c>
       <c r="R125" s="33">
         <v>48643</v>
@@ -12248,47 +12245,47 @@
       </c>
       <c r="G126" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H126" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I126" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J126" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K126" s="11">
         <f>SUM($J$10:J126)</f>
-        <v>385970</v>
+        <v>362434</v>
       </c>
       <c r="L126" s="52">
         <f t="shared" si="62"/>
-        <v>-109033</v>
+        <v>-85497</v>
       </c>
       <c r="M126" s="30">
         <f t="shared" si="63"/>
-        <v>-2279</v>
+        <v>-1787</v>
       </c>
       <c r="N126" s="30">
         <f t="shared" si="64"/>
-        <v>8699</v>
+        <v>8207</v>
       </c>
       <c r="O126" s="52">
         <f t="shared" si="65"/>
-        <v>-58283</v>
+        <v>-34747</v>
       </c>
       <c r="P126" s="30">
         <f t="shared" si="66"/>
-        <v>-1218</v>
+        <v>-726</v>
       </c>
       <c r="Q126" s="30">
         <f t="shared" si="67"/>
-        <v>7638</v>
+        <v>7146</v>
       </c>
       <c r="R126" s="33">
         <v>48674</v>
@@ -12322,47 +12319,47 @@
       </c>
       <c r="G127" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H127" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I127" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J127" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K127" s="11">
         <f>SUM($J$10:J127)</f>
-        <v>389090</v>
+        <v>365354</v>
       </c>
       <c r="L127" s="52">
         <f t="shared" si="62"/>
-        <v>-112153</v>
+        <v>-88417</v>
       </c>
       <c r="M127" s="30">
         <f t="shared" si="63"/>
-        <v>-2344</v>
+        <v>-1848</v>
       </c>
       <c r="N127" s="30">
         <f t="shared" si="64"/>
-        <v>8764</v>
+        <v>8268</v>
       </c>
       <c r="O127" s="52">
         <f t="shared" si="65"/>
-        <v>-61403</v>
+        <v>-37667</v>
       </c>
       <c r="P127" s="30">
         <f t="shared" si="66"/>
-        <v>-1284</v>
+        <v>-787</v>
       </c>
       <c r="Q127" s="30">
         <f t="shared" si="67"/>
-        <v>7704</v>
+        <v>7207</v>
       </c>
       <c r="R127" s="33">
         <v>48704</v>
@@ -12396,47 +12393,47 @@
       </c>
       <c r="G128" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H128" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I128" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J128" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K128" s="11">
         <f>SUM($J$10:J128)</f>
-        <v>392210</v>
+        <v>368274</v>
       </c>
       <c r="L128" s="52">
         <f t="shared" si="62"/>
-        <v>-115273</v>
+        <v>-91337</v>
       </c>
       <c r="M128" s="30">
         <f t="shared" si="63"/>
-        <v>-2410</v>
+        <v>-1909</v>
       </c>
       <c r="N128" s="30">
         <f t="shared" si="64"/>
-        <v>8830</v>
+        <v>8329</v>
       </c>
       <c r="O128" s="52">
         <f t="shared" si="65"/>
-        <v>-64523</v>
+        <v>-40587</v>
       </c>
       <c r="P128" s="30">
         <f t="shared" si="66"/>
-        <v>-1349</v>
+        <v>-848</v>
       </c>
       <c r="Q128" s="30">
         <f t="shared" si="67"/>
-        <v>7769</v>
+        <v>7268</v>
       </c>
       <c r="R128" s="33">
         <v>48735</v>
@@ -12470,47 +12467,47 @@
       </c>
       <c r="G129" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H129" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I129" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J129" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K129" s="11">
         <f>SUM($J$10:J129)</f>
-        <v>395330</v>
+        <v>371194</v>
       </c>
       <c r="L129" s="52">
         <f t="shared" si="62"/>
-        <v>-118393</v>
+        <v>-94257</v>
       </c>
       <c r="M129" s="30">
         <f t="shared" si="63"/>
-        <v>-2475</v>
+        <v>-1970</v>
       </c>
       <c r="N129" s="30">
         <f t="shared" si="64"/>
-        <v>8895</v>
+        <v>8390</v>
       </c>
       <c r="O129" s="52">
         <f t="shared" si="65"/>
-        <v>-67643</v>
+        <v>-43507</v>
       </c>
       <c r="P129" s="30">
         <f t="shared" si="66"/>
-        <v>-1414</v>
+        <v>-909</v>
       </c>
       <c r="Q129" s="30">
         <f t="shared" si="67"/>
-        <v>7834</v>
+        <v>7329</v>
       </c>
       <c r="R129" s="33">
         <v>48765</v>
@@ -12544,47 +12541,47 @@
       </c>
       <c r="G130" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H130" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I130" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J130" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K130" s="11">
         <f>SUM($J$10:J130)</f>
-        <v>398450</v>
+        <v>374114</v>
       </c>
       <c r="L130" s="52">
         <f t="shared" si="62"/>
-        <v>-121513</v>
+        <v>-97177</v>
       </c>
       <c r="M130" s="30">
         <f t="shared" si="63"/>
-        <v>-2540</v>
+        <v>-2031</v>
       </c>
       <c r="N130" s="30">
         <f t="shared" si="64"/>
-        <v>8960</v>
+        <v>8451</v>
       </c>
       <c r="O130" s="52">
         <f t="shared" si="65"/>
-        <v>-70763</v>
+        <v>-46427</v>
       </c>
       <c r="P130" s="30">
         <f t="shared" si="66"/>
-        <v>-1479</v>
+        <v>-971</v>
       </c>
       <c r="Q130" s="30">
         <f t="shared" si="67"/>
-        <v>7899</v>
+        <v>7391</v>
       </c>
       <c r="R130" s="33">
         <v>48796</v>
@@ -12618,47 +12615,47 @@
       </c>
       <c r="G131" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H131" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I131" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J131" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K131" s="11">
         <f>SUM($J$10:J131)</f>
-        <v>401570</v>
+        <v>377034</v>
       </c>
       <c r="L131" s="52">
         <f t="shared" si="62"/>
-        <v>-124633</v>
+        <v>-100097</v>
       </c>
       <c r="M131" s="30">
         <f t="shared" si="63"/>
-        <v>-2605</v>
+        <v>-2092</v>
       </c>
       <c r="N131" s="30">
         <f t="shared" si="64"/>
-        <v>9025</v>
+        <v>8512</v>
       </c>
       <c r="O131" s="52">
         <f t="shared" si="65"/>
-        <v>-73883</v>
+        <v>-49347</v>
       </c>
       <c r="P131" s="30">
         <f t="shared" si="66"/>
-        <v>-1544</v>
+        <v>-1032</v>
       </c>
       <c r="Q131" s="30">
         <f t="shared" si="67"/>
-        <v>7964</v>
+        <v>7452</v>
       </c>
       <c r="R131" s="33">
         <v>48827</v>
@@ -12692,47 +12689,47 @@
       </c>
       <c r="G132" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H132" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I132" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J132" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K132" s="11">
         <f>SUM($J$10:J132)</f>
-        <v>404690</v>
+        <v>379954</v>
       </c>
       <c r="L132" s="52">
         <f t="shared" si="62"/>
-        <v>-127753</v>
+        <v>-103017</v>
       </c>
       <c r="M132" s="30">
         <f t="shared" si="63"/>
-        <v>-2671</v>
+        <v>-2153</v>
       </c>
       <c r="N132" s="30">
         <f t="shared" si="64"/>
-        <v>9091</v>
+        <v>8573</v>
       </c>
       <c r="O132" s="52">
         <f t="shared" si="65"/>
-        <v>-77003</v>
+        <v>-52267</v>
       </c>
       <c r="P132" s="30">
         <f t="shared" si="66"/>
-        <v>-1610</v>
+        <v>-1093</v>
       </c>
       <c r="Q132" s="30">
         <f t="shared" si="67"/>
-        <v>8030</v>
+        <v>7513</v>
       </c>
       <c r="R132" s="33">
         <v>48857</v>
@@ -12766,47 +12763,47 @@
       </c>
       <c r="G133" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H133" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I133" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J133" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K133" s="11">
         <f>SUM($J$10:J133)</f>
-        <v>407810</v>
+        <v>382874</v>
       </c>
       <c r="L133" s="52">
         <f t="shared" si="62"/>
-        <v>-130873</v>
+        <v>-105937</v>
       </c>
       <c r="M133" s="30">
         <f t="shared" si="63"/>
-        <v>-2736</v>
+        <v>-2215</v>
       </c>
       <c r="N133" s="30">
         <f t="shared" si="64"/>
-        <v>9156</v>
+        <v>8635</v>
       </c>
       <c r="O133" s="52">
         <f t="shared" si="65"/>
-        <v>-80123</v>
+        <v>-55187</v>
       </c>
       <c r="P133" s="30">
         <f t="shared" si="66"/>
-        <v>-1675</v>
+        <v>-1154</v>
       </c>
       <c r="Q133" s="30">
         <f t="shared" si="67"/>
-        <v>8095</v>
+        <v>7574</v>
       </c>
       <c r="R133" s="33">
         <v>48888</v>
@@ -12840,47 +12837,47 @@
       </c>
       <c r="G134" s="41">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H134" s="41">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I134" s="41">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J134" s="43">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K134" s="41">
         <f>SUM($J$10:J134)</f>
-        <v>410930</v>
+        <v>385794</v>
       </c>
       <c r="L134" s="44">
         <f t="shared" si="62"/>
-        <v>-133993</v>
+        <v>-108857</v>
       </c>
       <c r="M134" s="41">
         <f t="shared" si="63"/>
-        <v>-2801</v>
+        <v>-2276</v>
       </c>
       <c r="N134" s="41">
         <f t="shared" si="64"/>
-        <v>9221</v>
+        <v>8696</v>
       </c>
       <c r="O134" s="44">
         <f t="shared" si="65"/>
-        <v>-83243</v>
+        <v>-58107</v>
       </c>
       <c r="P134" s="41">
         <f t="shared" si="66"/>
-        <v>-1740</v>
+        <v>-1215</v>
       </c>
       <c r="Q134" s="41">
         <f t="shared" si="67"/>
-        <v>8160</v>
+        <v>7635</v>
       </c>
       <c r="R134" s="42">
         <v>48918</v>
@@ -12914,47 +12911,47 @@
       </c>
       <c r="G135" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H135" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I135" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J135" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K135" s="11">
         <f>SUM($J$10:J135)</f>
-        <v>414050</v>
+        <v>388714</v>
       </c>
       <c r="L135" s="52">
         <f t="shared" si="62"/>
-        <v>-137113</v>
+        <v>-111777</v>
       </c>
       <c r="M135" s="30">
         <f t="shared" si="63"/>
-        <v>-2866</v>
+        <v>-2337</v>
       </c>
       <c r="N135" s="30">
         <f t="shared" si="64"/>
-        <v>9286</v>
+        <v>8757</v>
       </c>
       <c r="O135" s="52">
         <f t="shared" si="65"/>
-        <v>-86363</v>
+        <v>-61027</v>
       </c>
       <c r="P135" s="30">
         <f t="shared" si="66"/>
-        <v>-1805</v>
+        <v>-1276</v>
       </c>
       <c r="Q135" s="30">
         <f t="shared" si="67"/>
-        <v>8225</v>
+        <v>7696</v>
       </c>
       <c r="R135" s="33">
         <v>48949</v>
@@ -12988,47 +12985,47 @@
       </c>
       <c r="G136" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H136" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I136" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J136" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K136" s="11">
         <f>SUM($J$10:J136)</f>
-        <v>417170</v>
+        <v>391634</v>
       </c>
       <c r="L136" s="52">
         <f t="shared" si="62"/>
-        <v>-140233</v>
+        <v>-114697</v>
       </c>
       <c r="M136" s="30">
         <f t="shared" si="63"/>
-        <v>-2931</v>
+        <v>-2398</v>
       </c>
       <c r="N136" s="30">
         <f t="shared" si="64"/>
-        <v>9351</v>
+        <v>8818</v>
       </c>
       <c r="O136" s="52">
         <f t="shared" si="65"/>
-        <v>-89483</v>
+        <v>-63947</v>
       </c>
       <c r="P136" s="30">
         <f t="shared" si="66"/>
-        <v>-1871</v>
+        <v>-1337</v>
       </c>
       <c r="Q136" s="30">
         <f t="shared" si="67"/>
-        <v>8291</v>
+        <v>7757</v>
       </c>
       <c r="R136" s="33">
         <v>48980</v>
@@ -13062,47 +13059,47 @@
       </c>
       <c r="G137" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H137" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I137" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J137" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K137" s="11">
         <f>SUM($J$10:J137)</f>
-        <v>420290</v>
+        <v>394554</v>
       </c>
       <c r="L137" s="52">
         <f t="shared" si="62"/>
-        <v>-143353</v>
+        <v>-117617</v>
       </c>
       <c r="M137" s="30">
         <f t="shared" si="63"/>
-        <v>-2997</v>
+        <v>-2459</v>
       </c>
       <c r="N137" s="30">
         <f t="shared" si="64"/>
-        <v>9417</v>
+        <v>8879</v>
       </c>
       <c r="O137" s="52">
         <f t="shared" si="65"/>
-        <v>-92603</v>
+        <v>-66867</v>
       </c>
       <c r="P137" s="30">
         <f t="shared" si="66"/>
-        <v>-1936</v>
+        <v>-1398</v>
       </c>
       <c r="Q137" s="30">
         <f t="shared" si="67"/>
-        <v>8356</v>
+        <v>7818</v>
       </c>
       <c r="R137" s="33">
         <v>49008</v>
@@ -13136,47 +13133,47 @@
       </c>
       <c r="G138" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H138" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I138" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J138" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K138" s="11">
         <f>SUM($J$10:J138)</f>
-        <v>423410</v>
+        <v>397474</v>
       </c>
       <c r="L138" s="52">
         <f t="shared" si="62"/>
-        <v>-146473</v>
+        <v>-120537</v>
       </c>
       <c r="M138" s="30">
         <f t="shared" si="63"/>
-        <v>-3062</v>
+        <v>-2520</v>
       </c>
       <c r="N138" s="30">
         <f t="shared" si="64"/>
-        <v>9482</v>
+        <v>8940</v>
       </c>
       <c r="O138" s="52">
         <f t="shared" si="65"/>
-        <v>-95723</v>
+        <v>-69787</v>
       </c>
       <c r="P138" s="30">
         <f t="shared" si="66"/>
-        <v>-2001</v>
+        <v>-1459</v>
       </c>
       <c r="Q138" s="30">
         <f t="shared" si="67"/>
-        <v>8421</v>
+        <v>7879</v>
       </c>
       <c r="R138" s="33">
         <v>49039</v>
@@ -13210,47 +13207,47 @@
       </c>
       <c r="G139" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H139" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I139" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J139" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K139" s="11">
         <f>SUM($J$10:J139)</f>
-        <v>426530</v>
+        <v>400394</v>
       </c>
       <c r="L139" s="52">
         <f t="shared" si="62"/>
-        <v>-149593</v>
+        <v>-123457</v>
       </c>
       <c r="M139" s="30">
         <f t="shared" si="63"/>
-        <v>-3127</v>
+        <v>-2581</v>
       </c>
       <c r="N139" s="30">
         <f t="shared" si="64"/>
-        <v>9547</v>
+        <v>9001</v>
       </c>
       <c r="O139" s="52">
         <f t="shared" si="65"/>
-        <v>-98843</v>
+        <v>-72707</v>
       </c>
       <c r="P139" s="30">
         <f t="shared" si="66"/>
-        <v>-2066</v>
+        <v>-1520</v>
       </c>
       <c r="Q139" s="30">
         <f t="shared" si="67"/>
-        <v>8486</v>
+        <v>7940</v>
       </c>
       <c r="R139" s="33">
         <v>49069</v>
@@ -13284,47 +13281,47 @@
       </c>
       <c r="G140" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H140" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I140" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J140" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K140" s="11">
         <f>SUM($J$10:J140)</f>
-        <v>429650</v>
+        <v>403314</v>
       </c>
       <c r="L140" s="52">
         <f t="shared" si="62"/>
-        <v>-152713</v>
+        <v>-126377</v>
       </c>
       <c r="M140" s="30">
         <f t="shared" si="63"/>
-        <v>-3192</v>
+        <v>-2642</v>
       </c>
       <c r="N140" s="30">
         <f t="shared" si="64"/>
-        <v>9612</v>
+        <v>9062</v>
       </c>
       <c r="O140" s="52">
         <f t="shared" si="65"/>
-        <v>-101963</v>
+        <v>-75627</v>
       </c>
       <c r="P140" s="30">
         <f t="shared" si="66"/>
-        <v>-2131</v>
+        <v>-1581</v>
       </c>
       <c r="Q140" s="30">
         <f t="shared" si="67"/>
-        <v>8551</v>
+        <v>8001</v>
       </c>
       <c r="R140" s="33">
         <v>49100</v>
@@ -13358,47 +13355,47 @@
       </c>
       <c r="G141" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H141" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I141" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J141" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K141" s="11">
         <f>SUM($J$10:J141)</f>
-        <v>432770</v>
+        <v>406234</v>
       </c>
       <c r="L141" s="52">
         <f t="shared" si="62"/>
-        <v>-155833</v>
+        <v>-129297</v>
       </c>
       <c r="M141" s="30">
         <f t="shared" si="63"/>
-        <v>-3258</v>
+        <v>-2703</v>
       </c>
       <c r="N141" s="30">
         <f t="shared" si="64"/>
-        <v>9678</v>
+        <v>9123</v>
       </c>
       <c r="O141" s="52">
         <f t="shared" si="65"/>
-        <v>-105083</v>
+        <v>-78547</v>
       </c>
       <c r="P141" s="30">
         <f t="shared" si="66"/>
-        <v>-2197</v>
+        <v>-1642</v>
       </c>
       <c r="Q141" s="30">
         <f t="shared" si="67"/>
-        <v>8617</v>
+        <v>8062</v>
       </c>
       <c r="R141" s="33">
         <v>49130</v>
@@ -13432,47 +13429,47 @@
       </c>
       <c r="G142" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H142" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I142" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J142" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K142" s="11">
         <f>SUM($J$10:J142)</f>
-        <v>435890</v>
+        <v>409154</v>
       </c>
       <c r="L142" s="52">
         <f t="shared" si="62"/>
-        <v>-158953</v>
+        <v>-132217</v>
       </c>
       <c r="M142" s="30">
         <f t="shared" si="63"/>
-        <v>-3323</v>
+        <v>-2764</v>
       </c>
       <c r="N142" s="30">
         <f t="shared" si="64"/>
-        <v>9743</v>
+        <v>9184</v>
       </c>
       <c r="O142" s="52">
         <f t="shared" si="65"/>
-        <v>-108203</v>
+        <v>-81467</v>
       </c>
       <c r="P142" s="30">
         <f t="shared" si="66"/>
-        <v>-2262</v>
+        <v>-1703</v>
       </c>
       <c r="Q142" s="30">
         <f t="shared" si="67"/>
-        <v>8682</v>
+        <v>8123</v>
       </c>
       <c r="R142" s="33">
         <v>49161</v>
@@ -13506,47 +13503,47 @@
       </c>
       <c r="G143" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H143" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I143" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J143" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K143" s="11">
         <f>SUM($J$10:J143)</f>
-        <v>439010</v>
+        <v>412074</v>
       </c>
       <c r="L143" s="52">
         <f t="shared" si="62"/>
-        <v>-162073</v>
+        <v>-135137</v>
       </c>
       <c r="M143" s="30">
         <f t="shared" si="63"/>
-        <v>-3388</v>
+        <v>-2825</v>
       </c>
       <c r="N143" s="30">
         <f t="shared" si="64"/>
-        <v>9808</v>
+        <v>9245</v>
       </c>
       <c r="O143" s="52">
         <f t="shared" si="65"/>
-        <v>-111323</v>
+        <v>-84387</v>
       </c>
       <c r="P143" s="30">
         <f t="shared" si="66"/>
-        <v>-2327</v>
+        <v>-1764</v>
       </c>
       <c r="Q143" s="30">
         <f t="shared" si="67"/>
-        <v>8747</v>
+        <v>8184</v>
       </c>
       <c r="R143" s="33">
         <v>49192</v>
@@ -13580,47 +13577,47 @@
       </c>
       <c r="G144" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H144" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I144" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J144" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K144" s="11">
         <f>SUM($J$10:J144)</f>
-        <v>442130</v>
+        <v>414994</v>
       </c>
       <c r="L144" s="52">
         <f t="shared" si="62"/>
-        <v>-165193</v>
+        <v>-138057</v>
       </c>
       <c r="M144" s="30">
         <f t="shared" si="63"/>
-        <v>-3453</v>
+        <v>-2886</v>
       </c>
       <c r="N144" s="30">
         <f t="shared" si="64"/>
-        <v>9873</v>
+        <v>9306</v>
       </c>
       <c r="O144" s="52">
         <f t="shared" si="65"/>
-        <v>-114443</v>
+        <v>-87307</v>
       </c>
       <c r="P144" s="30">
         <f t="shared" si="66"/>
-        <v>-2392</v>
+        <v>-1825</v>
       </c>
       <c r="Q144" s="30">
         <f t="shared" si="67"/>
-        <v>8812</v>
+        <v>8245</v>
       </c>
       <c r="R144" s="33">
         <v>49222</v>
@@ -13654,47 +13651,47 @@
       </c>
       <c r="G145" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H145" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I145" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J145" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K145" s="11">
         <f>SUM($J$10:J145)</f>
-        <v>445250</v>
+        <v>417914</v>
       </c>
       <c r="L145" s="52">
         <f t="shared" si="62"/>
-        <v>-168313</v>
+        <v>-140977</v>
       </c>
       <c r="M145" s="30">
         <f t="shared" si="63"/>
-        <v>-3518</v>
+        <v>-2947</v>
       </c>
       <c r="N145" s="30">
         <f t="shared" si="64"/>
-        <v>9938</v>
+        <v>9367</v>
       </c>
       <c r="O145" s="52">
         <f t="shared" si="65"/>
-        <v>-117563</v>
+        <v>-90227</v>
       </c>
       <c r="P145" s="30">
         <f t="shared" si="66"/>
-        <v>-2458</v>
+        <v>-1886</v>
       </c>
       <c r="Q145" s="30">
         <f t="shared" si="67"/>
-        <v>8878</v>
+        <v>8306</v>
       </c>
       <c r="R145" s="33">
         <v>49253</v>
@@ -13728,47 +13725,47 @@
       </c>
       <c r="G146" s="41">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H146" s="41">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I146" s="41">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J146" s="43">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K146" s="41">
         <f>SUM($J$10:J146)</f>
-        <v>448370</v>
+        <v>420834</v>
       </c>
       <c r="L146" s="44">
         <f t="shared" si="62"/>
-        <v>-171433</v>
+        <v>-143897</v>
       </c>
       <c r="M146" s="41">
         <f t="shared" si="63"/>
-        <v>-3584</v>
+        <v>-3008</v>
       </c>
       <c r="N146" s="41">
         <f t="shared" si="64"/>
-        <v>10004</v>
+        <v>9428</v>
       </c>
       <c r="O146" s="44">
         <f t="shared" si="65"/>
-        <v>-120683</v>
+        <v>-93147</v>
       </c>
       <c r="P146" s="41">
         <f t="shared" si="66"/>
-        <v>-2523</v>
+        <v>-1947</v>
       </c>
       <c r="Q146" s="41">
         <f t="shared" si="67"/>
-        <v>8943</v>
+        <v>8367</v>
       </c>
       <c r="R146" s="42">
         <v>49283</v>
@@ -13802,47 +13799,47 @@
       </c>
       <c r="G147" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H147" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I147" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J147" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K147" s="11">
         <f>SUM($J$10:J147)</f>
-        <v>451490</v>
+        <v>423754</v>
       </c>
       <c r="L147" s="52">
         <f t="shared" si="62"/>
-        <v>-174553</v>
+        <v>-146817</v>
       </c>
       <c r="M147" s="30">
         <f t="shared" si="63"/>
-        <v>-3649</v>
+        <v>-3069</v>
       </c>
       <c r="N147" s="30">
         <f t="shared" si="64"/>
-        <v>10069</v>
+        <v>9489</v>
       </c>
       <c r="O147" s="52">
         <f t="shared" si="65"/>
-        <v>-123803</v>
+        <v>-96067</v>
       </c>
       <c r="P147" s="30">
         <f t="shared" si="66"/>
-        <v>-2588</v>
+        <v>-2008</v>
       </c>
       <c r="Q147" s="30">
         <f t="shared" si="67"/>
-        <v>9008</v>
+        <v>8428</v>
       </c>
       <c r="R147" s="33">
         <v>49314</v>
@@ -13876,47 +13873,47 @@
       </c>
       <c r="G148" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H148" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I148" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J148" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K148" s="11">
         <f>SUM($J$10:J148)</f>
-        <v>454610</v>
+        <v>426674</v>
       </c>
       <c r="L148" s="52">
         <f t="shared" si="62"/>
-        <v>-177673</v>
+        <v>-149737</v>
       </c>
       <c r="M148" s="30">
         <f t="shared" si="63"/>
-        <v>-3714</v>
+        <v>-3130</v>
       </c>
       <c r="N148" s="30">
         <f t="shared" si="64"/>
-        <v>10134</v>
+        <v>9550</v>
       </c>
       <c r="O148" s="52">
         <f t="shared" si="65"/>
-        <v>-126923</v>
+        <v>-98987</v>
       </c>
       <c r="P148" s="30">
         <f t="shared" si="66"/>
-        <v>-2653</v>
+        <v>-2069</v>
       </c>
       <c r="Q148" s="30">
         <f t="shared" si="67"/>
-        <v>9073</v>
+        <v>8489</v>
       </c>
       <c r="R148" s="33">
         <v>49345</v>
@@ -13950,47 +13947,47 @@
       </c>
       <c r="G149" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H149" s="30">
         <f t="shared" si="53"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I149" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J149" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K149" s="11">
         <f>SUM($J$10:J149)</f>
-        <v>457730</v>
+        <v>429594</v>
       </c>
       <c r="L149" s="52">
         <f t="shared" si="62"/>
-        <v>-180793</v>
+        <v>-152657</v>
       </c>
       <c r="M149" s="30">
         <f t="shared" si="63"/>
-        <v>-3779</v>
+        <v>-3191</v>
       </c>
       <c r="N149" s="30">
         <f t="shared" si="64"/>
-        <v>10199</v>
+        <v>9611</v>
       </c>
       <c r="O149" s="52">
         <f t="shared" si="65"/>
-        <v>-130043</v>
+        <v>-101907</v>
       </c>
       <c r="P149" s="30">
         <f t="shared" si="66"/>
-        <v>-2718</v>
+        <v>-2130</v>
       </c>
       <c r="Q149" s="30">
         <f t="shared" si="67"/>
-        <v>9138</v>
+        <v>8550</v>
       </c>
       <c r="R149" s="33">
         <v>49373</v>
@@ -14024,47 +14021,47 @@
       </c>
       <c r="G150" s="30">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H150" s="30">
         <f t="shared" ref="H150:H156" si="72">$P$2</f>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I150" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J150" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K150" s="11">
         <f>SUM($J$10:J150)</f>
-        <v>460850</v>
+        <v>432514</v>
       </c>
       <c r="L150" s="52">
         <f t="shared" si="62"/>
-        <v>-183913</v>
+        <v>-155577</v>
       </c>
       <c r="M150" s="30">
         <f t="shared" si="63"/>
-        <v>-3845</v>
+        <v>-3252</v>
       </c>
       <c r="N150" s="30">
         <f t="shared" si="64"/>
-        <v>10265</v>
+        <v>9672</v>
       </c>
       <c r="O150" s="52">
         <f t="shared" si="65"/>
-        <v>-133163</v>
+        <v>-104827</v>
       </c>
       <c r="P150" s="30">
         <f t="shared" si="66"/>
-        <v>-2784</v>
+        <v>-2191</v>
       </c>
       <c r="Q150" s="30">
         <f t="shared" si="67"/>
-        <v>9204</v>
+        <v>8611</v>
       </c>
       <c r="R150" s="33">
         <v>49404</v>
@@ -14098,47 +14095,47 @@
       </c>
       <c r="G151" s="30">
         <f t="shared" ref="G151:G156" si="73">$P$1</f>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H151" s="30">
         <f t="shared" si="72"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I151" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J151" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K151" s="11">
         <f>SUM($J$10:J151)</f>
-        <v>463970</v>
+        <v>435434</v>
       </c>
       <c r="L151" s="52">
         <f t="shared" si="62"/>
-        <v>-187033</v>
+        <v>-158497</v>
       </c>
       <c r="M151" s="30">
         <f t="shared" si="63"/>
-        <v>-3910</v>
+        <v>-3313</v>
       </c>
       <c r="N151" s="30">
         <f t="shared" si="64"/>
-        <v>10330</v>
+        <v>9733</v>
       </c>
       <c r="O151" s="52">
         <f t="shared" si="65"/>
-        <v>-136283</v>
+        <v>-107747</v>
       </c>
       <c r="P151" s="30">
         <f t="shared" si="66"/>
-        <v>-2849</v>
+        <v>-2252</v>
       </c>
       <c r="Q151" s="30">
         <f t="shared" si="67"/>
-        <v>9269</v>
+        <v>8672</v>
       </c>
       <c r="R151" s="33">
         <v>49434</v>
@@ -14172,47 +14169,47 @@
       </c>
       <c r="G152" s="30">
         <f t="shared" si="73"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H152" s="30">
         <f t="shared" si="72"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I152" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J152" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K152" s="11">
         <f>SUM($J$10:J152)</f>
-        <v>467090</v>
+        <v>438354</v>
       </c>
       <c r="L152" s="52">
         <f t="shared" si="62"/>
-        <v>-190153</v>
+        <v>-161417</v>
       </c>
       <c r="M152" s="30">
         <f t="shared" si="63"/>
-        <v>-3975</v>
+        <v>-3374</v>
       </c>
       <c r="N152" s="30">
         <f t="shared" si="64"/>
-        <v>10395</v>
+        <v>9794</v>
       </c>
       <c r="O152" s="52">
         <f t="shared" si="65"/>
-        <v>-139403</v>
+        <v>-110667</v>
       </c>
       <c r="P152" s="30">
         <f t="shared" si="66"/>
-        <v>-2914</v>
+        <v>-2313</v>
       </c>
       <c r="Q152" s="30">
         <f t="shared" si="67"/>
-        <v>9334</v>
+        <v>8733</v>
       </c>
       <c r="R152" s="33">
         <v>49465</v>
@@ -14246,47 +14243,47 @@
       </c>
       <c r="G153" s="30">
         <f t="shared" si="73"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H153" s="30">
         <f t="shared" si="72"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I153" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J153" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K153" s="11">
         <f>SUM($J$10:J153)</f>
-        <v>470210</v>
+        <v>441274</v>
       </c>
       <c r="L153" s="52">
         <f t="shared" si="62"/>
-        <v>-193273</v>
+        <v>-164337</v>
       </c>
       <c r="M153" s="30">
         <f t="shared" si="63"/>
-        <v>-4040</v>
+        <v>-3435</v>
       </c>
       <c r="N153" s="30">
         <f t="shared" si="64"/>
-        <v>10460</v>
+        <v>9855</v>
       </c>
       <c r="O153" s="52">
         <f t="shared" si="65"/>
-        <v>-142523</v>
+        <v>-113587</v>
       </c>
       <c r="P153" s="30">
         <f t="shared" si="66"/>
-        <v>-2979</v>
+        <v>-2374</v>
       </c>
       <c r="Q153" s="30">
         <f t="shared" si="67"/>
-        <v>9399</v>
+        <v>8794</v>
       </c>
       <c r="R153" s="33">
         <v>49495</v>
@@ -14320,47 +14317,47 @@
       </c>
       <c r="G154" s="30">
         <f t="shared" si="73"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H154" s="30">
         <f t="shared" si="72"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I154" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J154" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K154" s="11">
         <f>SUM($J$10:J154)</f>
-        <v>473330</v>
+        <v>444194</v>
       </c>
       <c r="L154" s="52">
         <f t="shared" si="62"/>
-        <v>-196393</v>
+        <v>-167257</v>
       </c>
       <c r="M154" s="30">
         <f t="shared" si="63"/>
-        <v>-4105</v>
+        <v>-3496</v>
       </c>
       <c r="N154" s="30">
         <f t="shared" si="64"/>
-        <v>10525</v>
+        <v>9916</v>
       </c>
       <c r="O154" s="52">
         <f t="shared" si="65"/>
-        <v>-145643</v>
+        <v>-116507</v>
       </c>
       <c r="P154" s="30">
         <f t="shared" si="66"/>
-        <v>-3045</v>
+        <v>-2435</v>
       </c>
       <c r="Q154" s="30">
         <f t="shared" si="67"/>
-        <v>9465</v>
+        <v>8855</v>
       </c>
       <c r="R154" s="33">
         <v>49526</v>
@@ -14394,47 +14391,47 @@
       </c>
       <c r="G155" s="30">
         <f t="shared" si="73"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H155" s="30">
         <f t="shared" si="72"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I155" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J155" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K155" s="11">
         <f>SUM($J$10:J155)</f>
-        <v>476450</v>
+        <v>447114</v>
       </c>
       <c r="L155" s="52">
         <f t="shared" si="62"/>
-        <v>-199513</v>
+        <v>-170177</v>
       </c>
       <c r="M155" s="30">
         <f t="shared" si="63"/>
-        <v>-4171</v>
+        <v>-3557</v>
       </c>
       <c r="N155" s="30">
         <f t="shared" si="64"/>
-        <v>10591</v>
+        <v>9977</v>
       </c>
       <c r="O155" s="52">
         <f t="shared" si="65"/>
-        <v>-148763</v>
+        <v>-119427</v>
       </c>
       <c r="P155" s="30">
         <f t="shared" si="66"/>
-        <v>-3110</v>
+        <v>-2497</v>
       </c>
       <c r="Q155" s="30">
         <f t="shared" si="67"/>
-        <v>9530</v>
+        <v>8917</v>
       </c>
       <c r="R155" s="33">
         <v>49557</v>
@@ -14468,47 +14465,47 @@
       </c>
       <c r="G156" s="30">
         <f t="shared" si="73"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H156" s="30">
         <f t="shared" si="72"/>
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I156" s="32">
         <f t="shared" si="70"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J156" s="50">
         <f t="shared" si="61"/>
-        <v>3120</v>
+        <v>2920</v>
       </c>
       <c r="K156" s="11">
         <f>SUM($J$10:J156)</f>
-        <v>479570</v>
+        <v>450034</v>
       </c>
       <c r="L156" s="52">
         <f t="shared" si="62"/>
-        <v>-202633</v>
+        <v>-173097</v>
       </c>
       <c r="M156" s="30">
         <f t="shared" si="63"/>
-        <v>-4236</v>
+        <v>-3618</v>
       </c>
       <c r="N156" s="30">
         <f t="shared" si="64"/>
-        <v>10656</v>
+        <v>10038</v>
       </c>
       <c r="O156" s="52">
         <f t="shared" si="65"/>
-        <v>-151883</v>
+        <v>-122347</v>
       </c>
       <c r="P156" s="30">
         <f t="shared" si="66"/>
-        <v>-3175</v>
+        <v>-2558</v>
       </c>
       <c r="Q156" s="30">
         <f t="shared" si="67"/>
-        <v>9595</v>
+        <v>8978</v>
       </c>
       <c r="R156" s="33">
         <v>49587</v>
@@ -14548,27 +14545,27 @@
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="L8:L9"/>
   </mergeCells>
+  <conditionalFormatting sqref="A7:I9 L7:S9 A10:S156">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10:K1048576">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+      <formula>$P$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>$H$5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M7:M1048576">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThan">
       <formula>$R$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7:P1048576">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="lessThan">
       <formula>$R$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10:K1048576">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
-      <formula>$H$5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
-      <formula>$P$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:S156 A7:I9 L7:S9">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TheAncientOwl\Documents\Finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C122880-306B-4088-AC45-0CDA5642D676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67492540-7E31-4F41-9AF8-5A524ED86B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="180" windowWidth="23256" windowHeight="12888" xr2:uid="{F762C5AB-E878-4D42-A6F3-9B1185CC87EF}"/>
   </bookViews>
@@ -744,6 +744,66 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -774,55 +834,22 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -843,41 +870,14 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -885,123 +885,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1328,7 +1211,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P11:P12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1367,17 +1250,17 @@
       <c r="H1" s="36">
         <v>200</v>
       </c>
-      <c r="J1" s="84" t="s">
+      <c r="J1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="85">
+      <c r="K1" s="45">
         <v>5</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="M1" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
@@ -1399,10 +1282,10 @@
       <c r="H2" s="36">
         <v>0</v>
       </c>
-      <c r="J2" s="84" t="s">
+      <c r="J2" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="K2" s="86">
+      <c r="K2" s="46">
         <v>85000</v>
       </c>
       <c r="M2" s="31" t="s">
@@ -1480,17 +1363,17 @@
         <v>185000</v>
       </c>
       <c r="E6"/>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46" t="s">
+      <c r="H6" s="65"/>
+      <c r="I6" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="48" t="s">
+      <c r="J6" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="K6" s="50" t="s">
+      <c r="K6" s="70" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1502,9 +1385,9 @@
       <c r="H7" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="51"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="71"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
@@ -1561,11 +1444,11 @@
       </c>
       <c r="H11" s="61"/>
       <c r="I11" s="61"/>
-      <c r="J11" s="69" t="s">
+      <c r="J11" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
       <c r="M11" s="28" t="s">
         <v>101</v>
       </c>
@@ -1586,25 +1469,25 @@
       <c r="F12" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="64" t="s">
+      <c r="G12" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="H12" s="64" t="s">
+      <c r="H12" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="67" t="s">
+      <c r="I12" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="68" t="s">
+      <c r="J12" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="K12" s="68" t="s">
+      <c r="K12" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="L12" s="70" t="s">
+      <c r="L12" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="M12" s="65" t="s">
+      <c r="M12" s="49" t="s">
         <v>92</v>
       </c>
       <c r="N12" s="33"/>
@@ -1616,13 +1499,13 @@
       <c r="D13" s="62"/>
       <c r="E13" s="62"/>
       <c r="F13" s="63"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="66"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="50"/>
       <c r="N13" s="33"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -1637,31 +1520,31 @@
         <v>5400</v>
       </c>
       <c r="D14" s="7">
-        <f>$E$3</f>
+        <f t="shared" ref="D14:D49" si="0">$E$3</f>
         <v>630</v>
       </c>
       <c r="E14" s="7">
-        <f>$E$4</f>
+        <f t="shared" ref="E14:E21" si="1">$E$4</f>
         <v>1000</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" ref="F14:F25" si="0">SUM(C14:E14)</f>
+        <f t="shared" ref="F14:F25" si="2">SUM(C14:E14)</f>
         <v>7030</v>
       </c>
       <c r="G14" s="7">
-        <f>$H$1</f>
+        <f t="shared" ref="G14:G20" si="3">$H$1</f>
         <v>200</v>
       </c>
       <c r="H14" s="7">
-        <f>$H$3</f>
+        <f t="shared" ref="H14:H49" si="4">$H$3</f>
         <v>1000</v>
       </c>
       <c r="I14" s="9">
-        <f t="shared" ref="I14:I25" si="1">SUM(G14:H14)</f>
+        <f t="shared" ref="I14:I25" si="5">SUM(G14:H14)</f>
         <v>1200</v>
       </c>
       <c r="J14" s="7">
-        <f t="shared" ref="J14:J25" si="2">F14-I14</f>
+        <f t="shared" ref="J14:J25" si="6">F14-I14</f>
         <v>5830</v>
       </c>
       <c r="K14" s="20">
@@ -1673,7 +1556,7 @@
         <v>11620</v>
       </c>
       <c r="M14" s="7">
-        <f>$B$6-L14</f>
+        <f t="shared" ref="M14:M49" si="7">$B$6-L14</f>
         <v>173380</v>
       </c>
       <c r="N14" s="26"/>
@@ -1686,35 +1569,35 @@
         <v>45327</v>
       </c>
       <c r="C15" s="14">
-        <f t="shared" ref="C15:C19" si="3">$E$1</f>
+        <f t="shared" ref="C15:C19" si="8">$E$1</f>
         <v>5400</v>
       </c>
       <c r="D15" s="7">
-        <f>$E$3</f>
+        <f t="shared" si="0"/>
         <v>630</v>
       </c>
       <c r="E15" s="7">
-        <f>$E$4</f>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7030</v>
       </c>
       <c r="G15" s="7">
-        <f>$H$1</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="H15" s="7">
-        <f>$H$3</f>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I15" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1200</v>
       </c>
       <c r="J15" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5830</v>
       </c>
       <c r="K15" s="20">
@@ -1722,11 +1605,11 @@
         <v>11660</v>
       </c>
       <c r="L15" s="5">
-        <f t="shared" ref="L15:L49" si="4">K15+$B$9</f>
+        <f t="shared" ref="L15:L49" si="9">K15+$B$9</f>
         <v>17450</v>
       </c>
       <c r="M15" s="7">
-        <f>$B$6-L15</f>
+        <f t="shared" si="7"/>
         <v>167550</v>
       </c>
       <c r="N15" s="26"/>
@@ -1739,35 +1622,35 @@
         <v>45356</v>
       </c>
       <c r="C16" s="14">
+        <f t="shared" si="8"/>
+        <v>5400</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="E16" s="7">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="2"/>
+        <v>7030</v>
+      </c>
+      <c r="G16" s="7">
         <f t="shared" si="3"/>
-        <v>5400</v>
-      </c>
-      <c r="D16" s="7">
-        <f>$E$3</f>
-        <v>630</v>
-      </c>
-      <c r="E16" s="7">
-        <f>$E$4</f>
-        <v>1000</v>
-      </c>
-      <c r="F16" s="4">
-        <f t="shared" si="0"/>
-        <v>7030</v>
-      </c>
-      <c r="G16" s="7">
-        <f>$H$1</f>
         <v>200</v>
       </c>
       <c r="H16" s="7">
-        <f>$H$3</f>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I16" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1200</v>
       </c>
       <c r="J16" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5830</v>
       </c>
       <c r="K16" s="20">
@@ -1775,11 +1658,11 @@
         <v>17490</v>
       </c>
       <c r="L16" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>23280</v>
       </c>
       <c r="M16" s="7">
-        <f>$B$6-L16</f>
+        <f t="shared" si="7"/>
         <v>161720</v>
       </c>
       <c r="N16" s="26"/>
@@ -1792,35 +1675,35 @@
         <v>45387</v>
       </c>
       <c r="C17" s="14">
+        <f t="shared" si="8"/>
+        <v>5400</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="2"/>
+        <v>7030</v>
+      </c>
+      <c r="G17" s="7">
         <f t="shared" si="3"/>
-        <v>5400</v>
-      </c>
-      <c r="D17" s="7">
-        <f>$E$3</f>
-        <v>630</v>
-      </c>
-      <c r="E17" s="7">
-        <f>$E$4</f>
-        <v>1000</v>
-      </c>
-      <c r="F17" s="4">
-        <f t="shared" si="0"/>
-        <v>7030</v>
-      </c>
-      <c r="G17" s="7">
-        <f>$H$1</f>
         <v>200</v>
       </c>
       <c r="H17" s="7">
-        <f>$H$3</f>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I17" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1200</v>
       </c>
       <c r="J17" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5830</v>
       </c>
       <c r="K17" s="20">
@@ -1828,11 +1711,11 @@
         <v>23320</v>
       </c>
       <c r="L17" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>29110</v>
       </c>
       <c r="M17" s="7">
-        <f>$B$6-L17</f>
+        <f t="shared" si="7"/>
         <v>155890</v>
       </c>
       <c r="N17" s="26"/>
@@ -1845,35 +1728,35 @@
         <v>45417</v>
       </c>
       <c r="C18" s="14">
+        <f t="shared" si="8"/>
+        <v>5400</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="2"/>
+        <v>7030</v>
+      </c>
+      <c r="G18" s="7">
         <f t="shared" si="3"/>
-        <v>5400</v>
-      </c>
-      <c r="D18" s="7">
-        <f>$E$3</f>
-        <v>630</v>
-      </c>
-      <c r="E18" s="7">
-        <f>$E$4</f>
-        <v>1000</v>
-      </c>
-      <c r="F18" s="4">
-        <f t="shared" si="0"/>
-        <v>7030</v>
-      </c>
-      <c r="G18" s="7">
-        <f>$H$1</f>
         <v>200</v>
       </c>
       <c r="H18" s="7">
-        <f>$H$3</f>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I18" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1200</v>
       </c>
       <c r="J18" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5830</v>
       </c>
       <c r="K18" s="20">
@@ -1881,11 +1764,11 @@
         <v>29150</v>
       </c>
       <c r="L18" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>34940</v>
       </c>
       <c r="M18" s="7">
-        <f>$B$6-L18</f>
+        <f t="shared" si="7"/>
         <v>150060</v>
       </c>
       <c r="N18" s="26"/>
@@ -1898,35 +1781,35 @@
         <v>45448</v>
       </c>
       <c r="C19" s="14">
+        <f t="shared" si="8"/>
+        <v>5400</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="2"/>
+        <v>7030</v>
+      </c>
+      <c r="G19" s="7">
         <f t="shared" si="3"/>
-        <v>5400</v>
-      </c>
-      <c r="D19" s="7">
-        <f>$E$3</f>
-        <v>630</v>
-      </c>
-      <c r="E19" s="7">
-        <f>$E$4</f>
-        <v>1000</v>
-      </c>
-      <c r="F19" s="4">
-        <f t="shared" si="0"/>
-        <v>7030</v>
-      </c>
-      <c r="G19" s="7">
-        <f>$H$1</f>
         <v>200</v>
       </c>
       <c r="H19" s="7">
-        <f>$H$3</f>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I19" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1200</v>
       </c>
       <c r="J19" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5830</v>
       </c>
       <c r="K19" s="20">
@@ -1934,11 +1817,11 @@
         <v>34980</v>
       </c>
       <c r="L19" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>40770</v>
       </c>
       <c r="M19" s="7">
-        <f>$B$6-L19</f>
+        <f t="shared" si="7"/>
         <v>144230</v>
       </c>
       <c r="N19" s="26"/>
@@ -1955,31 +1838,31 @@
         <v>6000</v>
       </c>
       <c r="D20" s="7">
-        <f>$E$3</f>
+        <f t="shared" si="0"/>
         <v>630</v>
       </c>
       <c r="E20" s="7">
-        <f>$E$4</f>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7630</v>
       </c>
       <c r="G20" s="7">
-        <f>$H$1</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="H20" s="7">
-        <f>$H$3</f>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I20" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1200</v>
       </c>
       <c r="J20" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6430</v>
       </c>
       <c r="K20" s="20">
@@ -1987,11 +1870,11 @@
         <v>41410</v>
       </c>
       <c r="L20" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>47200</v>
       </c>
       <c r="M20" s="7">
-        <f>$B$6-L20</f>
+        <f t="shared" si="7"/>
         <v>137800</v>
       </c>
       <c r="N20" s="26"/>
@@ -2005,35 +1888,35 @@
         <v>45509</v>
       </c>
       <c r="C21" s="14">
-        <f t="shared" ref="C21:C24" si="5">$E$2</f>
+        <f t="shared" ref="C21:C24" si="10">$E$2</f>
         <v>6000</v>
       </c>
       <c r="D21" s="7">
-        <f>$E$3</f>
+        <f t="shared" si="0"/>
         <v>630</v>
       </c>
       <c r="E21" s="7">
-        <f>$E$4</f>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7630</v>
       </c>
       <c r="G21" s="7">
-        <f>$H$2</f>
+        <f t="shared" ref="G21:G49" si="11">$H$2</f>
         <v>0</v>
       </c>
       <c r="H21" s="7">
-        <f>$H$3</f>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I21" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="J21" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6630</v>
       </c>
       <c r="K21" s="20">
@@ -2041,11 +1924,11 @@
         <v>48040</v>
       </c>
       <c r="L21" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>53830</v>
       </c>
       <c r="M21" s="7">
-        <f>$B$6-L21</f>
+        <f t="shared" si="7"/>
         <v>131170</v>
       </c>
       <c r="N21" s="26"/>
@@ -2059,34 +1942,34 @@
         <v>45540</v>
       </c>
       <c r="C22" s="14">
+        <f t="shared" si="10"/>
+        <v>6000</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="2"/>
+        <v>6630</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="I22" s="9">
         <f t="shared" si="5"/>
-        <v>6000</v>
-      </c>
-      <c r="D22" s="7">
-        <f>$E$3</f>
-        <v>630</v>
-      </c>
-      <c r="E22" s="7">
-        <v>0</v>
-      </c>
-      <c r="F22" s="4">
-        <f t="shared" si="0"/>
-        <v>6630</v>
-      </c>
-      <c r="G22" s="7">
-        <f>$H$2</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="7">
-        <f>$H$3</f>
-        <v>1000</v>
-      </c>
-      <c r="I22" s="9">
-        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="J22" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5630</v>
       </c>
       <c r="K22" s="20">
@@ -2094,11 +1977,11 @@
         <v>53670</v>
       </c>
       <c r="L22" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>59460</v>
       </c>
       <c r="M22" s="7">
-        <f>$B$6-L22</f>
+        <f t="shared" si="7"/>
         <v>125540</v>
       </c>
       <c r="N22" s="26"/>
@@ -2111,26 +1994,26 @@
         <v>45570</v>
       </c>
       <c r="C23" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>6000</v>
       </c>
       <c r="D23" s="7">
-        <f>$E$3</f>
+        <f t="shared" si="0"/>
         <v>630</v>
       </c>
       <c r="E23" s="7">
         <v>0</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6630</v>
       </c>
       <c r="G23" s="7">
-        <f>$H$2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H23" s="7">
-        <f>$H$3</f>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I23" s="9">
@@ -2138,7 +2021,7 @@
         <v>1000</v>
       </c>
       <c r="J23" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5630</v>
       </c>
       <c r="K23" s="20">
@@ -2146,11 +2029,11 @@
         <v>59300</v>
       </c>
       <c r="L23" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>65090</v>
       </c>
       <c r="M23" s="7">
-        <f>$B$6-L23</f>
+        <f t="shared" si="7"/>
         <v>119910</v>
       </c>
       <c r="N23" s="26"/>
@@ -2163,34 +2046,34 @@
         <v>45601</v>
       </c>
       <c r="C24" s="14">
+        <f t="shared" si="10"/>
+        <v>6000</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="2"/>
+        <v>6630</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="I24" s="9">
         <f t="shared" si="5"/>
-        <v>6000</v>
-      </c>
-      <c r="D24" s="7">
-        <f>$E$3</f>
-        <v>630</v>
-      </c>
-      <c r="E24" s="7">
-        <v>0</v>
-      </c>
-      <c r="F24" s="4">
-        <f t="shared" si="0"/>
-        <v>6630</v>
-      </c>
-      <c r="G24" s="7">
-        <f>$H$2</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="7">
-        <f>$H$3</f>
-        <v>1000</v>
-      </c>
-      <c r="I24" s="9">
-        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="J24" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5630</v>
       </c>
       <c r="K24" s="20">
@@ -2198,11 +2081,11 @@
         <v>64930</v>
       </c>
       <c r="L24" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>70720</v>
       </c>
       <c r="M24" s="7">
-        <f>$B$6-L24</f>
+        <f t="shared" si="7"/>
         <v>114280</v>
       </c>
       <c r="N24" s="26"/>
@@ -2219,30 +2102,30 @@
         <v>6000</v>
       </c>
       <c r="D25" s="2">
-        <f>$E$3</f>
+        <f t="shared" si="0"/>
         <v>630</v>
       </c>
       <c r="E25" s="12">
         <v>0</v>
       </c>
       <c r="F25" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6630</v>
       </c>
       <c r="G25" s="12">
-        <f>$H$2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H25" s="12">
-        <f>$H$3</f>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I25" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="J25" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5630</v>
       </c>
       <c r="K25" s="2">
@@ -2250,11 +2133,11 @@
         <v>70560</v>
       </c>
       <c r="L25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>76350</v>
       </c>
       <c r="M25" s="2">
-        <f>$B$6-L25</f>
+        <f t="shared" si="7"/>
         <v>108650</v>
       </c>
       <c r="N25" s="26"/>
@@ -2272,30 +2155,30 @@
         <v>6000</v>
       </c>
       <c r="D26" s="7">
-        <f>$E$3</f>
+        <f t="shared" si="0"/>
         <v>630</v>
       </c>
       <c r="E26" s="7">
         <v>0</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" ref="F26:F49" si="6">SUM(C26:E26)</f>
+        <f t="shared" ref="F26:F49" si="12">SUM(C26:E26)</f>
         <v>6630</v>
       </c>
       <c r="G26" s="7">
-        <f>$H$2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H26" s="7">
-        <f>$H$3</f>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I26" s="9">
-        <f t="shared" ref="I26:I49" si="7">SUM(G26:H26)</f>
+        <f t="shared" ref="I26:I49" si="13">SUM(G26:H26)</f>
         <v>1000</v>
       </c>
       <c r="J26" s="7">
-        <f t="shared" ref="J26:J49" si="8">F26-I26</f>
+        <f t="shared" ref="J26:J49" si="14">F26-I26</f>
         <v>5630</v>
       </c>
       <c r="K26" s="20">
@@ -2303,11 +2186,11 @@
         <v>76190</v>
       </c>
       <c r="L26" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>81980</v>
       </c>
       <c r="M26" s="7">
-        <f>$B$6-L26</f>
+        <f t="shared" si="7"/>
         <v>103020</v>
       </c>
       <c r="N26" s="26"/>
@@ -2321,34 +2204,34 @@
         <v>45693</v>
       </c>
       <c r="C27" s="14">
-        <f t="shared" ref="C27:C36" si="9">$E$2</f>
+        <f t="shared" ref="C27:C36" si="15">$E$2</f>
         <v>6000</v>
       </c>
       <c r="D27" s="7">
-        <f>$E$3</f>
+        <f t="shared" si="0"/>
         <v>630</v>
       </c>
       <c r="E27" s="7">
         <v>0</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>6630</v>
       </c>
       <c r="G27" s="7">
-        <f>$H$2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H27" s="7">
-        <f>$H$3</f>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I27" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="J27" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5630</v>
       </c>
       <c r="K27" s="20">
@@ -2356,11 +2239,11 @@
         <v>81820</v>
       </c>
       <c r="L27" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>87610</v>
       </c>
       <c r="M27" s="7">
-        <f>$B$6-L27</f>
+        <f t="shared" si="7"/>
         <v>97390</v>
       </c>
       <c r="N27" s="26"/>
@@ -2374,34 +2257,34 @@
         <v>45721</v>
       </c>
       <c r="C28" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>6000</v>
       </c>
       <c r="D28" s="7">
-        <f>$E$3</f>
+        <f t="shared" si="0"/>
         <v>630</v>
       </c>
       <c r="E28" s="7">
         <v>0</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>6630</v>
       </c>
       <c r="G28" s="7">
-        <f>$H$2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H28" s="7">
-        <f>$H$3</f>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I28" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="J28" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5630</v>
       </c>
       <c r="K28" s="20">
@@ -2409,11 +2292,11 @@
         <v>87450</v>
       </c>
       <c r="L28" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>93240</v>
       </c>
       <c r="M28" s="7">
-        <f>$B$6-L28</f>
+        <f t="shared" si="7"/>
         <v>91760</v>
       </c>
       <c r="N28" s="26"/>
@@ -2427,34 +2310,34 @@
         <v>45752</v>
       </c>
       <c r="C29" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>6000</v>
       </c>
       <c r="D29" s="7">
-        <f>$E$3</f>
+        <f t="shared" si="0"/>
         <v>630</v>
       </c>
       <c r="E29" s="7">
         <v>0</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>6630</v>
       </c>
       <c r="G29" s="7">
-        <f>$H$2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H29" s="7">
-        <f>$H$3</f>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I29" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="J29" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5630</v>
       </c>
       <c r="K29" s="20">
@@ -2462,11 +2345,11 @@
         <v>93080</v>
       </c>
       <c r="L29" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>98870</v>
       </c>
       <c r="M29" s="7">
-        <f>$B$6-L29</f>
+        <f t="shared" si="7"/>
         <v>86130</v>
       </c>
       <c r="N29" s="26"/>
@@ -2480,34 +2363,34 @@
         <v>45782</v>
       </c>
       <c r="C30" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>6000</v>
       </c>
       <c r="D30" s="7">
-        <f>$E$3</f>
+        <f t="shared" si="0"/>
         <v>630</v>
       </c>
       <c r="E30" s="7">
         <v>0</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>6630</v>
       </c>
       <c r="G30" s="7">
-        <f>$H$2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H30" s="7">
-        <f>$H$3</f>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I30" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="J30" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5630</v>
       </c>
       <c r="K30" s="20">
@@ -2515,11 +2398,11 @@
         <v>98710</v>
       </c>
       <c r="L30" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>104500</v>
       </c>
       <c r="M30" s="7">
-        <f>$B$6-L30</f>
+        <f t="shared" si="7"/>
         <v>80500</v>
       </c>
       <c r="N30" s="26"/>
@@ -2533,34 +2416,34 @@
         <v>45813</v>
       </c>
       <c r="C31" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>6000</v>
       </c>
       <c r="D31" s="7">
-        <f>$E$3</f>
+        <f t="shared" si="0"/>
         <v>630</v>
       </c>
       <c r="E31" s="7">
         <v>0</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>6630</v>
       </c>
       <c r="G31" s="7">
-        <f>$H$2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H31" s="7">
-        <f>$H$3</f>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I31" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="J31" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5630</v>
       </c>
       <c r="K31" s="20">
@@ -2568,11 +2451,11 @@
         <v>104340</v>
       </c>
       <c r="L31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>110130</v>
       </c>
       <c r="M31" s="7">
-        <f>$B$6-L31</f>
+        <f t="shared" si="7"/>
         <v>74870</v>
       </c>
       <c r="N31" s="26"/>
@@ -2586,34 +2469,34 @@
         <v>45843</v>
       </c>
       <c r="C32" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>6000</v>
       </c>
       <c r="D32" s="7">
-        <f>$E$3</f>
+        <f t="shared" si="0"/>
         <v>630</v>
       </c>
       <c r="E32" s="7">
         <v>0</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>6630</v>
       </c>
       <c r="G32" s="7">
-        <f>$H$2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H32" s="7">
-        <f>$H$3</f>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I32" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="J32" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5630</v>
       </c>
       <c r="K32" s="20">
@@ -2621,11 +2504,11 @@
         <v>109970</v>
       </c>
       <c r="L32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>115760</v>
       </c>
       <c r="M32" s="7">
-        <f>$B$6-L32</f>
+        <f t="shared" si="7"/>
         <v>69240</v>
       </c>
       <c r="N32" s="26"/>
@@ -2639,34 +2522,34 @@
         <v>45874</v>
       </c>
       <c r="C33" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>6000</v>
       </c>
       <c r="D33" s="7">
-        <f>$E$3</f>
+        <f t="shared" si="0"/>
         <v>630</v>
       </c>
       <c r="E33" s="7">
         <v>0</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>6630</v>
       </c>
       <c r="G33" s="7">
-        <f>$H$2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H33" s="7">
-        <f>$H$3</f>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I33" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="J33" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5630</v>
       </c>
       <c r="K33" s="20">
@@ -2674,11 +2557,11 @@
         <v>115600</v>
       </c>
       <c r="L33" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>121390</v>
       </c>
       <c r="M33" s="7">
-        <f>$B$6-L33</f>
+        <f t="shared" si="7"/>
         <v>63610</v>
       </c>
       <c r="N33" s="26"/>
@@ -2692,34 +2575,34 @@
         <v>45905</v>
       </c>
       <c r="C34" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>6000</v>
       </c>
       <c r="D34" s="7">
-        <f>$E$3</f>
+        <f t="shared" si="0"/>
         <v>630</v>
       </c>
       <c r="E34" s="7">
         <v>0</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>6630</v>
       </c>
       <c r="G34" s="7">
-        <f>$H$2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H34" s="7">
-        <f>$H$3</f>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I34" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="J34" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5630</v>
       </c>
       <c r="K34" s="20">
@@ -2727,11 +2610,11 @@
         <v>121230</v>
       </c>
       <c r="L34" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>127020</v>
       </c>
       <c r="M34" s="7">
-        <f>$B$6-L34</f>
+        <f t="shared" si="7"/>
         <v>57980</v>
       </c>
       <c r="N34" s="26"/>
@@ -2745,34 +2628,34 @@
         <v>45935</v>
       </c>
       <c r="C35" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>6000</v>
       </c>
       <c r="D35" s="7">
-        <f>$E$3</f>
+        <f t="shared" si="0"/>
         <v>630</v>
       </c>
       <c r="E35" s="7">
         <v>0</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>6630</v>
       </c>
       <c r="G35" s="7">
-        <f>$H$2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H35" s="7">
-        <f>$H$3</f>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I35" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="J35" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5630</v>
       </c>
       <c r="K35" s="20">
@@ -2780,11 +2663,11 @@
         <v>126860</v>
       </c>
       <c r="L35" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>132650</v>
       </c>
       <c r="M35" s="7">
-        <f>$B$6-L35</f>
+        <f t="shared" si="7"/>
         <v>52350</v>
       </c>
       <c r="N35" s="26"/>
@@ -2798,34 +2681,34 @@
         <v>45966</v>
       </c>
       <c r="C36" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>6000</v>
       </c>
       <c r="D36" s="7">
-        <f>$E$3</f>
+        <f t="shared" si="0"/>
         <v>630</v>
       </c>
       <c r="E36" s="7">
         <v>0</v>
       </c>
       <c r="F36" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>6630</v>
       </c>
       <c r="G36" s="7">
-        <f>$H$2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H36" s="7">
-        <f>$H$3</f>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I36" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="J36" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5630</v>
       </c>
       <c r="K36" s="20">
@@ -2833,11 +2716,11 @@
         <v>132490</v>
       </c>
       <c r="L36" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>138280</v>
       </c>
       <c r="M36" s="7">
-        <f>$B$6-L36</f>
+        <f t="shared" si="7"/>
         <v>46720</v>
       </c>
       <c r="N36" s="26"/>
@@ -2851,34 +2734,34 @@
         <v>45996</v>
       </c>
       <c r="C37" s="19">
-        <f t="shared" ref="C37:C49" si="10">$E$2</f>
+        <f t="shared" ref="C37:C49" si="16">$E$2</f>
         <v>6000</v>
       </c>
       <c r="D37" s="2">
-        <f>$E$3</f>
+        <f t="shared" si="0"/>
         <v>630</v>
       </c>
       <c r="E37" s="12">
         <v>0</v>
       </c>
       <c r="F37" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>6630</v>
       </c>
       <c r="G37" s="12">
-        <f>$H$2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H37" s="12">
-        <f>$H$3</f>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I37" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="J37" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5630</v>
       </c>
       <c r="K37" s="2">
@@ -2886,11 +2769,11 @@
         <v>138120</v>
       </c>
       <c r="L37" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>143910</v>
       </c>
       <c r="M37" s="2">
-        <f>$B$6-L37</f>
+        <f t="shared" si="7"/>
         <v>41090</v>
       </c>
       <c r="N37" s="26"/>
@@ -2908,30 +2791,30 @@
         <v>6000</v>
       </c>
       <c r="D38" s="7">
-        <f>$E$3</f>
+        <f t="shared" si="0"/>
         <v>630</v>
       </c>
       <c r="E38" s="7">
         <v>0</v>
       </c>
       <c r="F38" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>6630</v>
       </c>
       <c r="G38" s="7">
-        <f>$H$2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H38" s="7">
-        <f>$H$3</f>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I38" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="J38" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5630</v>
       </c>
       <c r="K38" s="20">
@@ -2939,11 +2822,11 @@
         <v>143750</v>
       </c>
       <c r="L38" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>149540</v>
       </c>
       <c r="M38" s="7">
-        <f>$B$6-L38</f>
+        <f t="shared" si="7"/>
         <v>35460</v>
       </c>
       <c r="N38" s="26"/>
@@ -2957,34 +2840,34 @@
         <v>46058</v>
       </c>
       <c r="C39" s="14">
-        <f t="shared" ref="C39:C48" si="11">$E$2</f>
+        <f t="shared" ref="C39:C48" si="17">$E$2</f>
         <v>6000</v>
       </c>
       <c r="D39" s="7">
-        <f>$E$3</f>
+        <f t="shared" si="0"/>
         <v>630</v>
       </c>
       <c r="E39" s="7">
         <v>0</v>
       </c>
       <c r="F39" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>6630</v>
       </c>
       <c r="G39" s="7">
-        <f>$H$2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H39" s="7">
-        <f>$H$3</f>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I39" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="J39" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5630</v>
       </c>
       <c r="K39" s="20">
@@ -2992,11 +2875,11 @@
         <v>149380</v>
       </c>
       <c r="L39" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>155170</v>
       </c>
       <c r="M39" s="7">
-        <f>$B$6-L39</f>
+        <f t="shared" si="7"/>
         <v>29830</v>
       </c>
       <c r="N39" s="26"/>
@@ -3010,34 +2893,34 @@
         <v>46086</v>
       </c>
       <c r="C40" s="14">
+        <f t="shared" si="17"/>
+        <v>6000</v>
+      </c>
+      <c r="D40" s="7">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <f t="shared" si="12"/>
+        <v>6630</v>
+      </c>
+      <c r="G40" s="7">
         <f t="shared" si="11"/>
-        <v>6000</v>
-      </c>
-      <c r="D40" s="7">
-        <f>$E$3</f>
-        <v>630</v>
-      </c>
-      <c r="E40" s="7">
-        <v>0</v>
-      </c>
-      <c r="F40" s="4">
-        <f t="shared" si="6"/>
-        <v>6630</v>
-      </c>
-      <c r="G40" s="7">
-        <f>$H$2</f>
         <v>0</v>
       </c>
       <c r="H40" s="7">
-        <f>$H$3</f>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I40" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="J40" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5630</v>
       </c>
       <c r="K40" s="20">
@@ -3045,11 +2928,11 @@
         <v>155010</v>
       </c>
       <c r="L40" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>160800</v>
       </c>
       <c r="M40" s="7">
-        <f>$B$6-L40</f>
+        <f t="shared" si="7"/>
         <v>24200</v>
       </c>
       <c r="N40" s="26"/>
@@ -3063,34 +2946,34 @@
         <v>46117</v>
       </c>
       <c r="C41" s="14">
+        <f t="shared" si="17"/>
+        <v>6000</v>
+      </c>
+      <c r="D41" s="7">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <f t="shared" si="12"/>
+        <v>6630</v>
+      </c>
+      <c r="G41" s="7">
         <f t="shared" si="11"/>
-        <v>6000</v>
-      </c>
-      <c r="D41" s="7">
-        <f>$E$3</f>
-        <v>630</v>
-      </c>
-      <c r="E41" s="7">
-        <v>0</v>
-      </c>
-      <c r="F41" s="4">
-        <f t="shared" si="6"/>
-        <v>6630</v>
-      </c>
-      <c r="G41" s="7">
-        <f>$H$2</f>
         <v>0</v>
       </c>
       <c r="H41" s="7">
-        <f>$H$3</f>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I41" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="J41" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5630</v>
       </c>
       <c r="K41" s="20">
@@ -3098,11 +2981,11 @@
         <v>160640</v>
       </c>
       <c r="L41" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>166430</v>
       </c>
       <c r="M41" s="7">
-        <f>$B$6-L41</f>
+        <f t="shared" si="7"/>
         <v>18570</v>
       </c>
       <c r="N41" s="26"/>
@@ -3116,34 +2999,34 @@
         <v>46147</v>
       </c>
       <c r="C42" s="14">
+        <f t="shared" si="17"/>
+        <v>6000</v>
+      </c>
+      <c r="D42" s="7">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="E42" s="7">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <f t="shared" si="12"/>
+        <v>6630</v>
+      </c>
+      <c r="G42" s="7">
         <f t="shared" si="11"/>
-        <v>6000</v>
-      </c>
-      <c r="D42" s="7">
-        <f>$E$3</f>
-        <v>630</v>
-      </c>
-      <c r="E42" s="7">
-        <v>0</v>
-      </c>
-      <c r="F42" s="4">
-        <f t="shared" si="6"/>
-        <v>6630</v>
-      </c>
-      <c r="G42" s="7">
-        <f>$H$2</f>
         <v>0</v>
       </c>
       <c r="H42" s="7">
-        <f>$H$3</f>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I42" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="J42" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5630</v>
       </c>
       <c r="K42" s="20">
@@ -3151,11 +3034,11 @@
         <v>166270</v>
       </c>
       <c r="L42" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>172060</v>
       </c>
       <c r="M42" s="7">
-        <f>$B$6-L42</f>
+        <f t="shared" si="7"/>
         <v>12940</v>
       </c>
       <c r="N42" s="26"/>
@@ -3169,34 +3052,34 @@
         <v>46178</v>
       </c>
       <c r="C43" s="14">
+        <f t="shared" si="17"/>
+        <v>6000</v>
+      </c>
+      <c r="D43" s="7">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="E43" s="7">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <f t="shared" si="12"/>
+        <v>6630</v>
+      </c>
+      <c r="G43" s="7">
         <f t="shared" si="11"/>
-        <v>6000</v>
-      </c>
-      <c r="D43" s="7">
-        <f>$E$3</f>
-        <v>630</v>
-      </c>
-      <c r="E43" s="7">
-        <v>0</v>
-      </c>
-      <c r="F43" s="4">
-        <f t="shared" si="6"/>
-        <v>6630</v>
-      </c>
-      <c r="G43" s="7">
-        <f>$H$2</f>
         <v>0</v>
       </c>
       <c r="H43" s="7">
-        <f>$H$3</f>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I43" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="J43" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5630</v>
       </c>
       <c r="K43" s="20">
@@ -3204,11 +3087,11 @@
         <v>171900</v>
       </c>
       <c r="L43" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>177690</v>
       </c>
       <c r="M43" s="7">
-        <f>$B$6-L43</f>
+        <f t="shared" si="7"/>
         <v>7310</v>
       </c>
       <c r="N43" s="26"/>
@@ -3222,34 +3105,34 @@
         <v>46208</v>
       </c>
       <c r="C44" s="14">
+        <f t="shared" si="17"/>
+        <v>6000</v>
+      </c>
+      <c r="D44" s="7">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="E44" s="7">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <f t="shared" si="12"/>
+        <v>6630</v>
+      </c>
+      <c r="G44" s="7">
         <f t="shared" si="11"/>
-        <v>6000</v>
-      </c>
-      <c r="D44" s="7">
-        <f>$E$3</f>
-        <v>630</v>
-      </c>
-      <c r="E44" s="7">
-        <v>0</v>
-      </c>
-      <c r="F44" s="4">
-        <f t="shared" si="6"/>
-        <v>6630</v>
-      </c>
-      <c r="G44" s="7">
-        <f>$H$2</f>
         <v>0</v>
       </c>
       <c r="H44" s="7">
-        <f>$H$3</f>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I44" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="J44" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5630</v>
       </c>
       <c r="K44" s="20">
@@ -3257,11 +3140,11 @@
         <v>177530</v>
       </c>
       <c r="L44" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>183320</v>
       </c>
       <c r="M44" s="7">
-        <f>$B$6-L44</f>
+        <f t="shared" si="7"/>
         <v>1680</v>
       </c>
       <c r="N44" s="26"/>
@@ -3275,34 +3158,34 @@
         <v>46239</v>
       </c>
       <c r="C45" s="14">
+        <f t="shared" si="17"/>
+        <v>6000</v>
+      </c>
+      <c r="D45" s="7">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="E45" s="7">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4">
+        <f t="shared" si="12"/>
+        <v>6630</v>
+      </c>
+      <c r="G45" s="7">
         <f t="shared" si="11"/>
-        <v>6000</v>
-      </c>
-      <c r="D45" s="7">
-        <f>$E$3</f>
-        <v>630</v>
-      </c>
-      <c r="E45" s="7">
-        <v>0</v>
-      </c>
-      <c r="F45" s="4">
-        <f t="shared" si="6"/>
-        <v>6630</v>
-      </c>
-      <c r="G45" s="7">
-        <f>$H$2</f>
         <v>0</v>
       </c>
       <c r="H45" s="7">
-        <f>$H$3</f>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I45" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="J45" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5630</v>
       </c>
       <c r="K45" s="20">
@@ -3310,11 +3193,11 @@
         <v>183160</v>
       </c>
       <c r="L45" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>188950</v>
       </c>
       <c r="M45" s="7">
-        <f>$B$6-L45</f>
+        <f t="shared" si="7"/>
         <v>-3950</v>
       </c>
       <c r="N45" s="26"/>
@@ -3328,34 +3211,34 @@
         <v>46270</v>
       </c>
       <c r="C46" s="14">
+        <f t="shared" si="17"/>
+        <v>6000</v>
+      </c>
+      <c r="D46" s="7">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="E46" s="7">
+        <v>0</v>
+      </c>
+      <c r="F46" s="4">
+        <f t="shared" si="12"/>
+        <v>6630</v>
+      </c>
+      <c r="G46" s="7">
         <f t="shared" si="11"/>
-        <v>6000</v>
-      </c>
-      <c r="D46" s="7">
-        <f>$E$3</f>
-        <v>630</v>
-      </c>
-      <c r="E46" s="7">
-        <v>0</v>
-      </c>
-      <c r="F46" s="4">
-        <f t="shared" si="6"/>
-        <v>6630</v>
-      </c>
-      <c r="G46" s="7">
-        <f>$H$2</f>
         <v>0</v>
       </c>
       <c r="H46" s="7">
-        <f>$H$3</f>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I46" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="J46" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5630</v>
       </c>
       <c r="K46" s="20">
@@ -3363,11 +3246,11 @@
         <v>188790</v>
       </c>
       <c r="L46" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>194580</v>
       </c>
       <c r="M46" s="7">
-        <f>$B$6-L46</f>
+        <f t="shared" si="7"/>
         <v>-9580</v>
       </c>
       <c r="N46" s="26"/>
@@ -3381,34 +3264,34 @@
         <v>46300</v>
       </c>
       <c r="C47" s="14">
+        <f t="shared" si="17"/>
+        <v>6000</v>
+      </c>
+      <c r="D47" s="7">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="E47" s="7">
+        <v>0</v>
+      </c>
+      <c r="F47" s="4">
+        <f t="shared" si="12"/>
+        <v>6630</v>
+      </c>
+      <c r="G47" s="7">
         <f t="shared" si="11"/>
-        <v>6000</v>
-      </c>
-      <c r="D47" s="7">
-        <f>$E$3</f>
-        <v>630</v>
-      </c>
-      <c r="E47" s="7">
-        <v>0</v>
-      </c>
-      <c r="F47" s="4">
-        <f t="shared" si="6"/>
-        <v>6630</v>
-      </c>
-      <c r="G47" s="7">
-        <f>$H$2</f>
         <v>0</v>
       </c>
       <c r="H47" s="7">
-        <f>$H$3</f>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I47" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="J47" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5630</v>
       </c>
       <c r="K47" s="20">
@@ -3416,11 +3299,11 @@
         <v>194420</v>
       </c>
       <c r="L47" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>200210</v>
       </c>
       <c r="M47" s="7">
-        <f>$B$6-L47</f>
+        <f t="shared" si="7"/>
         <v>-15210</v>
       </c>
       <c r="N47" s="26"/>
@@ -3434,34 +3317,34 @@
         <v>46331</v>
       </c>
       <c r="C48" s="14">
+        <f t="shared" si="17"/>
+        <v>6000</v>
+      </c>
+      <c r="D48" s="7">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="E48" s="7">
+        <v>0</v>
+      </c>
+      <c r="F48" s="4">
+        <f t="shared" si="12"/>
+        <v>6630</v>
+      </c>
+      <c r="G48" s="7">
         <f t="shared" si="11"/>
-        <v>6000</v>
-      </c>
-      <c r="D48" s="7">
-        <f>$E$3</f>
-        <v>630</v>
-      </c>
-      <c r="E48" s="7">
-        <v>0</v>
-      </c>
-      <c r="F48" s="4">
-        <f t="shared" si="6"/>
-        <v>6630</v>
-      </c>
-      <c r="G48" s="7">
-        <f>$H$2</f>
         <v>0</v>
       </c>
       <c r="H48" s="7">
-        <f>$H$3</f>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I48" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="J48" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5630</v>
       </c>
       <c r="K48" s="20">
@@ -3469,11 +3352,11 @@
         <v>200050</v>
       </c>
       <c r="L48" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>205840</v>
       </c>
       <c r="M48" s="7">
-        <f>$B$6-L48</f>
+        <f t="shared" si="7"/>
         <v>-20840</v>
       </c>
       <c r="N48" s="26"/>
@@ -3487,34 +3370,34 @@
         <v>46361</v>
       </c>
       <c r="C49" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6000</v>
       </c>
       <c r="D49" s="2">
-        <f>$E$3</f>
+        <f t="shared" si="0"/>
         <v>630</v>
       </c>
       <c r="E49" s="12">
         <v>0</v>
       </c>
       <c r="F49" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>6630</v>
       </c>
       <c r="G49" s="12">
-        <f>$H$2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H49" s="12">
-        <f>$H$3</f>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I49" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="J49" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5630</v>
       </c>
       <c r="K49" s="2">
@@ -3522,11 +3405,11 @@
         <v>205680</v>
       </c>
       <c r="L49" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>211470</v>
       </c>
       <c r="M49" s="2">
-        <f>$B$6-L49</f>
+        <f t="shared" si="7"/>
         <v>-26470</v>
       </c>
       <c r="N49" s="26"/>
@@ -3534,13 +3417,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="M1:O1"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:F11"/>
@@ -3550,19 +3431,21 @@
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
   </mergeCells>
   <conditionalFormatting sqref="A11:I13">
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:M49">
-    <cfRule type="cellIs" dxfId="2" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="lessThan">
       <formula>$K$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3603,7 +3486,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="80" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -3612,7 +3495,7 @@
       <c r="C2" s="8">
         <v>5000</v>
       </c>
-      <c r="D2" s="73">
+      <c r="D2" s="82">
         <f>SUM(C2:C18)</f>
         <v>14050</v>
       </c>
@@ -3621,163 +3504,163 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="72"/>
+      <c r="A3" s="81"/>
       <c r="B3" s="8" t="s">
         <v>93</v>
       </c>
       <c r="C3" s="8">
         <v>1600</v>
       </c>
-      <c r="D3" s="73"/>
+      <c r="D3" s="82"/>
       <c r="F3" s="37"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="72"/>
+      <c r="A4" s="81"/>
       <c r="B4" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="8">
         <v>600</v>
       </c>
-      <c r="D4" s="73"/>
+      <c r="D4" s="82"/>
       <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="72"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C5" s="8">
         <v>2000</v>
       </c>
-      <c r="D5" s="73"/>
+      <c r="D5" s="82"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="72"/>
+      <c r="A6" s="81"/>
       <c r="B6" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="8">
         <v>700</v>
       </c>
-      <c r="D6" s="73"/>
+      <c r="D6" s="82"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="72"/>
+      <c r="A7" s="81"/>
       <c r="B7" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="8">
         <v>1500</v>
       </c>
-      <c r="D7" s="73"/>
+      <c r="D7" s="82"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="72"/>
+      <c r="A8" s="81"/>
       <c r="B8" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C8" s="8">
         <v>500</v>
       </c>
-      <c r="D8" s="73"/>
+      <c r="D8" s="82"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="72"/>
+      <c r="A9" s="81"/>
       <c r="B9" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C9" s="8">
         <v>150</v>
       </c>
-      <c r="D9" s="73"/>
+      <c r="D9" s="82"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="72"/>
+      <c r="A10" s="81"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="73"/>
+      <c r="D10" s="82"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="72"/>
+      <c r="A11" s="81"/>
       <c r="B11" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="74">
+      <c r="C11" s="83">
         <v>600</v>
       </c>
-      <c r="D11" s="73"/>
+      <c r="D11" s="82"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="72"/>
+      <c r="A12" s="81"/>
       <c r="B12" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="75"/>
-      <c r="D12" s="73"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="82"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="72"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="73"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="82"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="72"/>
+      <c r="A14" s="81"/>
       <c r="B14" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="73"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="82"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="72"/>
+      <c r="A15" s="81"/>
       <c r="B15" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="73"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="82"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="72"/>
+      <c r="A16" s="81"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="73"/>
+      <c r="D16" s="82"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="72"/>
+      <c r="A17" s="81"/>
       <c r="B17" s="8" t="s">
         <v>73</v>
       </c>
       <c r="C17" s="8">
         <v>400</v>
       </c>
-      <c r="D17" s="73"/>
+      <c r="D17" s="82"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="72"/>
+      <c r="A18" s="81"/>
       <c r="B18" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C18" s="8">
         <v>1000</v>
       </c>
-      <c r="D18" s="73"/>
+      <c r="D18" s="82"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="78">
+      <c r="C19" s="74">
         <v>1000</v>
       </c>
       <c r="D19" s="77">
@@ -3787,12 +3670,12 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="77"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
       <c r="D20" s="77"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="78" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -3801,23 +3684,23 @@
       <c r="C21" s="5">
         <v>700</v>
       </c>
-      <c r="D21" s="81">
+      <c r="D21" s="78">
         <f>SUM(C21:C22)</f>
         <v>1200</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="81"/>
+      <c r="A22" s="78"/>
       <c r="B22" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="5">
         <v>500</v>
       </c>
-      <c r="D22" s="81"/>
+      <c r="D22" s="78"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="82" t="s">
+      <c r="A23" s="79" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -3826,23 +3709,23 @@
       <c r="C23" s="4">
         <v>200</v>
       </c>
-      <c r="D23" s="82">
+      <c r="D23" s="79">
         <f>SUM(C23:C24)</f>
         <v>2200</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="82"/>
+      <c r="A24" s="79"/>
       <c r="B24" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C24" s="4">
         <v>2000</v>
       </c>
-      <c r="D24" s="82"/>
+      <c r="D24" s="79"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="78" t="s">
+      <c r="A25" s="74" t="s">
         <v>91</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -3851,100 +3734,100 @@
       <c r="C25" s="1">
         <v>1600</v>
       </c>
-      <c r="D25" s="78">
+      <c r="D25" s="74">
         <f>SUM(C25:C34)</f>
         <v>13350</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="80"/>
+      <c r="A26" s="75"/>
       <c r="B26" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C26" s="1">
         <v>2000</v>
       </c>
-      <c r="D26" s="80"/>
+      <c r="D26" s="75"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="80"/>
+      <c r="A27" s="75"/>
       <c r="B27" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C27" s="1">
         <v>1500</v>
       </c>
-      <c r="D27" s="80"/>
+      <c r="D27" s="75"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="80"/>
+      <c r="A28" s="75"/>
       <c r="B28" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C28" s="1">
         <v>500</v>
       </c>
-      <c r="D28" s="80"/>
+      <c r="D28" s="75"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="80"/>
+      <c r="A29" s="75"/>
       <c r="B29" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C29" s="1">
         <v>250</v>
       </c>
-      <c r="D29" s="80"/>
+      <c r="D29" s="75"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="80"/>
+      <c r="A30" s="75"/>
       <c r="B30" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C30" s="1">
         <v>700</v>
       </c>
-      <c r="D30" s="80"/>
+      <c r="D30" s="75"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="80"/>
+      <c r="A31" s="75"/>
       <c r="B31" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C31" s="1">
         <v>3500</v>
       </c>
-      <c r="D31" s="80"/>
+      <c r="D31" s="75"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="80"/>
+      <c r="A32" s="75"/>
       <c r="B32" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C32" s="1">
         <v>2000</v>
       </c>
-      <c r="D32" s="80"/>
+      <c r="D32" s="75"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="80"/>
+      <c r="A33" s="75"/>
       <c r="B33" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C33" s="1">
         <v>500</v>
       </c>
-      <c r="D33" s="80"/>
+      <c r="D33" s="75"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="79"/>
+      <c r="A34" s="76"/>
       <c r="B34" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C34" s="1">
         <v>800</v>
       </c>
-      <c r="D34" s="79"/>
+      <c r="D34" s="76"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="77" t="s">
@@ -4033,6 +3916,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="D2:D18"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
     <mergeCell ref="A25:A34"/>
     <mergeCell ref="D25:D34"/>
     <mergeCell ref="A35:A42"/>
@@ -4041,13 +3931,6 @@
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="D2:D18"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4473,10 +4356,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="83"/>
+      <c r="B1" s="86"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TheAncientOwl\Documents\Finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67492540-7E31-4F41-9AF8-5A524ED86B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F07DDD-8452-4EED-88BA-A8B07FAD37D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="180" windowWidth="23256" windowHeight="12888" xr2:uid="{F762C5AB-E878-4D42-A6F3-9B1185CC87EF}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="117">
   <si>
     <t>no</t>
   </si>
@@ -391,6 +391,9 @@
   </si>
   <si>
     <t>Total Target - Backup</t>
+  </si>
+  <si>
+    <t>rată</t>
   </si>
 </sst>
 </file>
@@ -433,7 +436,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,12 +482,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -660,18 +657,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -684,8 +681,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -699,20 +696,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -726,32 +723,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -759,119 +810,62 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1211,7 +1205,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1250,17 +1244,17 @@
       <c r="H1" s="36">
         <v>200</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="45">
+      <c r="K1" s="44">
         <v>5</v>
       </c>
-      <c r="M1" s="72" t="s">
+      <c r="M1" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
@@ -1282,10 +1276,10 @@
       <c r="H2" s="36">
         <v>0</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="K2" s="46">
+      <c r="K2" s="45">
         <v>85000</v>
       </c>
       <c r="M2" s="31" t="s">
@@ -1320,14 +1314,14 @@
       </c>
       <c r="M3" s="32">
         <f>SUM('Mobilat-Utilat'!D2:D42)</f>
-        <v>37500</v>
+        <v>43500</v>
       </c>
       <c r="N3" s="32">
         <v>60</v>
       </c>
       <c r="O3" s="32">
         <f>M3/N3</f>
-        <v>625</v>
+        <v>725</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -1363,17 +1357,17 @@
         <v>185000</v>
       </c>
       <c r="E6"/>
-      <c r="G6" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="H6" s="65"/>
-      <c r="I6" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="68" t="s">
+      <c r="G6" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="47"/>
+      <c r="I6" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="K6" s="70" t="s">
+      <c r="K6" s="50" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1385,9 +1379,9 @@
       <c r="H7" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="71"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="51"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
@@ -1398,22 +1392,22 @@
       </c>
       <c r="G8" s="40">
         <f>O3</f>
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="H8" s="40">
         <v>2000</v>
       </c>
-      <c r="I8" s="41">
-        <f>H3</f>
-        <v>1000</v>
-      </c>
-      <c r="J8" s="42">
+      <c r="I8" s="40">
+        <f>SUM(G8:H8)</f>
+        <v>2725</v>
+      </c>
+      <c r="J8" s="41">
         <f>E2+E3</f>
         <v>6630</v>
       </c>
-      <c r="K8" s="43">
-        <f>J8-I8-H8-G8</f>
-        <v>3005</v>
+      <c r="K8" s="42">
+        <f>J8-I8</f>
+        <v>3905</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -1421,8 +1415,7 @@
         <v>111</v>
       </c>
       <c r="B9" s="22">
-        <f>B8-B4</f>
-        <v>5790</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1444,11 +1437,11 @@
       </c>
       <c r="H11" s="61"/>
       <c r="I11" s="61"/>
-      <c r="J11" s="47" t="s">
+      <c r="J11" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
       <c r="M11" s="28" t="s">
         <v>101</v>
       </c>
@@ -1469,25 +1462,25 @@
       <c r="F12" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="H12" s="51" t="s">
+      <c r="H12" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="52" t="s">
+      <c r="I12" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="53" t="s">
+      <c r="J12" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="K12" s="53" t="s">
+      <c r="K12" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="L12" s="48" t="s">
+      <c r="L12" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="M12" s="49" t="s">
+      <c r="M12" s="67" t="s">
         <v>92</v>
       </c>
       <c r="N12" s="33"/>
@@ -1499,13 +1492,13 @@
       <c r="D13" s="62"/>
       <c r="E13" s="62"/>
       <c r="F13" s="63"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="50"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="68"/>
       <c r="N13" s="33"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -1553,11 +1546,11 @@
       </c>
       <c r="L14" s="5">
         <f>K14+$B$9</f>
-        <v>11620</v>
+        <v>10830</v>
       </c>
       <c r="M14" s="7">
         <f t="shared" ref="M14:M49" si="7">$B$6-L14</f>
-        <v>173380</v>
+        <v>174170</v>
       </c>
       <c r="N14" s="26"/>
     </row>
@@ -1606,11 +1599,11 @@
       </c>
       <c r="L15" s="5">
         <f t="shared" ref="L15:L49" si="9">K15+$B$9</f>
-        <v>17450</v>
+        <v>16660</v>
       </c>
       <c r="M15" s="7">
         <f t="shared" si="7"/>
-        <v>167550</v>
+        <v>168340</v>
       </c>
       <c r="N15" s="26"/>
     </row>
@@ -1659,11 +1652,11 @@
       </c>
       <c r="L16" s="5">
         <f t="shared" si="9"/>
-        <v>23280</v>
+        <v>22490</v>
       </c>
       <c r="M16" s="7">
         <f t="shared" si="7"/>
-        <v>161720</v>
+        <v>162510</v>
       </c>
       <c r="N16" s="26"/>
     </row>
@@ -1712,11 +1705,11 @@
       </c>
       <c r="L17" s="5">
         <f t="shared" si="9"/>
-        <v>29110</v>
+        <v>28320</v>
       </c>
       <c r="M17" s="7">
         <f t="shared" si="7"/>
-        <v>155890</v>
+        <v>156680</v>
       </c>
       <c r="N17" s="26"/>
     </row>
@@ -1765,11 +1758,11 @@
       </c>
       <c r="L18" s="5">
         <f t="shared" si="9"/>
-        <v>34940</v>
+        <v>34150</v>
       </c>
       <c r="M18" s="7">
         <f t="shared" si="7"/>
-        <v>150060</v>
+        <v>150850</v>
       </c>
       <c r="N18" s="26"/>
     </row>
@@ -1818,11 +1811,11 @@
       </c>
       <c r="L19" s="5">
         <f t="shared" si="9"/>
-        <v>40770</v>
+        <v>39980</v>
       </c>
       <c r="M19" s="7">
         <f t="shared" si="7"/>
-        <v>144230</v>
+        <v>145020</v>
       </c>
       <c r="N19" s="26"/>
     </row>
@@ -1871,11 +1864,11 @@
       </c>
       <c r="L20" s="5">
         <f t="shared" si="9"/>
-        <v>47200</v>
+        <v>46410</v>
       </c>
       <c r="M20" s="7">
         <f t="shared" si="7"/>
-        <v>137800</v>
+        <v>138590</v>
       </c>
       <c r="N20" s="26"/>
       <c r="O20" s="26"/>
@@ -1925,11 +1918,11 @@
       </c>
       <c r="L21" s="5">
         <f t="shared" si="9"/>
-        <v>53830</v>
+        <v>53040</v>
       </c>
       <c r="M21" s="7">
         <f t="shared" si="7"/>
-        <v>131170</v>
+        <v>131960</v>
       </c>
       <c r="N21" s="26"/>
       <c r="O21" s="26"/>
@@ -1978,11 +1971,11 @@
       </c>
       <c r="L22" s="5">
         <f t="shared" si="9"/>
-        <v>59460</v>
+        <v>58670</v>
       </c>
       <c r="M22" s="7">
         <f t="shared" si="7"/>
-        <v>125540</v>
+        <v>126330</v>
       </c>
       <c r="N22" s="26"/>
     </row>
@@ -2030,11 +2023,11 @@
       </c>
       <c r="L23" s="5">
         <f t="shared" si="9"/>
-        <v>65090</v>
+        <v>64300</v>
       </c>
       <c r="M23" s="7">
         <f t="shared" si="7"/>
-        <v>119910</v>
+        <v>120700</v>
       </c>
       <c r="N23" s="26"/>
     </row>
@@ -2082,11 +2075,11 @@
       </c>
       <c r="L24" s="5">
         <f t="shared" si="9"/>
-        <v>70720</v>
+        <v>69930</v>
       </c>
       <c r="M24" s="7">
         <f t="shared" si="7"/>
-        <v>114280</v>
+        <v>115070</v>
       </c>
       <c r="N24" s="26"/>
     </row>
@@ -2134,11 +2127,11 @@
       </c>
       <c r="L25" s="2">
         <f t="shared" si="9"/>
-        <v>76350</v>
+        <v>75560</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="7"/>
-        <v>108650</v>
+        <v>109440</v>
       </c>
       <c r="N25" s="26"/>
       <c r="O25" s="26"/>
@@ -2187,11 +2180,11 @@
       </c>
       <c r="L26" s="5">
         <f t="shared" si="9"/>
-        <v>81980</v>
+        <v>81190</v>
       </c>
       <c r="M26" s="7">
         <f t="shared" si="7"/>
-        <v>103020</v>
+        <v>103810</v>
       </c>
       <c r="N26" s="26"/>
       <c r="O26" s="26"/>
@@ -2240,11 +2233,11 @@
       </c>
       <c r="L27" s="5">
         <f t="shared" si="9"/>
-        <v>87610</v>
+        <v>86820</v>
       </c>
       <c r="M27" s="7">
         <f t="shared" si="7"/>
-        <v>97390</v>
+        <v>98180</v>
       </c>
       <c r="N27" s="26"/>
       <c r="O27" s="26"/>
@@ -2293,11 +2286,11 @@
       </c>
       <c r="L28" s="5">
         <f t="shared" si="9"/>
-        <v>93240</v>
+        <v>92450</v>
       </c>
       <c r="M28" s="7">
         <f t="shared" si="7"/>
-        <v>91760</v>
+        <v>92550</v>
       </c>
       <c r="N28" s="26"/>
       <c r="O28" s="26"/>
@@ -2346,11 +2339,11 @@
       </c>
       <c r="L29" s="5">
         <f t="shared" si="9"/>
-        <v>98870</v>
+        <v>98080</v>
       </c>
       <c r="M29" s="7">
         <f t="shared" si="7"/>
-        <v>86130</v>
+        <v>86920</v>
       </c>
       <c r="N29" s="26"/>
       <c r="O29" s="26"/>
@@ -2399,11 +2392,11 @@
       </c>
       <c r="L30" s="5">
         <f t="shared" si="9"/>
-        <v>104500</v>
+        <v>103710</v>
       </c>
       <c r="M30" s="7">
         <f t="shared" si="7"/>
-        <v>80500</v>
+        <v>81290</v>
       </c>
       <c r="N30" s="26"/>
       <c r="O30" s="26"/>
@@ -2452,11 +2445,11 @@
       </c>
       <c r="L31" s="5">
         <f t="shared" si="9"/>
-        <v>110130</v>
+        <v>109340</v>
       </c>
       <c r="M31" s="7">
         <f t="shared" si="7"/>
-        <v>74870</v>
+        <v>75660</v>
       </c>
       <c r="N31" s="26"/>
       <c r="O31" s="26"/>
@@ -2505,11 +2498,11 @@
       </c>
       <c r="L32" s="5">
         <f t="shared" si="9"/>
-        <v>115760</v>
+        <v>114970</v>
       </c>
       <c r="M32" s="7">
         <f t="shared" si="7"/>
-        <v>69240</v>
+        <v>70030</v>
       </c>
       <c r="N32" s="26"/>
       <c r="O32" s="26"/>
@@ -2558,11 +2551,11 @@
       </c>
       <c r="L33" s="5">
         <f t="shared" si="9"/>
-        <v>121390</v>
+        <v>120600</v>
       </c>
       <c r="M33" s="7">
         <f t="shared" si="7"/>
-        <v>63610</v>
+        <v>64400</v>
       </c>
       <c r="N33" s="26"/>
       <c r="O33" s="26"/>
@@ -2611,11 +2604,11 @@
       </c>
       <c r="L34" s="5">
         <f t="shared" si="9"/>
-        <v>127020</v>
+        <v>126230</v>
       </c>
       <c r="M34" s="7">
         <f t="shared" si="7"/>
-        <v>57980</v>
+        <v>58770</v>
       </c>
       <c r="N34" s="26"/>
       <c r="O34" s="26"/>
@@ -2664,11 +2657,11 @@
       </c>
       <c r="L35" s="5">
         <f t="shared" si="9"/>
-        <v>132650</v>
+        <v>131860</v>
       </c>
       <c r="M35" s="7">
         <f t="shared" si="7"/>
-        <v>52350</v>
+        <v>53140</v>
       </c>
       <c r="N35" s="26"/>
       <c r="O35" s="26"/>
@@ -2717,11 +2710,11 @@
       </c>
       <c r="L36" s="5">
         <f t="shared" si="9"/>
-        <v>138280</v>
+        <v>137490</v>
       </c>
       <c r="M36" s="7">
         <f t="shared" si="7"/>
-        <v>46720</v>
+        <v>47510</v>
       </c>
       <c r="N36" s="26"/>
       <c r="O36" s="26"/>
@@ -2770,11 +2763,11 @@
       </c>
       <c r="L37" s="2">
         <f t="shared" si="9"/>
-        <v>143910</v>
+        <v>143120</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="7"/>
-        <v>41090</v>
+        <v>41880</v>
       </c>
       <c r="N37" s="26"/>
       <c r="O37" s="26"/>
@@ -2823,11 +2816,11 @@
       </c>
       <c r="L38" s="5">
         <f t="shared" si="9"/>
-        <v>149540</v>
+        <v>148750</v>
       </c>
       <c r="M38" s="7">
         <f t="shared" si="7"/>
-        <v>35460</v>
+        <v>36250</v>
       </c>
       <c r="N38" s="26"/>
       <c r="O38" s="26"/>
@@ -2876,11 +2869,11 @@
       </c>
       <c r="L39" s="5">
         <f t="shared" si="9"/>
-        <v>155170</v>
+        <v>154380</v>
       </c>
       <c r="M39" s="7">
         <f t="shared" si="7"/>
-        <v>29830</v>
+        <v>30620</v>
       </c>
       <c r="N39" s="26"/>
       <c r="O39" s="26"/>
@@ -2929,11 +2922,11 @@
       </c>
       <c r="L40" s="5">
         <f t="shared" si="9"/>
-        <v>160800</v>
+        <v>160010</v>
       </c>
       <c r="M40" s="7">
         <f t="shared" si="7"/>
-        <v>24200</v>
+        <v>24990</v>
       </c>
       <c r="N40" s="26"/>
       <c r="O40" s="26"/>
@@ -2982,11 +2975,11 @@
       </c>
       <c r="L41" s="5">
         <f t="shared" si="9"/>
-        <v>166430</v>
+        <v>165640</v>
       </c>
       <c r="M41" s="7">
         <f t="shared" si="7"/>
-        <v>18570</v>
+        <v>19360</v>
       </c>
       <c r="N41" s="26"/>
       <c r="O41" s="26"/>
@@ -3035,11 +3028,11 @@
       </c>
       <c r="L42" s="5">
         <f t="shared" si="9"/>
-        <v>172060</v>
+        <v>171270</v>
       </c>
       <c r="M42" s="7">
         <f t="shared" si="7"/>
-        <v>12940</v>
+        <v>13730</v>
       </c>
       <c r="N42" s="26"/>
       <c r="O42" s="26"/>
@@ -3088,11 +3081,11 @@
       </c>
       <c r="L43" s="5">
         <f t="shared" si="9"/>
-        <v>177690</v>
+        <v>176900</v>
       </c>
       <c r="M43" s="7">
         <f t="shared" si="7"/>
-        <v>7310</v>
+        <v>8100</v>
       </c>
       <c r="N43" s="26"/>
       <c r="O43" s="26"/>
@@ -3141,11 +3134,11 @@
       </c>
       <c r="L44" s="5">
         <f t="shared" si="9"/>
-        <v>183320</v>
+        <v>182530</v>
       </c>
       <c r="M44" s="7">
         <f t="shared" si="7"/>
-        <v>1680</v>
+        <v>2470</v>
       </c>
       <c r="N44" s="26"/>
       <c r="O44" s="26"/>
@@ -3194,11 +3187,11 @@
       </c>
       <c r="L45" s="5">
         <f t="shared" si="9"/>
-        <v>188950</v>
+        <v>188160</v>
       </c>
       <c r="M45" s="7">
         <f t="shared" si="7"/>
-        <v>-3950</v>
+        <v>-3160</v>
       </c>
       <c r="N45" s="26"/>
       <c r="O45" s="26"/>
@@ -3247,11 +3240,11 @@
       </c>
       <c r="L46" s="5">
         <f t="shared" si="9"/>
-        <v>194580</v>
+        <v>193790</v>
       </c>
       <c r="M46" s="7">
         <f t="shared" si="7"/>
-        <v>-9580</v>
+        <v>-8790</v>
       </c>
       <c r="N46" s="26"/>
       <c r="O46" s="26"/>
@@ -3300,11 +3293,11 @@
       </c>
       <c r="L47" s="5">
         <f t="shared" si="9"/>
-        <v>200210</v>
+        <v>199420</v>
       </c>
       <c r="M47" s="7">
         <f t="shared" si="7"/>
-        <v>-15210</v>
+        <v>-14420</v>
       </c>
       <c r="N47" s="26"/>
       <c r="O47" s="26"/>
@@ -3353,11 +3346,11 @@
       </c>
       <c r="L48" s="5">
         <f t="shared" si="9"/>
-        <v>205840</v>
+        <v>205050</v>
       </c>
       <c r="M48" s="7">
         <f t="shared" si="7"/>
-        <v>-20840</v>
+        <v>-20050</v>
       </c>
       <c r="N48" s="26"/>
       <c r="O48" s="26"/>
@@ -3406,22 +3399,24 @@
       </c>
       <c r="L49" s="2">
         <f t="shared" si="9"/>
-        <v>211470</v>
+        <v>210680</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="7"/>
-        <v>-26470</v>
+        <v>-25680</v>
       </c>
       <c r="N49" s="26"/>
       <c r="O49" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:F11"/>
@@ -3431,13 +3426,11 @@
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <conditionalFormatting sqref="A11:I13">
     <cfRule type="cellIs" dxfId="1" priority="10" operator="lessThan">
@@ -3459,7 +3452,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3486,181 +3479,185 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="71" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="8">
-        <v>5000</v>
-      </c>
-      <c r="D2" s="82">
+        <v>11000</v>
+      </c>
+      <c r="D2" s="73">
         <f>SUM(C2:C18)</f>
-        <v>14050</v>
+        <v>20050</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="81"/>
+      <c r="A3" s="72"/>
       <c r="B3" s="8" t="s">
         <v>93</v>
       </c>
       <c r="C3" s="8">
         <v>1600</v>
       </c>
-      <c r="D3" s="82"/>
+      <c r="D3" s="73"/>
       <c r="F3" s="37"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="81"/>
+      <c r="A4" s="72"/>
       <c r="B4" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="8">
         <v>600</v>
       </c>
-      <c r="D4" s="82"/>
+      <c r="D4" s="73"/>
       <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="81"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C5" s="8">
         <v>2000</v>
       </c>
-      <c r="D5" s="82"/>
+      <c r="D5" s="73"/>
+      <c r="F5">
+        <f>C3+C4+C5+C6+C7</f>
+        <v>6400</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="81"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="8">
         <v>700</v>
       </c>
-      <c r="D6" s="82"/>
+      <c r="D6" s="73"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="81"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="8">
         <v>1500</v>
       </c>
-      <c r="D7" s="82"/>
+      <c r="D7" s="73"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="81"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C8" s="8">
         <v>500</v>
       </c>
-      <c r="D8" s="82"/>
+      <c r="D8" s="73"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="81"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C9" s="8">
         <v>150</v>
       </c>
-      <c r="D9" s="82"/>
+      <c r="D9" s="73"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="81"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="82"/>
+      <c r="D10" s="73"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="81"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="83">
+      <c r="C11" s="74">
         <v>600</v>
       </c>
-      <c r="D11" s="82"/>
+      <c r="D11" s="73"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="81"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="84"/>
-      <c r="D12" s="82"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="73"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="81"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="82"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="73"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="81"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="84"/>
-      <c r="D14" s="82"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="73"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="81"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="82"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="73"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="81"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="82"/>
+      <c r="D16" s="73"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="81"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="8" t="s">
         <v>73</v>
       </c>
       <c r="C17" s="8">
         <v>400</v>
       </c>
-      <c r="D17" s="82"/>
+      <c r="D17" s="73"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="81"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C18" s="8">
         <v>1000</v>
       </c>
-      <c r="D18" s="82"/>
+      <c r="D18" s="73"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="74">
+      <c r="C19" s="78">
         <v>1000</v>
       </c>
       <c r="D19" s="77">
@@ -3670,12 +3667,12 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="77"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="77"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="81" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -3684,23 +3681,23 @@
       <c r="C21" s="5">
         <v>700</v>
       </c>
-      <c r="D21" s="78">
+      <c r="D21" s="81">
         <f>SUM(C21:C22)</f>
         <v>1200</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="78"/>
+      <c r="A22" s="81"/>
       <c r="B22" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="5">
         <v>500</v>
       </c>
-      <c r="D22" s="78"/>
+      <c r="D22" s="81"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="79" t="s">
+      <c r="A23" s="82" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -3709,23 +3706,23 @@
       <c r="C23" s="4">
         <v>200</v>
       </c>
-      <c r="D23" s="79">
+      <c r="D23" s="82">
         <f>SUM(C23:C24)</f>
         <v>2200</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="79"/>
+      <c r="A24" s="82"/>
       <c r="B24" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C24" s="4">
         <v>2000</v>
       </c>
-      <c r="D24" s="79"/>
+      <c r="D24" s="82"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="74" t="s">
+      <c r="A25" s="78" t="s">
         <v>91</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -3734,100 +3731,100 @@
       <c r="C25" s="1">
         <v>1600</v>
       </c>
-      <c r="D25" s="74">
+      <c r="D25" s="78">
         <f>SUM(C25:C34)</f>
         <v>13350</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="75"/>
+      <c r="A26" s="80"/>
       <c r="B26" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C26" s="1">
         <v>2000</v>
       </c>
-      <c r="D26" s="75"/>
+      <c r="D26" s="80"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="75"/>
+      <c r="A27" s="80"/>
       <c r="B27" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C27" s="1">
         <v>1500</v>
       </c>
-      <c r="D27" s="75"/>
+      <c r="D27" s="80"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="75"/>
+      <c r="A28" s="80"/>
       <c r="B28" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C28" s="1">
         <v>500</v>
       </c>
-      <c r="D28" s="75"/>
+      <c r="D28" s="80"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="75"/>
+      <c r="A29" s="80"/>
       <c r="B29" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C29" s="1">
         <v>250</v>
       </c>
-      <c r="D29" s="75"/>
+      <c r="D29" s="80"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="75"/>
+      <c r="A30" s="80"/>
       <c r="B30" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C30" s="1">
         <v>700</v>
       </c>
-      <c r="D30" s="75"/>
+      <c r="D30" s="80"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="75"/>
+      <c r="A31" s="80"/>
       <c r="B31" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C31" s="1">
         <v>3500</v>
       </c>
-      <c r="D31" s="75"/>
+      <c r="D31" s="80"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="75"/>
+      <c r="A32" s="80"/>
       <c r="B32" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C32" s="1">
         <v>2000</v>
       </c>
-      <c r="D32" s="75"/>
+      <c r="D32" s="80"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="75"/>
+      <c r="A33" s="80"/>
       <c r="B33" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C33" s="1">
         <v>500</v>
       </c>
-      <c r="D33" s="75"/>
+      <c r="D33" s="80"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="76"/>
+      <c r="A34" s="79"/>
       <c r="B34" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C34" s="1">
         <v>800</v>
       </c>
-      <c r="D34" s="76"/>
+      <c r="D34" s="79"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="77" t="s">
@@ -3916,13 +3913,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="D2:D18"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
     <mergeCell ref="A25:A34"/>
     <mergeCell ref="D25:D34"/>
     <mergeCell ref="A35:A42"/>
@@ -3931,6 +3921,13 @@
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="D2:D18"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4356,10 +4353,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="86"/>
+      <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
